--- a/小说写作辅助工具V1.8.xlsx
+++ b/小说写作辅助工具V1.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/scifi-movel-generator-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503CA47F-128A-3746-A02D-1F8C449AC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A095F1-4BF3-A742-8362-8ADFE0B83AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2518,7 +2518,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -2527,7 +2528,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2552,7 +2554,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -2561,7 +2564,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2586,7 +2590,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -2595,7 +2600,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2620,7 +2626,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -2629,7 +2636,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2665,7 +2673,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -2674,7 +2683,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3055,7 +3065,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -3064,7 +3075,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3570,7 +3582,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -3579,7 +3592,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -4084,7 +4098,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -4093,7 +4108,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -4656,7 +4672,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -4665,7 +4682,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -4900,7 +4918,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -4909,7 +4928,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -27346,14 +27366,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -28956,55 +28978,52 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29016,91 +29035,70 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29109,28 +29107,13 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -29175,13 +29158,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29205,6 +29194,15 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -29223,107 +29221,95 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -29346,7 +29332,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29366,6 +29358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -29403,6 +29398,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -29421,6 +29443,21 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -29431,21 +29468,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29777,8 +29799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="37" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:T11"/>
+    <sheetView tabSelected="1" topLeftCell="Q29" zoomScale="37" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37:AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="86" customHeight="1"/>
@@ -29788,167 +29810,167 @@
   <sheetData>
     <row r="2" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B2" s="216"/>
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="326" t="s">
         <v>6368</v>
       </c>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
-      <c r="N2" s="340"/>
-      <c r="O2" s="340"/>
-      <c r="P2" s="340"/>
-      <c r="Q2" s="340"/>
-      <c r="R2" s="340"/>
-      <c r="S2" s="340"/>
-      <c r="T2" s="340"/>
-      <c r="U2" s="340"/>
-      <c r="V2" s="340"/>
-      <c r="W2" s="340"/>
-      <c r="X2" s="340"/>
-      <c r="Y2" s="340"/>
-      <c r="Z2" s="340"/>
-      <c r="AA2" s="340"/>
-      <c r="AB2" s="340"/>
-      <c r="AC2" s="340"/>
-      <c r="AD2" s="340"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="340"/>
-      <c r="AG2" s="340"/>
-      <c r="AH2" s="340"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="327"/>
+      <c r="V2" s="327"/>
+      <c r="W2" s="327"/>
+      <c r="X2" s="327"/>
+      <c r="Y2" s="327"/>
+      <c r="Z2" s="327"/>
+      <c r="AA2" s="327"/>
+      <c r="AB2" s="327"/>
+      <c r="AC2" s="327"/>
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="327"/>
+      <c r="AG2" s="327"/>
+      <c r="AH2" s="327"/>
       <c r="AI2" s="216"/>
     </row>
     <row r="3" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B3" s="216"/>
-      <c r="C3" s="300" t="s">
+      <c r="C3" s="340" t="s">
         <v>6055</v>
       </c>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
-      <c r="S3" s="300" t="s">
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="341"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="340" t="s">
         <v>6052</v>
       </c>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="301"/>
-      <c r="AA3" s="301"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="301"/>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="301"/>
-      <c r="AH3" s="302"/>
+      <c r="T3" s="341"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
+      <c r="Y3" s="341"/>
+      <c r="Z3" s="341"/>
+      <c r="AA3" s="341"/>
+      <c r="AB3" s="341"/>
+      <c r="AC3" s="341"/>
+      <c r="AD3" s="341"/>
+      <c r="AE3" s="341"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="341"/>
+      <c r="AH3" s="342"/>
       <c r="AI3" s="216"/>
     </row>
     <row r="4" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="297" t="s">
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="296" t="s">
         <v>4637</v>
       </c>
-      <c r="H4" s="298"/>
-      <c r="I4" s="298"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="318" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="286" t="s">
         <v>6063</v>
       </c>
-      <c r="L4" s="319"/>
-      <c r="M4" s="319"/>
-      <c r="N4" s="320"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="288"/>
       <c r="O4" s="216"/>
       <c r="P4" s="216"/>
       <c r="Q4" s="216"/>
       <c r="R4" s="216"/>
-      <c r="S4" s="303" t="s">
+      <c r="S4" s="291" t="s">
         <v>6065</v>
       </c>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="305"/>
-      <c r="W4" s="303" t="s">
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="291" t="s">
         <v>6066</v>
       </c>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="305"/>
-      <c r="AA4" s="303" t="str">
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="293"/>
+      <c r="AA4" s="291" t="str">
         <f>剧情框架!V2</f>
         <v>18种小说爽点套路</v>
       </c>
-      <c r="AB4" s="304"/>
-      <c r="AC4" s="304"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" s="303" t="str">
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="293"/>
+      <c r="AE4" s="291" t="str">
         <f>剧情框架!Z2</f>
         <v>13种无敌文爽点套路</v>
       </c>
-      <c r="AF4" s="304"/>
-      <c r="AG4" s="304"/>
-      <c r="AH4" s="305"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="293"/>
       <c r="AI4" s="216"/>
     </row>
     <row r="5" spans="2:35" ht="86" customHeight="1">
       <c r="B5" s="216"/>
-      <c r="C5" s="317" t="s">
+      <c r="C5" s="352" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="313" t="str">
+      <c r="E5" s="294" t="str">
         <f ca="1">'姓名库（中文）'!AG4</f>
-        <v>昌革</v>
-      </c>
-      <c r="F5" s="314"/>
-      <c r="G5" s="317" t="s">
+        <v>赖宪</v>
+      </c>
+      <c r="F5" s="295"/>
+      <c r="G5" s="352" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="321" t="str">
+      <c r="I5" s="372" t="str">
         <f ca="1">INDIRECT("'姓名库（英）'!B"&amp;RANDBETWEEN(2,95))</f>
-        <v>迈克尔</v>
-      </c>
-      <c r="J5" s="322"/>
-      <c r="K5" s="317" t="s">
+        <v>霍华德</v>
+      </c>
+      <c r="J5" s="373"/>
+      <c r="K5" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="313" t="str">
+      <c r="L5" s="294" t="str">
         <f ca="1">人物外貌描写!U3</f>
-        <v>长着一张杏仁型脸，气质高冷，线条深刻,体型伟岸,有着皎月般曲线婀娜的眉毛,眼眸如一泓清水,留着碎平头（男）,皮肤牛奶般,穿着咖啡色的马夹与紫色的七分裤,脚上穿着一双拖鞋</v>
-      </c>
-      <c r="M5" s="313"/>
-      <c r="N5" s="314"/>
+        <v>长着一张鹅蛋脸，自然大方，美丽耐看,体型强壮,有着皎月般曲线婀娜的眉毛,眼眸冷淡,留着短圆寸（男）,皮肤油亮,穿着蓝白的衬衣与白色的热裤,脚上穿着一双运动鞋</v>
+      </c>
+      <c r="M5" s="294"/>
+      <c r="N5" s="295"/>
       <c r="O5" s="216"/>
       <c r="P5" s="216"/>
       <c r="Q5" s="216"/>
@@ -29957,68 +29979,68 @@
         <f ca="1">剧情框架!N3</f>
         <v>25</v>
       </c>
-      <c r="T5" s="293" t="str">
+      <c r="T5" s="361" t="str">
         <f ca="1">剧情框架!O3</f>
         <v>25.通奸淫行:两名通奸者，受欺之原配。</v>
       </c>
-      <c r="U5" s="293"/>
-      <c r="V5" s="294"/>
+      <c r="U5" s="361"/>
+      <c r="V5" s="362"/>
       <c r="W5" s="215" t="str">
         <f>剧情框架!R3</f>
         <v>核心剧情</v>
       </c>
-      <c r="X5" s="308" t="str">
+      <c r="X5" s="289" t="str">
         <f ca="1">剧情框架!S3</f>
-        <v>扮猪吃虎</v>
-      </c>
-      <c r="Y5" s="308"/>
-      <c r="Z5" s="309"/>
+        <v>金钱：掌握海量财富、得宝等</v>
+      </c>
+      <c r="Y5" s="289"/>
+      <c r="Z5" s="290"/>
       <c r="AA5" s="215">
         <f ca="1">剧情框架!V3</f>
-        <v>12</v>
-      </c>
-      <c r="AB5" s="293" t="str">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="361" t="str">
         <f ca="1">剧情框架!W3</f>
-        <v>3、装逼打脸 </v>
-      </c>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="294"/>
+        <v>5、绝境逃脱 </v>
+      </c>
+      <c r="AC5" s="361"/>
+      <c r="AD5" s="362"/>
       <c r="AE5" s="215">
         <f ca="1">剧情框架!Z3</f>
-        <v>8</v>
-      </c>
-      <c r="AF5" s="293" t="str">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="361" t="str">
         <f ca="1">剧情框架!AA3</f>
-        <v>4、惩戒坏人 </v>
-      </c>
-      <c r="AG5" s="293"/>
-      <c r="AH5" s="294"/>
+        <v>11、报仇 </v>
+      </c>
+      <c r="AG5" s="361"/>
+      <c r="AH5" s="362"/>
       <c r="AI5" s="216"/>
     </row>
     <row r="6" spans="2:35" ht="86" customHeight="1">
       <c r="B6" s="216"/>
-      <c r="C6" s="317"/>
+      <c r="C6" s="352"/>
       <c r="D6" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="313" t="str">
+      <c r="E6" s="294" t="str">
         <f ca="1">'姓名库（中文）'!AG5</f>
-        <v>洪汉容</v>
-      </c>
-      <c r="F6" s="314"/>
-      <c r="G6" s="317"/>
+        <v>惠屹昭</v>
+      </c>
+      <c r="F6" s="295"/>
+      <c r="G6" s="352"/>
       <c r="H6" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="323" t="str">
+      <c r="I6" s="374" t="str">
         <f ca="1">INDIRECT("'姓名库（英）'!A"&amp;RANDBETWEEN(2,80))</f>
-        <v>达勒</v>
-      </c>
-      <c r="J6" s="324"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="314"/>
+        <v>罗宾</v>
+      </c>
+      <c r="J6" s="375"/>
+      <c r="K6" s="352"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
+      <c r="N6" s="295"/>
       <c r="O6" s="216"/>
       <c r="P6" s="216"/>
       <c r="Q6" s="216"/>
@@ -30027,151 +30049,148 @@
         <f>剧情框架!N4</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="T6" s="295" t="str">
+      <c r="T6" s="370" t="str">
         <f ca="1">剧情框架!O4</f>
         <v>例：妻子是耳聋眼瞎以后，丈夫时常带小三回家来寻欢作乐。</v>
       </c>
-      <c r="U6" s="295"/>
-      <c r="V6" s="296"/>
+      <c r="U6" s="370"/>
+      <c r="V6" s="371"/>
       <c r="W6" s="215" t="str">
         <f>剧情框架!R4</f>
         <v>爽点预设</v>
       </c>
-      <c r="X6" s="308" t="str">
+      <c r="X6" s="289" t="str">
         <f ca="1">剧情框架!S4</f>
-        <v>被派到主角身边打探情报、不情不愿的小弟或者美女，主角得知真相以后让其离开，前者却不愿分离</v>
-      </c>
-      <c r="Y6" s="308"/>
-      <c r="Z6" s="309"/>
+        <v>做出惊天动地的事情后轻描淡写的跟围观群众谈笑风生</v>
+      </c>
+      <c r="Y6" s="289"/>
+      <c r="Z6" s="290"/>
       <c r="AA6" s="215" t="str">
         <f>剧情框架!V4</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="AB6" s="295" t="str">
+      <c r="AB6" s="370" t="str">
         <f ca="1">剧情框架!W4</f>
-        <v>主角不透露身份，让人以为很普通的人，结果谁都瞧不起的时候，一鸣惊人，让人惊叹不已。 
-例1：被人欺辱的时候，突然被什么人认了出来，结果场面瞬间扭转。 
-例2：所有人都将主角的小弟当成强者了，怠慢主角，结果扭头主角在关键时刻揭开了身份。 </v>
-      </c>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="296"/>
+        <v>面对无法匹敌，如影随形的敌人，让读者感觉主角必死无疑，但却拼尽全力最终逃脱了，让读者松了口气。 </v>
+      </c>
+      <c r="AC6" s="370"/>
+      <c r="AD6" s="371"/>
       <c r="AE6" s="215" t="str">
         <f>剧情框架!Z4</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="AF6" s="295" t="str">
+      <c r="AF6" s="370" t="str">
         <f ca="1">剧情框架!AA4</f>
-        <v>让人无比痛恨，没有任何底线的恶人，读者只想让他死的那种。 
-而且还不能轻易让他死，要经过羞辱，折磨，最后永远奴役。 
-同时还能合理抢夺这些恶人的东西。 </v>
-      </c>
-      <c r="AG6" s="295"/>
-      <c r="AH6" s="296"/>
+        <v>复仇的快感，结合自己痛恨的同学、领导、仇人，就能够想象到有多爽了。 
+前提要让读者也燃起对反派的仇恨，可以借鉴一些社会上非常恶劣的犯罪事件，那些毫无人性的恶性事件。 </v>
+      </c>
+      <c r="AG6" s="370"/>
+      <c r="AH6" s="371"/>
       <c r="AI6" s="216"/>
     </row>
     <row r="7" spans="2:35" ht="86" customHeight="1">
       <c r="B7" s="216"/>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="353" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="313" t="str">
+      <c r="E7" s="294" t="str">
         <f ca="1">'姓名库（中文）'!AG6</f>
-        <v>董绮</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="311" t="s">
+        <v>海单</v>
+      </c>
+      <c r="F7" s="295"/>
+      <c r="G7" s="353" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="321" t="str">
+      <c r="I7" s="372" t="str">
         <f ca="1">INDIRECT("'姓名库（英）'!C"&amp;RANDBETWEEN(2,97))</f>
-        <v>爱丽丝</v>
-      </c>
-      <c r="J7" s="322"/>
-      <c r="K7" s="311" t="s">
+        <v>碧翠丝</v>
+      </c>
+      <c r="J7" s="373"/>
+      <c r="K7" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="313" t="str">
+      <c r="L7" s="294" t="str">
         <f ca="1">人物外貌描写!U4</f>
-        <v>长着一张倒瓜子脸，气质时尚，五官立体,体型丰满,有着柳叶似的眉毛,眼眸如一泓清水,留着齐刘海短发（女），学生最爱,皮肤晶莹如玉,穿着橙色的正装/西装与青色的背心裙,脚上穿着一双增高鞋</v>
-      </c>
-      <c r="M7" s="313"/>
-      <c r="N7" s="314"/>
+        <v>长着一张方脸，棱角分明，气质刚硬,体型单薄,有着淡淡的眉毛,眼眸明澈,留着双马尾（女），甜美可爱,皮肤凝脂般,穿着紫色的棉袄与黑白的背心裙,脚上穿着一双棉鞋</v>
+      </c>
+      <c r="M7" s="294"/>
+      <c r="N7" s="295"/>
       <c r="O7" s="216"/>
       <c r="P7" s="216"/>
       <c r="Q7" s="216"/>
       <c r="R7" s="216"/>
       <c r="S7" s="215">
         <f ca="1">剧情框架!N5</f>
-        <v>10</v>
-      </c>
-      <c r="T7" s="293" t="str">
+        <v>21</v>
+      </c>
+      <c r="T7" s="361" t="str">
         <f ca="1">剧情框架!O5</f>
-        <v>10.绑架人质:绑票者，人质，看守者。</v>
-      </c>
-      <c r="U7" s="293"/>
-      <c r="V7" s="294"/>
+        <v>21.为亲牺牲:英雄，亲族，被牺牲之事物。</v>
+      </c>
+      <c r="U7" s="361"/>
+      <c r="V7" s="362"/>
       <c r="W7" s="215" t="str">
         <f>剧情框架!R5</f>
         <v>核心剧情</v>
       </c>
-      <c r="X7" s="308" t="str">
+      <c r="X7" s="289" t="str">
         <f ca="1">剧情框架!S5</f>
-        <v>损人利己：</v>
-      </c>
-      <c r="Y7" s="308"/>
-      <c r="Z7" s="309"/>
+        <v>国家强盛，民族崛起：百年以来，白人领先所致的民族自卑感</v>
+      </c>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="290"/>
       <c r="AA7" s="215">
         <f ca="1">剧情框架!V5</f>
-        <v>11</v>
-      </c>
-      <c r="AB7" s="293" t="str">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="361" t="str">
         <f ca="1">剧情框架!W5</f>
-        <v>2、扮猪吃虎 </v>
-      </c>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="294"/>
+        <v>5、绝境逃脱 </v>
+      </c>
+      <c r="AC7" s="361"/>
+      <c r="AD7" s="362"/>
       <c r="AE7" s="215">
         <f ca="1">剧情框架!Z5</f>
-        <v>10</v>
-      </c>
-      <c r="AF7" s="293" t="str">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="361" t="str">
         <f ca="1">剧情框架!AA5</f>
-        <v>6、力挽狂澜 </v>
-      </c>
-      <c r="AG7" s="293"/>
-      <c r="AH7" s="294"/>
+        <v>2、装逼打脸 </v>
+      </c>
+      <c r="AG7" s="361"/>
+      <c r="AH7" s="362"/>
       <c r="AI7" s="216"/>
     </row>
     <row r="8" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B8" s="216"/>
-      <c r="C8" s="312"/>
+      <c r="C8" s="354"/>
       <c r="D8" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="315" t="str">
+      <c r="E8" s="343" t="str">
         <f ca="1">'姓名库（中文）'!AG7</f>
-        <v>让锋仁</v>
-      </c>
-      <c r="F8" s="316"/>
-      <c r="G8" s="312"/>
+        <v>舒沁飞</v>
+      </c>
+      <c r="F8" s="344"/>
+      <c r="G8" s="354"/>
       <c r="H8" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="325" t="str">
+      <c r="I8" s="376" t="str">
         <f ca="1">INDIRECT("'姓名库（英）'!A"&amp;RANDBETWEEN(2,80))</f>
-        <v>鲁珀特</v>
-      </c>
-      <c r="J8" s="326"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="315"/>
-      <c r="N8" s="316"/>
+        <v>塞西尔</v>
+      </c>
+      <c r="J8" s="377"/>
+      <c r="K8" s="354"/>
+      <c r="L8" s="343"/>
+      <c r="M8" s="343"/>
+      <c r="N8" s="344"/>
       <c r="O8" s="216"/>
       <c r="P8" s="216"/>
       <c r="Q8" s="216"/>
@@ -30180,44 +30199,44 @@
         <f>剧情框架!N6</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="T8" s="295" t="str">
+      <c r="T8" s="370" t="str">
         <f ca="1">剧情框架!O6</f>
-        <v>例:女主家经商，女二勾结匪徒把女主迷晕绑了当人质要钱，霸气女主醒来用内力挣断绳子，又把两个匪徒吊起来拷问。</v>
-      </c>
-      <c r="U8" s="295"/>
-      <c r="V8" s="296"/>
+        <v>例：反派马上就要刺死男主时，男主的母亲用身体挡在了男主前面。</v>
+      </c>
+      <c r="U8" s="370"/>
+      <c r="V8" s="371"/>
       <c r="W8" s="215" t="str">
         <f>剧情框架!R6</f>
         <v>爽点预设</v>
       </c>
-      <c r="X8" s="308" t="str">
+      <c r="X8" s="289" t="str">
         <f ca="1">剧情框架!S6</f>
-        <v>短时间内完成让别人绝望的事情</v>
-      </c>
-      <c r="Y8" s="308"/>
-      <c r="Z8" s="309"/>
+        <v>主角跟一群性格古怪但实力高强的人称兄道弟</v>
+      </c>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="290"/>
       <c r="AA8" s="215" t="str">
         <f>剧情框架!V6</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="AB8" s="295" t="str">
+      <c r="AB8" s="370" t="str">
         <f ca="1">剧情框架!W6</f>
-        <v>假装成普通人或者很弱的样子，被敌人小瞧，所有人都不看好，结果扭头就以雷霆手段打败敌人。 
-然后以之前敌人的话语嘲讽回去。 </v>
-      </c>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="296"/>
+        <v>面对无法匹敌，如影随形的敌人，让读者感觉主角必死无疑，但却拼尽全力最终逃脱了，让读者松了口气。 </v>
+      </c>
+      <c r="AC8" s="370"/>
+      <c r="AD8" s="371"/>
       <c r="AE8" s="215" t="str">
         <f>剧情框架!Z6</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="AF8" s="295" t="str">
+      <c r="AF8" s="370" t="str">
         <f ca="1">剧情框架!AA6</f>
-        <v>关键时刻出现，主角成为了人们眼中希望，独自力挽狂澜，挽救了众人。 
-或者是带领身边的人，从弱小一步步走向强大，成为人们眼中的英雄。 </v>
-      </c>
-      <c r="AG8" s="295"/>
-      <c r="AH8" s="296"/>
+        <v>主角不透露身份，让人以为很普通的人，结果谁都瞧不起的时候，一鸣惊人，让人惊叹不已。 
+例1：被人欺辱的时候，突然被什么人认了出来，结果场面瞬间扭转。 
+例2：所有人都将主角的小弟当成强者了，怠慢主角，结果扭头主角在关键时刻揭开了身份。 </v>
+      </c>
+      <c r="AG8" s="370"/>
+      <c r="AH8" s="371"/>
       <c r="AI8" s="216"/>
     </row>
     <row r="9" spans="2:35" ht="86" customHeight="1" thickBot="1">
@@ -30258,38 +30277,38 @@
     </row>
     <row r="10" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B10" s="216"/>
-      <c r="C10" s="290" t="s">
+      <c r="C10" s="323" t="s">
         <v>4646</v>
       </c>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="291"/>
-      <c r="J10" s="292"/>
-      <c r="K10" s="356" t="s">
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="325"/>
+      <c r="K10" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="357"/>
-      <c r="M10" s="357"/>
-      <c r="N10" s="357"/>
-      <c r="O10" s="357"/>
-      <c r="P10" s="357"/>
-      <c r="Q10" s="357"/>
-      <c r="R10" s="358"/>
-      <c r="S10" s="303" t="s">
+      <c r="L10" s="346"/>
+      <c r="M10" s="346"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="346"/>
+      <c r="P10" s="346"/>
+      <c r="Q10" s="346"/>
+      <c r="R10" s="347"/>
+      <c r="S10" s="291" t="s">
         <v>6067</v>
       </c>
-      <c r="T10" s="304"/>
-      <c r="U10" s="304"/>
-      <c r="V10" s="305"/>
-      <c r="W10" s="344" t="s">
+      <c r="T10" s="292"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="293"/>
+      <c r="W10" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="345"/>
-      <c r="Y10" s="345"/>
-      <c r="Z10" s="346"/>
+      <c r="X10" s="332"/>
+      <c r="Y10" s="332"/>
+      <c r="Z10" s="333"/>
       <c r="AA10" s="216"/>
       <c r="AB10" s="216"/>
       <c r="AC10" s="216"/>
@@ -30307,21 +30326,21 @@
       </c>
       <c r="D11" s="222" t="str">
         <f ca="1">INDIRECT("人设标签库!A"&amp;RANDBETWEEN(2,3))</f>
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E11" s="221" t="s">
         <v>5993</v>
       </c>
       <c r="F11" s="222" t="str">
         <f ca="1">INDIRECT("人设标签库!B"&amp;RANDBETWEEN(2,39))</f>
-        <v>中二</v>
+        <v>元气</v>
       </c>
       <c r="G11" s="221" t="s">
         <v>5994</v>
       </c>
       <c r="H11" s="222" t="str">
         <f ca="1">INDIRECT("人设标签库!B"&amp;RANDBETWEEN(2,39))</f>
-        <v>呆萌</v>
+        <v>冲动</v>
       </c>
       <c r="I11" s="221" t="s">
         <v>5995</v>
@@ -30346,19 +30365,19 @@
         <v>17</v>
       </c>
       <c r="R11" s="229"/>
-      <c r="S11" s="306" t="s">
+      <c r="S11" s="380" t="s">
         <v>6053</v>
       </c>
-      <c r="T11" s="307"/>
-      <c r="U11" s="308" t="str">
+      <c r="T11" s="381"/>
+      <c r="U11" s="289" t="str">
         <f ca="1">'情节，周易卦辞爻辞'!K9</f>
-        <v>艮卦</v>
-      </c>
-      <c r="V11" s="309"/>
-      <c r="W11" s="341"/>
-      <c r="X11" s="342"/>
-      <c r="Y11" s="342"/>
-      <c r="Z11" s="343"/>
+        <v>归妹</v>
+      </c>
+      <c r="V11" s="290"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="329"/>
+      <c r="Y11" s="329"/>
+      <c r="Z11" s="330"/>
       <c r="AA11" s="216"/>
       <c r="AB11" s="216"/>
       <c r="AC11" s="216"/>
@@ -30376,14 +30395,14 @@
       </c>
       <c r="D12" s="222" t="str">
         <f ca="1">INDIRECT("人设标签库!D"&amp;RANDBETWEEN(2,29))</f>
-        <v>战斗</v>
+        <v>读书</v>
       </c>
       <c r="E12" s="221" t="s">
         <v>5997</v>
       </c>
       <c r="F12" s="222" t="str">
         <f ca="1">INDIRECT("人设标签库!E"&amp;RANDBETWEEN(2,13))</f>
-        <v>天使</v>
+        <v>妹妹/弟弟</v>
       </c>
       <c r="G12" s="216"/>
       <c r="H12" s="216"/>
@@ -30405,17 +30424,17 @@
         <v>23</v>
       </c>
       <c r="R12" s="229"/>
-      <c r="S12" s="310" t="str">
+      <c r="S12" s="382" t="str">
         <f ca="1">'情节，周易卦辞爻辞'!K10</f>
-        <v>艮卦卦辞：艮其背，不获其身，行其庭，不见其人，无咎。</v>
-      </c>
-      <c r="T12" s="308"/>
-      <c r="U12" s="308"/>
-      <c r="V12" s="309"/>
-      <c r="W12" s="347"/>
-      <c r="X12" s="348"/>
-      <c r="Y12" s="348"/>
-      <c r="Z12" s="349"/>
+        <v>归妹卦辞：归妹，征凶，无攸利。</v>
+      </c>
+      <c r="T12" s="289"/>
+      <c r="U12" s="289"/>
+      <c r="V12" s="290"/>
+      <c r="W12" s="334"/>
+      <c r="X12" s="335"/>
+      <c r="Y12" s="335"/>
+      <c r="Z12" s="336"/>
       <c r="AA12" s="216"/>
       <c r="AB12" s="216"/>
       <c r="AC12" s="216"/>
@@ -30446,19 +30465,19 @@
       <c r="P13" s="216"/>
       <c r="Q13" s="216"/>
       <c r="R13" s="236"/>
-      <c r="S13" s="306" t="s">
+      <c r="S13" s="380" t="s">
         <v>6054</v>
       </c>
-      <c r="T13" s="307"/>
-      <c r="U13" s="308" t="str">
+      <c r="T13" s="381"/>
+      <c r="U13" s="289" t="str">
         <f ca="1">'情节，周易卦辞爻辞'!J9</f>
-        <v>艮卦六五</v>
-      </c>
-      <c r="V13" s="309"/>
-      <c r="W13" s="350"/>
-      <c r="X13" s="351"/>
-      <c r="Y13" s="351"/>
-      <c r="Z13" s="352"/>
+        <v>归妹六五</v>
+      </c>
+      <c r="V13" s="290"/>
+      <c r="W13" s="337"/>
+      <c r="X13" s="338"/>
+      <c r="Y13" s="338"/>
+      <c r="Z13" s="339"/>
       <c r="AA13" s="216"/>
       <c r="AB13" s="216"/>
       <c r="AC13" s="216"/>
@@ -30487,17 +30506,17 @@
       <c r="P14" s="230"/>
       <c r="Q14" s="230"/>
       <c r="R14" s="231"/>
-      <c r="S14" s="310" t="str">
+      <c r="S14" s="382" t="str">
         <f ca="1">'情节，周易卦辞爻辞'!J10</f>
-        <v>艮卦六五：艮其辅，言有序，悔亡。</v>
-      </c>
-      <c r="T14" s="308"/>
-      <c r="U14" s="308"/>
-      <c r="V14" s="309"/>
-      <c r="W14" s="350"/>
-      <c r="X14" s="351"/>
-      <c r="Y14" s="351"/>
-      <c r="Z14" s="352"/>
+        <v>归妹六五：帝乙归妹，其君之袂不如其娣之袂良，月几望，吉。</v>
+      </c>
+      <c r="T14" s="289"/>
+      <c r="U14" s="289"/>
+      <c r="V14" s="290"/>
+      <c r="W14" s="337"/>
+      <c r="X14" s="338"/>
+      <c r="Y14" s="338"/>
+      <c r="Z14" s="339"/>
       <c r="AA14" s="230"/>
       <c r="AB14" s="230"/>
       <c r="AC14" s="230"/>
@@ -30526,127 +30545,127 @@
       <c r="P15" s="216"/>
       <c r="Q15" s="216"/>
       <c r="R15" s="236"/>
-      <c r="S15" s="300" t="s">
+      <c r="S15" s="340" t="s">
         <v>6056</v>
       </c>
-      <c r="T15" s="301"/>
-      <c r="U15" s="301"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="301"/>
-      <c r="X15" s="301"/>
-      <c r="Y15" s="301"/>
-      <c r="Z15" s="301"/>
-      <c r="AA15" s="301"/>
-      <c r="AB15" s="301"/>
-      <c r="AC15" s="301"/>
-      <c r="AD15" s="301"/>
-      <c r="AE15" s="301"/>
-      <c r="AF15" s="301"/>
-      <c r="AG15" s="301"/>
-      <c r="AH15" s="302"/>
+      <c r="T15" s="341"/>
+      <c r="U15" s="341"/>
+      <c r="V15" s="341"/>
+      <c r="W15" s="341"/>
+      <c r="X15" s="341"/>
+      <c r="Y15" s="341"/>
+      <c r="Z15" s="341"/>
+      <c r="AA15" s="341"/>
+      <c r="AB15" s="341"/>
+      <c r="AC15" s="341"/>
+      <c r="AD15" s="341"/>
+      <c r="AE15" s="341"/>
+      <c r="AF15" s="341"/>
+      <c r="AG15" s="341"/>
+      <c r="AH15" s="342"/>
       <c r="AI15" s="216"/>
     </row>
     <row r="16" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B16" s="216"/>
-      <c r="C16" s="290" t="str">
+      <c r="C16" s="323" t="str">
         <f>人物原型!Q1</f>
         <v>一、女主角与反面角色：</v>
       </c>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="290" t="str">
+      <c r="D16" s="324"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="323" t="str">
         <f>人物原型!U1</f>
         <v>二、男主角与反面角色 </v>
       </c>
-      <c r="H16" s="291"/>
-      <c r="I16" s="291"/>
-      <c r="J16" s="292"/>
-      <c r="K16" s="290" t="str">
+      <c r="H16" s="324"/>
+      <c r="I16" s="324"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="323" t="str">
         <f>人物原型!Y1</f>
         <v>三、配角：对手类： </v>
       </c>
-      <c r="L16" s="291"/>
-      <c r="M16" s="291"/>
-      <c r="N16" s="292"/>
-      <c r="O16" s="290" t="str">
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
+      <c r="N16" s="325"/>
+      <c r="O16" s="323" t="str">
         <f>人物原型!AC1</f>
         <v>三、配角：朋友类： </v>
       </c>
-      <c r="P16" s="291"/>
-      <c r="Q16" s="291"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="297" t="s">
+      <c r="P16" s="324"/>
+      <c r="Q16" s="324"/>
+      <c r="R16" s="325"/>
+      <c r="S16" s="296" t="s">
         <v>4638</v>
       </c>
-      <c r="T16" s="298"/>
-      <c r="U16" s="298"/>
-      <c r="V16" s="298"/>
-      <c r="W16" s="298"/>
-      <c r="X16" s="298"/>
-      <c r="Y16" s="298"/>
-      <c r="Z16" s="299"/>
-      <c r="AA16" s="290" t="s">
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="297"/>
+      <c r="W16" s="297"/>
+      <c r="X16" s="297"/>
+      <c r="Y16" s="297"/>
+      <c r="Z16" s="298"/>
+      <c r="AA16" s="323" t="s">
         <v>4636</v>
       </c>
-      <c r="AB16" s="291"/>
-      <c r="AC16" s="291"/>
-      <c r="AD16" s="291"/>
-      <c r="AE16" s="291"/>
-      <c r="AF16" s="291"/>
-      <c r="AG16" s="291"/>
-      <c r="AH16" s="292"/>
+      <c r="AB16" s="324"/>
+      <c r="AC16" s="324"/>
+      <c r="AD16" s="324"/>
+      <c r="AE16" s="324"/>
+      <c r="AF16" s="324"/>
+      <c r="AG16" s="324"/>
+      <c r="AH16" s="325"/>
       <c r="AI16" s="216"/>
     </row>
     <row r="17" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B17" s="216"/>
       <c r="C17" s="268">
         <f ca="1">人物原型!Q2</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="280" t="str">
+        <v>8</v>
+      </c>
+      <c r="D17" s="378" t="str">
         <f ca="1">人物原型!R2</f>
-        <v>5、父亲的女儿（正面） </v>
-      </c>
-      <c r="E17" s="280"/>
-      <c r="F17" s="281"/>
+        <v>8、过度控制的母亲（反面） </v>
+      </c>
+      <c r="E17" s="378"/>
+      <c r="F17" s="379"/>
       <c r="G17" s="268">
         <f ca="1">人物原型!U2</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="280" t="str">
+        <v>12</v>
+      </c>
+      <c r="H17" s="378" t="str">
         <f ca="1">人物原型!V2</f>
-        <v>18、背叛者（反面） </v>
-      </c>
-      <c r="I17" s="280"/>
-      <c r="J17" s="281"/>
+        <v>28、惩罚者（反面） </v>
+      </c>
+      <c r="I17" s="378"/>
+      <c r="J17" s="379"/>
       <c r="K17" s="268">
         <f ca="1">人物原型!Y2</f>
-        <v>2</v>
-      </c>
-      <c r="L17" s="280" t="str">
+        <v>5</v>
+      </c>
+      <c r="L17" s="378" t="str">
         <f ca="1">人物原型!Z2</f>
-        <v>38、小丑 </v>
-      </c>
-      <c r="M17" s="280"/>
-      <c r="N17" s="281"/>
+        <v>41、悲观者 </v>
+      </c>
+      <c r="M17" s="378"/>
+      <c r="N17" s="379"/>
       <c r="O17" s="268">
         <f ca="1">人物原型!AC2</f>
         <v>4</v>
       </c>
-      <c r="P17" s="280" t="str">
+      <c r="P17" s="378" t="str">
         <f ca="1">人物原型!AD2</f>
         <v>36、爱侣 </v>
       </c>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="281"/>
+      <c r="Q17" s="378"/>
+      <c r="R17" s="379"/>
       <c r="S17" s="253" t="str">
         <f>'势力&amp;地名库 (科幻)'!K2</f>
         <v>科幻简称</v>
       </c>
       <c r="T17" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M2</f>
-        <v>高奔</v>
+        <v>沃阿</v>
       </c>
       <c r="U17" s="254" t="str">
         <f>'势力&amp;地名库 (科幻)'!K3</f>
@@ -30654,7 +30673,7 @@
       </c>
       <c r="V17" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M3</f>
-        <v>代水丽</v>
+        <v>奇芬招</v>
       </c>
       <c r="W17" s="254" t="str">
         <f>'势力&amp;地名库 (科幻)'!K4</f>
@@ -30662,7 +30681,7 @@
       </c>
       <c r="X17" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M4</f>
-        <v>甘八本源写字楼</v>
+        <v>越藤万事机关</v>
       </c>
       <c r="Y17" s="254" t="str">
         <f>'势力&amp;地名库 (科幻)'!K5</f>
@@ -30670,7 +30689,7 @@
       </c>
       <c r="Z17" s="245" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M5</f>
-        <v>商迈化工招商学院</v>
+        <v>芝大传媒维护工坊</v>
       </c>
       <c r="AA17" s="232" t="str">
         <f>'势力&amp;地名库（传统）'!K5</f>
@@ -30678,7 +30697,7 @@
       </c>
       <c r="AB17" s="258" t="str">
         <f ca="1">'势力&amp;地名库（传统）'!M5</f>
-        <v>宏世区</v>
+        <v>南千区</v>
       </c>
       <c r="AC17" s="233" t="str">
         <f>'势力&amp;地名库（传统）'!K8</f>
@@ -30686,7 +30705,7 @@
       </c>
       <c r="AD17" s="258" t="str">
         <f ca="1">'势力&amp;地名库（传统）'!M8</f>
-        <v>白骨沼泽</v>
+        <v>罪恶岛</v>
       </c>
       <c r="AE17" s="234" t="str">
         <f>'势力&amp;地名库（传统）'!K6</f>
@@ -30694,7 +30713,7 @@
       </c>
       <c r="AF17" s="258" t="str">
         <f ca="1">'势力&amp;地名库（传统）'!M6</f>
-        <v>狂浪寺</v>
+        <v>玄冰庐</v>
       </c>
       <c r="AG17" s="234" t="str">
         <f>'势力&amp;地名库（传统）'!K7</f>
@@ -30702,7 +30721,7 @@
       </c>
       <c r="AH17" s="259" t="str">
         <f ca="1">'势力&amp;地名库（传统）'!M7</f>
-        <v>虚空黄砂寺</v>
+        <v>至尊光明殿</v>
       </c>
       <c r="AI17" s="216"/>
     </row>
@@ -30712,54 +30731,58 @@
         <f>人物原型!Q3</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="D18" s="282" t="str">
+      <c r="D18" s="383" t="str">
         <f ca="1">人物原型!R3</f>
-        <v>这位只承认父亲的女儿不像亚马逊女子一样，为女子的处境而斗争。 
-她可能还会反对那些女权事业，她站在男子这一步，来获取他们的仰慕。 </v>
-      </c>
-      <c r="E18" s="282"/>
-      <c r="F18" s="283"/>
+        <v>她会以帮助为名，控制别人的人生。 </v>
+      </c>
+      <c r="E18" s="383"/>
+      <c r="F18" s="384"/>
       <c r="G18" s="268" t="str">
         <f>人物原型!U3</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="H18" s="282" t="str">
+      <c r="H18" s="383" t="str">
         <f ca="1">人物原型!V3</f>
-        <v>这个人事业第一，如果看到自己的公司面临危机，他会竭尽全力掩盖过失。 </v>
-      </c>
-      <c r="I18" s="282"/>
-      <c r="J18" s="283"/>
+        <v>不是只关心自己得失与欲望的反派。 
+说他是反派，是指他只考虑整体的最高利益。 
+作为惩罚者，他会诅咒那个堕落的人，给他一个教训。 
+他想要摧毁这个人的自我。 
+会毁灭一个人的灵魂来将他改造成自己希望的模样。 </v>
+      </c>
+      <c r="I18" s="383"/>
+      <c r="J18" s="384"/>
       <c r="K18" s="268" t="str">
         <f>人物原型!Y3</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="L18" s="282" t="str">
+      <c r="L18" s="383" t="str">
         <f ca="1">人物原型!Z3</f>
-        <v>跟逗乐者很像，不过他大多数时候都是出于好意。 
-他会因为一些身体上的笨拙而破坏了主角的计划。 
-他是一个很不灵活的冒险者，小丑总是试图帮助主角，可是总把去事情搞砸。 </v>
-      </c>
-      <c r="M18" s="282"/>
-      <c r="N18" s="283"/>
+        <v>总是不赞同主角的行动，抱着“灭什么能行得通”的态度，所以连问题都懒得问。 
+他觉得一切都不会顺利，所以他连尝试都省了。 
+他是按兵不动的行家，喜欢看到自己的疑虑影响到主角的思考。 
+“他做不到，我们做不到，这是不可能做到的。”是他的口头禅。 </v>
+      </c>
+      <c r="M18" s="383"/>
+      <c r="N18" s="384"/>
       <c r="O18" s="268" t="str">
         <f>人物原型!AC3</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="P18" s="282" t="str">
+      <c r="P18" s="383" t="str">
         <f ca="1">人物原型!AD3</f>
         <v>爱侣是家的所在和安全感来源。 
 他通常是主角情绪感情的对象，她会对他诉说困惑和害怕。 
 爱侣是乌云中的那道白光，可能是唯一相信主角的那个人。 </v>
       </c>
-      <c r="Q18" s="282"/>
-      <c r="R18" s="283"/>
+      <c r="Q18" s="383"/>
+      <c r="R18" s="384"/>
       <c r="S18" s="250" t="str">
         <f>'势力&amp;地名库 (科幻)'!K6</f>
         <v>科幻势力组织3</v>
       </c>
       <c r="T18" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M6</f>
-        <v>鲜产秩序博物馆</v>
+        <v>普光病毒0</v>
       </c>
       <c r="U18" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K7</f>
@@ -30767,7 +30790,7 @@
       </c>
       <c r="V18" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M7</f>
-        <v>下凡创新学会</v>
+        <v>北芬动员联盟</v>
       </c>
       <c r="W18" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K8</f>
@@ -30775,7 +30798,7 @@
       </c>
       <c r="X18" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M8</f>
-        <v>高制域</v>
+        <v>浩荒州</v>
       </c>
       <c r="Y18" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K9</f>
@@ -30783,7 +30806,7 @@
       </c>
       <c r="Z18" s="245" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M9</f>
-        <v>赛博智慧边境工程院</v>
+        <v>极致物流细胞科院</v>
       </c>
       <c r="AA18" s="216"/>
       <c r="AB18" s="216"/>
@@ -30799,51 +30822,51 @@
       <c r="B19" s="216"/>
       <c r="C19" s="268">
         <f ca="1">人物原型!Q4</f>
-        <v>12</v>
-      </c>
-      <c r="D19" s="280" t="str">
+        <v>11</v>
+      </c>
+      <c r="D19" s="378" t="str">
         <f ca="1">人物原型!R4</f>
-        <v>12、背叛者（反面） </v>
-      </c>
-      <c r="E19" s="280"/>
-      <c r="F19" s="284"/>
+        <v>11、神秘主义者（正面） </v>
+      </c>
+      <c r="E19" s="378"/>
+      <c r="F19" s="388"/>
       <c r="G19" s="268">
         <f ca="1">人物原型!U4</f>
-        <v>16</v>
-      </c>
-      <c r="H19" s="280" t="str">
+        <v>10</v>
+      </c>
+      <c r="H19" s="378" t="str">
         <f ca="1">人物原型!V4</f>
-        <v>32、独裁者（反面） </v>
-      </c>
-      <c r="I19" s="280"/>
-      <c r="J19" s="284"/>
+        <v>26、引诱者（反面） </v>
+      </c>
+      <c r="I19" s="378"/>
+      <c r="J19" s="388"/>
       <c r="K19" s="268">
         <f ca="1">人物原型!Y4</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="280" t="str">
+        <v>3</v>
+      </c>
+      <c r="L19" s="378" t="str">
         <f ca="1">人物原型!Z4</f>
-        <v>38、小丑 </v>
-      </c>
-      <c r="M19" s="280"/>
-      <c r="N19" s="284"/>
+        <v>39、劲敌 </v>
+      </c>
+      <c r="M19" s="378"/>
+      <c r="N19" s="388"/>
       <c r="O19" s="268">
         <f ca="1">人物原型!AC4</f>
-        <v>2</v>
-      </c>
-      <c r="P19" s="280" t="str">
+        <v>4</v>
+      </c>
+      <c r="P19" s="378" t="str">
         <f ca="1">人物原型!AD4</f>
-        <v>34、指导者 </v>
-      </c>
-      <c r="Q19" s="280"/>
-      <c r="R19" s="284"/>
+        <v>36、爱侣 </v>
+      </c>
+      <c r="Q19" s="378"/>
+      <c r="R19" s="388"/>
       <c r="S19" s="250" t="str">
         <f>'势力&amp;地名库 (科幻)'!K10</f>
         <v>科幻势力组织4</v>
       </c>
       <c r="T19" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M10</f>
-        <v>虚拟社会演化实验室</v>
+        <v>微型物种提倡小队</v>
       </c>
       <c r="U19" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K11</f>
@@ -30851,7 +30874,7 @@
       </c>
       <c r="V19" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M11</f>
-        <v>虚拟历史小组</v>
+        <v>无限硬件工坊</v>
       </c>
       <c r="W19" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K12</f>
@@ -30859,7 +30882,7 @@
       </c>
       <c r="X19" s="244" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M12</f>
-        <v>特别实施事务所</v>
+        <v>模拟应急司令部</v>
       </c>
       <c r="Y19" s="252" t="str">
         <f>'势力&amp;地名库 (科幻)'!K13</f>
@@ -30867,7 +30890,7 @@
       </c>
       <c r="Z19" s="245" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M13</f>
-        <v>商业机械塑造大学</v>
+        <v>效应构型支持电台</v>
       </c>
       <c r="AA19" s="216"/>
       <c r="AB19" s="216"/>
@@ -30885,56 +30908,53 @@
         <f>人物原型!Q5</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="D20" s="282" t="str">
+      <c r="D20" s="383" t="str">
         <f ca="1">人物原型!R5</f>
-        <v>看上去那么安静善良，背地里却偷偷毒死丈夫。 </v>
-      </c>
-      <c r="E20" s="282"/>
-      <c r="F20" s="283"/>
+        <v>她喜欢独处，沉浸在自己的思绪里。 </v>
+      </c>
+      <c r="E20" s="383"/>
+      <c r="F20" s="384"/>
       <c r="G20" s="268" t="str">
         <f>人物原型!U5</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="H20" s="282" t="str">
+      <c r="H20" s="383" t="str">
         <f ca="1">人物原型!V5</f>
-        <v>国度沉迷于统治和控制他人，想要让臣民彻底服从。 
-他甚至会惩罚无辜的人，只为了让别人明白他的权利。 
-他想要做一个神灵，可以任意处置他人的命运和人生。 </v>
-      </c>
-      <c r="I20" s="282"/>
-      <c r="J20" s="283"/>
+        <v>被女人所伤害或者背叛后，可能会变成引诱者。 
+把女人们从一段好的或者坏的感情里勾引出来，打乱她们的生活，然后抛弃她们，让她们自己收拾残局。 </v>
+      </c>
+      <c r="I20" s="383"/>
+      <c r="J20" s="384"/>
       <c r="K20" s="268" t="str">
         <f>人物原型!Y5</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="L20" s="282" t="str">
+      <c r="L20" s="383" t="str">
         <f ca="1">人物原型!Z5</f>
-        <v>跟逗乐者很像，不过他大多数时候都是出于好意。 
-他会因为一些身体上的笨拙而破坏了主角的计划。 
-他是一个很不灵活的冒险者，小丑总是试图帮助主角，可是总把去事情搞砸。 </v>
-      </c>
-      <c r="M20" s="282"/>
-      <c r="N20" s="283"/>
+        <v>并不是恶人，而是一个还算友好的麻烦制造者。 
+他不太在意主角的目标实现与否，只等待一个机会把主角的事情搞砸。 </v>
+      </c>
+      <c r="M20" s="383"/>
+      <c r="N20" s="384"/>
       <c r="O20" s="268" t="str">
         <f>人物原型!AC5</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="P20" s="282" t="str">
+      <c r="P20" s="383" t="str">
         <f ca="1">人物原型!AD5</f>
-        <v>比起智者，指导者更接近主角的水平，跟他更相似。 
-指导者爱提建议，喜欢参与主角的事物。 
-指导者就像一个高级帮手，不过也许很快自己就需要帮助了。 
-但有时也会变成竞争者。 </v>
-      </c>
-      <c r="Q20" s="282"/>
-      <c r="R20" s="283"/>
+        <v>爱侣是家的所在和安全感来源。 
+他通常是主角情绪感情的对象，她会对他诉说困惑和害怕。 
+爱侣是乌云中的那道白光，可能是唯一相信主角的那个人。 </v>
+      </c>
+      <c r="Q20" s="383"/>
+      <c r="R20" s="384"/>
       <c r="S20" s="251" t="str">
         <f>'势力&amp;地名库 (科幻)'!K14</f>
         <v>科幻势力组织2</v>
       </c>
       <c r="T20" s="256" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M14</f>
-        <v>生态生物国际</v>
+        <v>矿产物种小组</v>
       </c>
       <c r="U20" s="255" t="str">
         <f>'势力&amp;地名库 (科幻)'!K15</f>
@@ -30942,7 +30962,7 @@
       </c>
       <c r="V20" s="256" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M15</f>
-        <v>造车借鉴艺术馆</v>
+        <v>环境纠正集团</v>
       </c>
       <c r="W20" s="255" t="str">
         <f>'势力&amp;地名库 (科幻)'!K16</f>
@@ -30950,7 +30970,7 @@
       </c>
       <c r="X20" s="256" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M16</f>
-        <v>医疗司令部</v>
+        <v>医药中心</v>
       </c>
       <c r="Y20" s="255" t="str">
         <f>'势力&amp;地名库 (科幻)'!K17</f>
@@ -30958,7 +30978,7 @@
       </c>
       <c r="Z20" s="257" t="str">
         <f ca="1">'势力&amp;地名库 (科幻)'!M17</f>
-        <v>文化草原</v>
+        <v>政治林地</v>
       </c>
       <c r="AA20" s="216"/>
       <c r="AB20" s="216"/>
@@ -31008,51 +31028,51 @@
     </row>
     <row r="22" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B22" s="216"/>
-      <c r="C22" s="287" t="str">
+      <c r="C22" s="385" t="str">
         <f>人物原型!Q6</f>
         <v>18种反派类型</v>
       </c>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="287" t="str">
+      <c r="D22" s="386"/>
+      <c r="E22" s="386"/>
+      <c r="F22" s="387"/>
+      <c r="G22" s="385" t="str">
         <f>人物原型!U6</f>
         <v>三、配角： 象征类： </v>
       </c>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="289"/>
-      <c r="K22" s="287" t="str">
+      <c r="H22" s="386"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="387"/>
+      <c r="K22" s="385" t="str">
         <f>人物原型!Y6</f>
         <v>新增角色原型： </v>
       </c>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
-      <c r="N22" s="289"/>
+      <c r="L22" s="386"/>
+      <c r="M22" s="386"/>
+      <c r="N22" s="387"/>
       <c r="O22" s="216"/>
       <c r="P22" s="216"/>
       <c r="Q22" s="216"/>
       <c r="R22" s="216"/>
-      <c r="S22" s="297" t="s">
+      <c r="S22" s="296" t="s">
         <v>4639</v>
       </c>
-      <c r="T22" s="298"/>
-      <c r="U22" s="298"/>
-      <c r="V22" s="298"/>
-      <c r="W22" s="298"/>
-      <c r="X22" s="298"/>
-      <c r="Y22" s="298"/>
-      <c r="Z22" s="299"/>
-      <c r="AA22" s="297" t="s">
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="298"/>
+      <c r="AA22" s="296" t="s">
         <v>4640</v>
       </c>
-      <c r="AB22" s="298"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="298"/>
-      <c r="AE22" s="298"/>
-      <c r="AF22" s="298"/>
-      <c r="AG22" s="298"/>
-      <c r="AH22" s="299"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="297"/>
+      <c r="AF22" s="297"/>
+      <c r="AG22" s="297"/>
+      <c r="AH22" s="298"/>
       <c r="AI22" s="216"/>
     </row>
     <row r="23" spans="2:35" ht="86" customHeight="1">
@@ -31061,32 +31081,32 @@
         <f ca="1">人物原型!Q7</f>
         <v>2</v>
       </c>
-      <c r="D23" s="280" t="str">
+      <c r="D23" s="378" t="str">
         <f ca="1">人物原型!R7</f>
         <v>10、伟大理想： </v>
       </c>
-      <c r="E23" s="280"/>
-      <c r="F23" s="281"/>
+      <c r="E23" s="378"/>
+      <c r="F23" s="379"/>
       <c r="G23" s="268">
         <f ca="1">人物原型!U7</f>
         <v>1</v>
       </c>
-      <c r="H23" s="280" t="str">
+      <c r="H23" s="378" t="str">
         <f ca="1">人物原型!V7</f>
         <v>43、影子 </v>
       </c>
-      <c r="I23" s="280"/>
-      <c r="J23" s="281"/>
+      <c r="I23" s="378"/>
+      <c r="J23" s="379"/>
       <c r="K23" s="268">
         <f ca="1">人物原型!Y7</f>
         <v>2</v>
       </c>
-      <c r="L23" s="280" t="str">
+      <c r="L23" s="378" t="str">
         <f ca="1">人物原型!Z7</f>
         <v>47、操控者（反面） </v>
       </c>
-      <c r="M23" s="280"/>
-      <c r="N23" s="281"/>
+      <c r="M23" s="378"/>
+      <c r="N23" s="379"/>
       <c r="O23" s="216"/>
       <c r="P23" s="216"/>
       <c r="Q23" s="216"/>
@@ -31097,7 +31117,7 @@
       </c>
       <c r="T23" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC3</f>
-        <v>爆能步枪</v>
+        <v>时空撕裂大口径机枪</v>
       </c>
       <c r="U23" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA4</f>
@@ -31105,7 +31125,7 @@
       </c>
       <c r="V23" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC4</f>
-        <v>中子杀伤弹</v>
+        <v>等离子穿甲弹</v>
       </c>
       <c r="W23" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA5</f>
@@ -31113,7 +31133,7 @@
       </c>
       <c r="X23" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC5</f>
-        <v>核融合战刃</v>
+        <v>中子刀</v>
       </c>
       <c r="Y23" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA6</f>
@@ -31121,7 +31141,7 @@
       </c>
       <c r="Z23" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC6</f>
-        <v>天箭座主力舰</v>
+        <v>船底座轻型货轮</v>
       </c>
       <c r="AA23" s="217" t="str">
         <f>'装备库 (游戏) '!K2</f>
@@ -31129,7 +31149,7 @@
       </c>
       <c r="AB23" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M2</f>
-        <v>鬼索的卷轴</v>
+        <v>鬼索的魔杖</v>
       </c>
       <c r="AC23" s="203" t="str">
         <f>'装备库 (游戏) '!K3</f>
@@ -31137,7 +31157,7 @@
       </c>
       <c r="AD23" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M3</f>
-        <v>灭世者的徽章</v>
+        <v>圆润词典</v>
       </c>
       <c r="AE23" s="203" t="str">
         <f>'装备库 (游戏) '!K4</f>
@@ -31145,7 +31165,7 @@
       </c>
       <c r="AF23" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M4</f>
-        <v>饮魔鳞甲</v>
+        <v>切割铁剑</v>
       </c>
       <c r="AG23" s="203" t="str">
         <f>'装备库 (游戏) '!K5</f>
@@ -31153,7 +31173,7 @@
       </c>
       <c r="AH23" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M5</f>
-        <v>盘古护肩</v>
+        <v>符文哨兵</v>
       </c>
       <c r="AI23" s="216"/>
     </row>
@@ -31163,31 +31183,31 @@
         <f>人物原型!Q8</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="D24" s="282" t="str">
+      <c r="D24" s="383" t="str">
         <f ca="1">人物原型!R8</f>
         <v>这类反派并不是为了做坏事而做，而是为了一个心中崇高的理想而奋斗，阻碍他的人都必将被踢开，这件事甚至可能关乎到整个世界。 
 他们大多认为自己是正义的、正确的，甚至可能真是正义正确的，会让人在知道真相之后，有种肃然起敬的感觉。 
 比如漫威里的灭霸，再比如轩辕剑天之痕里面的宇文拓。 </v>
       </c>
-      <c r="E24" s="282"/>
-      <c r="F24" s="283"/>
+      <c r="E24" s="383"/>
+      <c r="F24" s="384"/>
       <c r="G24" s="268" t="str">
         <f>人物原型!U8</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="H24" s="282" t="str">
+      <c r="H24" s="383" t="str">
         <f ca="1">人物原型!V8</f>
         <v>影子会映射主角的性格缺陷或是阴暗面，这样他就可以正视并且克服自己的缺点。 
 主角会试图避开影子，因为看到他就意味着看到自己的缺点和恐惧。 
 影子身上最明显的要素就是他和主角的缺点。 </v>
       </c>
-      <c r="I24" s="282"/>
-      <c r="J24" s="283"/>
+      <c r="I24" s="383"/>
+      <c r="J24" s="384"/>
       <c r="K24" s="268" t="str">
         <f>人物原型!Y8</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="L24" s="282" t="str">
+      <c r="L24" s="383" t="str">
         <f ca="1">人物原型!Z8</f>
         <v>喜欢操纵人们，不顾他们的利益，为了得到自己想要的东西，他会见人说人话、见鬼说鬼话。 
 他有些反社会特质，因为他对待周围的存在都只是为了他个人乐趣、满足他的需求。 
@@ -31199,8 +31219,8 @@
 他会因为遭受‘不公正’待遇而勃然大怒、永不原谅。 
 他不为任何事情承担责任，如果他的公司破产了，那肯定是其他人造成的。 </v>
       </c>
-      <c r="M24" s="282"/>
-      <c r="N24" s="283"/>
+      <c r="M24" s="383"/>
+      <c r="N24" s="384"/>
       <c r="O24" s="216"/>
       <c r="P24" s="216"/>
       <c r="Q24" s="216"/>
@@ -31211,7 +31231,7 @@
       </c>
       <c r="T24" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC7</f>
-        <v>房宿三号战列舰</v>
+        <v>奎宿四号支援舰</v>
       </c>
       <c r="U24" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA8</f>
@@ -31219,7 +31239,7 @@
       </c>
       <c r="V24" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC8</f>
-        <v>土星（Saturn）号主力舰</v>
+        <v>水星（Mercury）号集装箱船</v>
       </c>
       <c r="W24" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA9</f>
@@ -31227,7 +31247,7 @@
       </c>
       <c r="X24" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC9</f>
-        <v>玄冥号主力舰</v>
+        <v>大禹号航天飞船</v>
       </c>
       <c r="Y24" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA10</f>
@@ -31235,7 +31255,7 @@
       </c>
       <c r="Z24" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC10</f>
-        <v>阿布霍斯号主力舰</v>
+        <v>洛本号旗舰</v>
       </c>
       <c r="AA24" s="217" t="str">
         <f>'装备库 (游戏) '!K6</f>
@@ -31243,7 +31263,7 @@
       </c>
       <c r="AB24" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M6</f>
-        <v>圣者拳套</v>
+        <v>霸者装甲</v>
       </c>
       <c r="AC24" s="203" t="str">
         <f>'装备库 (游戏) '!K7</f>
@@ -31251,7 +31271,7 @@
       </c>
       <c r="AD24" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M7</f>
-        <v>神秘降魔王冠</v>
+        <v>均衡攻击圣剑</v>
       </c>
       <c r="AE24" s="203" t="str">
         <f>'装备库 (游戏) '!K8</f>
@@ -31259,7 +31279,7 @@
       </c>
       <c r="AF24" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M8</f>
-        <v>治疗女妖手套</v>
+        <v>遗失潮汐长矛</v>
       </c>
       <c r="AG24" s="203" t="str">
         <f>'装备库 (游戏) '!K9</f>
@@ -31267,7 +31287,7 @@
       </c>
       <c r="AH24" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M9</f>
-        <v>金色时圣杯</v>
+        <v>海克斯近卫药水</v>
       </c>
       <c r="AI24" s="216"/>
     </row>
@@ -31277,32 +31297,32 @@
         <f ca="1">人物原型!Q9</f>
         <v>13</v>
       </c>
-      <c r="D25" s="280" t="str">
+      <c r="D25" s="378" t="str">
         <f ca="1">人物原型!R9</f>
         <v>4、混乱者： </v>
       </c>
-      <c r="E25" s="280"/>
-      <c r="F25" s="284"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="388"/>
       <c r="G25" s="268">
         <f ca="1">人物原型!U9</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="280" t="str">
+        <v>1</v>
+      </c>
+      <c r="H25" s="378" t="str">
         <f ca="1">人物原型!V9</f>
-        <v>44、迷失的灵魂 </v>
-      </c>
-      <c r="I25" s="280"/>
-      <c r="J25" s="284"/>
+        <v>43、影子 </v>
+      </c>
+      <c r="I25" s="378"/>
+      <c r="J25" s="388"/>
       <c r="K25" s="268">
         <f ca="1">人物原型!Y9</f>
-        <v>1</v>
-      </c>
-      <c r="L25" s="280" t="str">
+        <v>2</v>
+      </c>
+      <c r="L25" s="378" t="str">
         <f ca="1">人物原型!Z9</f>
-        <v>46、游戏改变者（正面） </v>
-      </c>
-      <c r="M25" s="280"/>
-      <c r="N25" s="284"/>
+        <v>47、操控者（反面） </v>
+      </c>
+      <c r="M25" s="378"/>
+      <c r="N25" s="388"/>
       <c r="O25" s="216"/>
       <c r="P25" s="216"/>
       <c r="Q25" s="216"/>
@@ -31313,7 +31333,7 @@
       </c>
       <c r="T25" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC11</f>
-        <v>勒托，阿斯特利亚（黑夜女神）号旗舰</v>
+        <v>喀耳刻(Circe)号客轮</v>
       </c>
       <c r="U25" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA12</f>
@@ -31321,7 +31341,7 @@
       </c>
       <c r="V25" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC12</f>
-        <v>　　玛尔斯 Mars 战神号客轮</v>
+        <v>　　伏尔肯 Vulcan 火神号航母</v>
       </c>
       <c r="W25" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA13</f>
@@ -31329,7 +31349,7 @@
       </c>
       <c r="X25" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC13</f>
-        <v>哈奇森号运输船</v>
+        <v>希格斯号航天飞船</v>
       </c>
       <c r="Y25" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA14</f>
@@ -31337,7 +31357,7 @@
       </c>
       <c r="Z25" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC14</f>
-        <v>鯥号驱逐舰</v>
+        <v>应龙号星舰</v>
       </c>
       <c r="AA25" s="217" t="str">
         <f>'装备库 (游戏) '!K10</f>
@@ -31345,7 +31365,7 @@
       </c>
       <c r="AB25" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M10</f>
-        <v>瑞莱的毁灭福利利刃</v>
+        <v>中娅的御魔极影盔甲</v>
       </c>
       <c r="AC25" s="203" t="str">
         <f>'装备库 (游戏) '!K11</f>
@@ -31353,7 +31373,7 @@
       </c>
       <c r="AD25" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M11</f>
-        <v>黑龙圣者盔甲</v>
+        <v>巫术狂暴者纹章</v>
       </c>
       <c r="AE25" s="203" t="str">
         <f>'装备库 (游戏) '!K12</f>
@@ -31361,7 +31381,7 @@
       </c>
       <c r="AF25" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M12</f>
-        <v>鬼索的之源</v>
+        <v>阿蒙的之源</v>
       </c>
       <c r="AG25" s="203" t="str">
         <f>'装备库 (游戏) '!K13</f>
@@ -31369,7 +31389,7 @@
       </c>
       <c r="AH25" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M13</f>
-        <v>疾风之石</v>
+        <v>神秘之拳</v>
       </c>
       <c r="AI25" s="216"/>
     </row>
@@ -31379,40 +31399,44 @@
         <f>人物原型!Q10</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="D26" s="285" t="str">
+      <c r="D26" s="389" t="str">
         <f ca="1">人物原型!R10</f>
         <v>这类反派甚至没有什么价值观人生观，它们是混乱的化身，只为杀戮破坏而生，是纯粹的邪恶生物，根本无法沟通。 
 它们往往生活在弱肉强食的世界，遵循着丛林法则，遇到时不是你死就是我活。 
 它们追逐着杀戮、破坏、死亡，甚至是自我毁灭。 </v>
       </c>
-      <c r="E26" s="285"/>
-      <c r="F26" s="286"/>
+      <c r="E26" s="389"/>
+      <c r="F26" s="390"/>
       <c r="G26" s="276" t="str">
         <f>人物原型!U10</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="H26" s="285" t="str">
+      <c r="H26" s="389" t="str">
         <f ca="1">人物原型!V10</f>
-        <v>象征着主角的过去，提醒她从何而来，以及为何要改变。 
-主角如果不能达成目标，就会回到迷失的灵魂这样的状态。 
-迷失的灵魂是代表过去的形象——那个从未达成目标的人，因为她根本没有目标。 
-她总是在生活里随波逐流，被动适应，而非创造生活。 
-她不知道如何改变人生，不敢走出第一步。 
-直到她看到主角，才意识到自己有多少该走而没走的路。 </v>
-      </c>
-      <c r="I26" s="285"/>
-      <c r="J26" s="286"/>
+        <v>影子会映射主角的性格缺陷或是阴暗面，这样他就可以正视并且克服自己的缺点。 
+主角会试图避开影子，因为看到他就意味着看到自己的缺点和恐惧。 
+影子身上最明显的要素就是他和主角的缺点。 </v>
+      </c>
+      <c r="I26" s="389"/>
+      <c r="J26" s="390"/>
       <c r="K26" s="276" t="str">
         <f>人物原型!Y10</f>
         <v>37种故事原型例子</v>
       </c>
-      <c r="L26" s="285" t="str">
+      <c r="L26" s="389" t="str">
         <f ca="1">人物原型!Z10</f>
-        <v>他想要为社会做些贡献，想要影响社会、创造传奇。 
-但他不是救世主那样自我牺牲的类型，他的动力来源于想要给人留下深刻印象的欲望，不过他也确实一直以某种方式在帮助别人。 </v>
-      </c>
-      <c r="M26" s="285"/>
-      <c r="N26" s="286"/>
+        <v>喜欢操纵人们，不顾他们的利益，为了得到自己想要的东西，他会见人说人话、见鬼说鬼话。 
+他有些反社会特质，因为他对待周围的存在都只是为了他个人乐趣、满足他的需求。 
+他没有同理心或同情心。 
+面临艰难决定的时候，他很少犹豫或后悔，如果他稍感良心不安，也会找出一个方式来为自己开脱，辩称自己这样做是为了大家好。 
+没有什么能够阻止他，他不管做什么都要声势浩大、轰轰烈烈，讨论他所作所为的人越多越好。 
+他很愿意替别人做那些生死攸关的决定，在他眼里，他就像是决定他人生死的神祇。 
+谁也别想让他为任何事承担自认。 
+他会因为遭受‘不公正’待遇而勃然大怒、永不原谅。 
+他不为任何事情承担责任，如果他的公司破产了，那肯定是其他人造成的。 </v>
+      </c>
+      <c r="M26" s="389"/>
+      <c r="N26" s="390"/>
       <c r="O26" s="237"/>
       <c r="P26" s="216"/>
       <c r="Q26" s="216"/>
@@ -31423,7 +31447,7 @@
       </c>
       <c r="T26" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC15</f>
-        <v>海豹号旗舰</v>
+        <v>儒艮号巡洋舰</v>
       </c>
       <c r="U26" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA16</f>
@@ -31431,7 +31455,7 @@
       </c>
       <c r="V26" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC16</f>
-        <v>小犬座援护飞船</v>
+        <v>望远镜座飞行船</v>
       </c>
       <c r="W26" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA17</f>
@@ -31439,7 +31463,7 @@
       </c>
       <c r="X26" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC17</f>
-        <v>井宿二号双吊舱云车</v>
+        <v>斗宿九号维修飞船</v>
       </c>
       <c r="Y26" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA18</f>
@@ -31447,7 +31471,7 @@
       </c>
       <c r="Z26" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC18</f>
-        <v>土星（Saturn）号飞船</v>
+        <v>海王星（Neptune）号飞梭赛车</v>
       </c>
       <c r="AA26" s="217" t="str">
         <f>'装备库 (游戏) '!K14</f>
@@ -31455,7 +31479,7 @@
       </c>
       <c r="AB26" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M14</f>
-        <v>续魔之盾</v>
+        <v>血怒之帽</v>
       </c>
       <c r="AC26" s="203" t="str">
         <f>'装备库 (游戏) '!K15</f>
@@ -31463,7 +31487,7 @@
       </c>
       <c r="AD26" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M15</f>
-        <v>意志之器</v>
+        <v>深渊之眼</v>
       </c>
       <c r="AE26" s="203" t="str">
         <f>'装备库 (游戏) '!K16</f>
@@ -31471,7 +31495,7 @@
       </c>
       <c r="AF26" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M16</f>
-        <v>支配者之舞</v>
+        <v>御法者之预言</v>
       </c>
       <c r="AG26" s="203" t="str">
         <f>'装备库 (游戏) '!K17</f>
@@ -31479,7 +31503,7 @@
       </c>
       <c r="AH26" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M17</f>
-        <v>坚定破法之怒</v>
+        <v>幸运鼓舞之锤</v>
       </c>
       <c r="AI26" s="216"/>
     </row>
@@ -31507,7 +31531,7 @@
       </c>
       <c r="T27" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC19</f>
-        <v>郁垒  号磁悬浮飞艇</v>
+        <v>风后号AAT</v>
       </c>
       <c r="U27" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA20</f>
@@ -31515,7 +31539,7 @@
       </c>
       <c r="V27" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC20</f>
-        <v>诺弗刻斯号飞船</v>
+        <v>号狙击飞船</v>
       </c>
       <c r="W27" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA21</f>
@@ -31523,7 +31547,7 @@
       </c>
       <c r="X27" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC21</f>
-        <v>泊萨福尼（冥后）号双吊舱云车</v>
+        <v>修普诺斯（睡神）号维修飞船</v>
       </c>
       <c r="Y27" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA22</f>
@@ -31531,7 +31555,7 @@
       </c>
       <c r="Z27" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC22</f>
-        <v>　　普鲁托 Pluto 冥神号反重力飞船</v>
+        <v>　　维纳斯 Venus 美神、爱神号探测器</v>
       </c>
       <c r="AA27" s="217" t="str">
         <f>'装备库 (游戏) '!K18</f>
@@ -31539,7 +31563,7 @@
       </c>
       <c r="AB27" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M18</f>
-        <v>转义虚空之锯</v>
+        <v>救赎盘古之靴</v>
       </c>
       <c r="AC27" s="203" t="str">
         <f>'装备库 (游戏) '!K19</f>
@@ -31547,7 +31571,7 @@
       </c>
       <c r="AD27" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M19</f>
-        <v>金色螺湮城之弓</v>
+        <v>贪婪法师之铠</v>
       </c>
       <c r="AE27" s="203" t="str">
         <f>'装备库 (游戏) '!K20</f>
@@ -31555,7 +31579,7 @@
       </c>
       <c r="AF27" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M20</f>
-        <v>舒瑞亚的防爆富豪之力</v>
+        <v>提莫玛乌斯泣血冰川之轻语</v>
       </c>
       <c r="AG27" s="203" t="str">
         <f>'装备库 (游戏) '!K21</f>
@@ -31563,43 +31587,43 @@
       </c>
       <c r="AH27" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M21</f>
-        <v>蛛网收割者之拥</v>
+        <v>光辉支配者之拥</v>
       </c>
       <c r="AI27" s="216"/>
     </row>
     <row r="28" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B28" s="216"/>
-      <c r="C28" s="290" t="s">
+      <c r="C28" s="323" t="s">
         <v>5003</v>
       </c>
-      <c r="D28" s="291"/>
-      <c r="E28" s="291"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="290" t="s">
+      <c r="D28" s="324"/>
+      <c r="E28" s="324"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="323" t="s">
         <v>5002</v>
       </c>
-      <c r="H28" s="291"/>
-      <c r="I28" s="291"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="381" t="s">
+      <c r="H28" s="324"/>
+      <c r="I28" s="324"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="309" t="s">
         <v>6069</v>
       </c>
-      <c r="L28" s="382"/>
-      <c r="M28" s="382"/>
-      <c r="N28" s="383"/>
-      <c r="O28" s="381" t="s">
+      <c r="L28" s="310"/>
+      <c r="M28" s="310"/>
+      <c r="N28" s="311"/>
+      <c r="O28" s="309" t="s">
         <v>6068</v>
       </c>
-      <c r="P28" s="382"/>
-      <c r="Q28" s="382"/>
-      <c r="R28" s="382"/>
+      <c r="P28" s="310"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="310"/>
       <c r="S28" s="217" t="str">
         <f>'载具装备库 (科幻) '!AA23</f>
         <v>科幻小型飞船8</v>
       </c>
       <c r="T28" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC23</f>
-        <v>伽利略号飞艇</v>
+        <v>波恩号维修飞船</v>
       </c>
       <c r="U28" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA24</f>
@@ -31607,7 +31631,7 @@
       </c>
       <c r="V28" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC24</f>
-        <v>蚣蝮号雪地飞车</v>
+        <v>鵸鵌号双吊舱云车</v>
       </c>
       <c r="W28" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA25</f>
@@ -31615,7 +31639,7 @@
       </c>
       <c r="X28" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC25</f>
-        <v>豚尾猴号星际飞船</v>
+        <v>玉带海雕号星际飞船</v>
       </c>
       <c r="Y28" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA26</f>
@@ -31623,7 +31647,7 @@
       </c>
       <c r="Z28" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC26</f>
-        <v>克图格亚型军用机甲</v>
+        <v>伊德海拉型民用机甲</v>
       </c>
       <c r="AA28" s="217" t="str">
         <f>'装备库 (游戏) '!K22</f>
@@ -31631,7 +31655,7 @@
       </c>
       <c r="AB28" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M22</f>
-        <v>提莫玛乌斯圣者</v>
+        <v>瑞莱的收割者</v>
       </c>
       <c r="AC28" s="203" t="str">
         <f>'装备库 (游戏) '!K23</f>
@@ -31639,7 +31663,7 @@
       </c>
       <c r="AD28" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M23</f>
-        <v>狂暴狂暴者</v>
+        <v>坚韧守护者</v>
       </c>
       <c r="AE28" s="203" t="str">
         <f>'装备库 (游戏) '!K24</f>
@@ -31647,7 +31671,7 @@
       </c>
       <c r="AF28" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M24</f>
-        <v>暴击圣者</v>
+        <v>格斗支配者</v>
       </c>
       <c r="AG28" s="203" t="str">
         <f>'装备库 (游戏) '!K25</f>
@@ -31655,7 +31679,7 @@
       </c>
       <c r="AH28" s="245" t="str">
         <f ca="1">'装备库 (游戏) '!M25</f>
-        <v>魔女圣者</v>
+        <v>风魔狂暴者</v>
       </c>
       <c r="AI28" s="216"/>
     </row>
@@ -31667,7 +31691,7 @@
       </c>
       <c r="D29" s="240" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD9</f>
-        <v>3-人-中心-主体</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="E29" s="248" t="str">
         <f>'人物性格（1）善恶，哲学'!AB10</f>
@@ -31675,7 +31699,7 @@
       </c>
       <c r="F29" s="241" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD10</f>
-        <v>4-地-虚无-原质</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="G29" s="246" t="str">
         <f>'人物性格（1）善恶，哲学'!AF9</f>
@@ -31683,7 +31707,7 @@
       </c>
       <c r="H29" s="240" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH9</f>
-        <v>希望</v>
+        <v>仁慈</v>
       </c>
       <c r="I29" s="248" t="str">
         <f>'人物性格（1）善恶，哲学'!AF10</f>
@@ -31691,32 +31715,32 @@
       </c>
       <c r="J29" s="241" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH10</f>
-        <v>乌利尔（Uriel）</v>
-      </c>
-      <c r="K29" s="365" t="str">
+        <v>拉斐尔 （Raphael）</v>
+      </c>
+      <c r="K29" s="357" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AI5</f>
-        <v>ENTP</v>
-      </c>
-      <c r="L29" s="366"/>
-      <c r="M29" s="367" t="str">
+        <v>INTP</v>
+      </c>
+      <c r="L29" s="358"/>
+      <c r="M29" s="359" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AG6</f>
         <v>NT</v>
       </c>
-      <c r="N29" s="368"/>
-      <c r="O29" s="380" t="str">
+      <c r="N29" s="360"/>
+      <c r="O29" s="307" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AI8</f>
-        <v>艺术型(Artistic):其本的人格倾向是，具有想象、冲动、直觉、无秩序、情绪化、理想化、有创意、不重实际等人格特征。喜欢艺术性质的职业和环境，不善于事务工作。 </v>
-      </c>
-      <c r="P29" s="337"/>
-      <c r="Q29" s="337"/>
-      <c r="R29" s="337"/>
+        <v>传统型(Conventional):具有顺从、谨慎、保守、实际、稳重、有效率等人格特征。喜欢有系统有条理的工作任务，其典型的职业包括秘书、办公室人员、计事员、会计、行政助理、图书馆员、出纳员、打字员、税务员、统计员、交通管理员等。 </v>
+      </c>
+      <c r="P29" s="308"/>
+      <c r="Q29" s="308"/>
+      <c r="R29" s="308"/>
       <c r="S29" s="217" t="str">
         <f>'载具装备库 (科幻) '!AA27</f>
         <v>科幻机甲2</v>
       </c>
       <c r="T29" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC27</f>
-        <v>帕特洛克洛斯(Patroclus)型援护机甲</v>
+        <v>刻托(Ceto)型援护机甲</v>
       </c>
       <c r="U29" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA28</f>
@@ -31724,7 +31748,7 @@
       </c>
       <c r="V29" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC28</f>
-        <v>　　维纳斯 Venus 美神、爱神型狙击机甲</v>
+        <v>　　朱诺 Juno 神后型狙击机甲</v>
       </c>
       <c r="W29" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA29</f>
@@ -31732,7 +31756,7 @@
       </c>
       <c r="X29" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC29</f>
-        <v>波恩型军用机甲</v>
+        <v>狄拉克型突击机甲</v>
       </c>
       <c r="Y29" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA30</f>
@@ -31740,7 +31764,7 @@
       </c>
       <c r="Z29" s="245" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC30</f>
-        <v>霸下型狙击机甲</v>
+        <v>赢鱼型援护机甲</v>
       </c>
       <c r="AA29" s="217" t="str">
         <f>'装备库 (游戏) '!K26</f>
@@ -31748,7 +31772,7 @@
       </c>
       <c r="AB29" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M26</f>
-        <v>三相速击御法者</v>
+        <v>圆润憾天殉难者</v>
       </c>
       <c r="AC29" s="203" t="str">
         <f>'装备库 (游戏) '!K27</f>
@@ -31756,7 +31780,7 @@
       </c>
       <c r="AD29" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M27</f>
-        <v>格斗冰痕御法者</v>
+        <v>抗魔冰川贤者</v>
       </c>
       <c r="AE29" s="203" t="str">
         <f>'装备库 (游戏) '!K28</f>
@@ -31764,7 +31788,7 @@
       </c>
       <c r="AF29" s="244" t="str">
         <f ca="1">'装备库 (游戏) '!M28</f>
-        <v>暴烈潮汐圣者</v>
+        <v>神速日冕守护者</v>
       </c>
       <c r="AG29" s="216"/>
       <c r="AH29" s="236"/>
@@ -31778,7 +31802,7 @@
       </c>
       <c r="D30" s="240" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD11</f>
-        <v>4-地-虚无-原质</v>
+        <v>3-人-中心-主体</v>
       </c>
       <c r="E30" s="248" t="str">
         <f>'人物性格（1）善恶，哲学'!AB12</f>
@@ -31786,7 +31810,7 @@
       </c>
       <c r="F30" s="241" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD12</f>
-        <v>4-地-虚无-原质</v>
+        <v>1-天-秩序-大他者</v>
       </c>
       <c r="G30" s="246" t="str">
         <f>'人物性格（1）善恶，哲学'!AF11</f>
@@ -31794,7 +31818,7 @@
       </c>
       <c r="H30" s="240" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH11</f>
-        <v>暴怒</v>
+        <v>懒惰</v>
       </c>
       <c r="I30" s="248" t="str">
         <f>'人物性格（1）善恶，哲学'!AF12</f>
@@ -31802,35 +31826,35 @@
       </c>
       <c r="J30" s="241" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH12</f>
-        <v>萨麦尔（Samael）</v>
-      </c>
-      <c r="K30" s="372" t="str">
+        <v>贝尔芬格（Belphegor）</v>
+      </c>
+      <c r="K30" s="299" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AI6</f>
-        <v xml:space="preserve">ENTP：聪明好奇的发明者，不会放弃任何智力上的挑战 
-故意持相反意见的创新者，善于把观点和信条剪得支离破碎并撒在空中给所有人看 
-喜欢另辟蹊径，非常规的思维方式中训练思维，改善现有系统，打破成规发现新出路 </v>
-      </c>
-      <c r="L30" s="373"/>
-      <c r="M30" s="376" t="str">
+        <v xml:space="preserve">INTP：具有创造力的思想家，对知识有着止不住的渴望 
+哲学家、思考者，或是爱空想的教授，在历史的长河中，许多科学发现就是他们的智慧之花结出的丰硕果实 
+展现出积极主动的创造性，异于常人的视角以及永不枯竭的智慧系统 </v>
+      </c>
+      <c r="L30" s="300"/>
+      <c r="M30" s="303" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AH6</f>
         <v xml:space="preserve">NT理性者： 
 理性者=战略能力》》》掌握因果联系，通过系统和知识实现目标 </v>
       </c>
-      <c r="N30" s="377"/>
-      <c r="O30" s="386" t="str">
+      <c r="N30" s="304"/>
+      <c r="O30" s="314" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AH8</f>
-        <v>人格特点：喜欢以各种艺术形式的创作来表现自己的才能，实现自身价值；具有特殊艺术才能和个性；乐于创造新颖的、与众不同的艺术成果、渴望表现自己的个性。 </v>
-      </c>
-      <c r="P30" s="387"/>
-      <c r="Q30" s="387"/>
-      <c r="R30" s="387"/>
+        <v>人格特点：喜欢按计划办事，*惯接受他人的智慧和领导，自己不谋求领导职位；不喜欢冒险和竞争；工作踏实、忠诚可靠，遵守纪律</v>
+      </c>
+      <c r="P30" s="315"/>
+      <c r="Q30" s="315"/>
+      <c r="R30" s="315"/>
       <c r="S30" s="217" t="str">
         <f>'载具装备库 (科幻) '!AA31</f>
         <v>科幻机甲6</v>
       </c>
       <c r="T30" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC31</f>
-        <v>柳雷鸟型狙击机甲</v>
+        <v>细瘰疣螈型援护机甲</v>
       </c>
       <c r="U30" s="203" t="str">
         <f>'载具装备库 (科幻) '!AA32</f>
@@ -31838,7 +31862,7 @@
       </c>
       <c r="V30" s="244" t="str">
         <f ca="1">'载具装备库 (科幻) '!AC32</f>
-        <v>小型型援护机甲</v>
+        <v>小型型工业机甲</v>
       </c>
       <c r="W30" s="278"/>
       <c r="X30" s="216"/>
@@ -31862,7 +31886,7 @@
       </c>
       <c r="D31" s="240" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD13</f>
-        <v>3观念论</v>
+        <v>2形而上学</v>
       </c>
       <c r="E31" s="248" t="str">
         <f>'人物性格（1）善恶，哲学'!AB14</f>
@@ -31870,35 +31894,35 @@
       </c>
       <c r="F31" s="241" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD14</f>
-        <v>34结构主义</v>
-      </c>
-      <c r="G31" s="359" t="str">
+        <v>22辨证形而上学</v>
+      </c>
+      <c r="G31" s="348" t="str">
         <f>'人物性格（1）善恶，哲学'!AF13</f>
         <v>堕落</v>
       </c>
-      <c r="H31" s="361" t="str">
+      <c r="H31" s="350" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH13</f>
-        <v>失去天使</v>
-      </c>
-      <c r="I31" s="384" t="str">
+        <v>扭曲天使</v>
+      </c>
+      <c r="I31" s="312" t="str">
         <f>'人物性格（1）善恶，哲学'!AF14</f>
         <v>堕天使</v>
       </c>
-      <c r="J31" s="363" t="str">
+      <c r="J31" s="355" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AH14</f>
-        <v>贲薨【Python】</v>
-      </c>
-      <c r="K31" s="372"/>
-      <c r="L31" s="373"/>
-      <c r="M31" s="376"/>
-      <c r="N31" s="377"/>
-      <c r="O31" s="388" t="str">
+        <v>亚伯汗【Abraham】</v>
+      </c>
+      <c r="K31" s="299"/>
+      <c r="L31" s="300"/>
+      <c r="M31" s="303"/>
+      <c r="N31" s="304"/>
+      <c r="O31" s="316" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AH9</f>
-        <v>职业类型：主要指各种艺术创造工作。 </v>
-      </c>
-      <c r="P31" s="376"/>
-      <c r="Q31" s="376"/>
-      <c r="R31" s="376"/>
+        <v>职业类型：主要指各类文件档案、图书资料、统计报表之类相关的各类科室工作。</v>
+      </c>
+      <c r="P31" s="303"/>
+      <c r="Q31" s="303"/>
+      <c r="R31" s="303"/>
       <c r="S31" s="237"/>
       <c r="T31" s="216"/>
       <c r="U31" s="216"/>
@@ -31925,7 +31949,7 @@
       </c>
       <c r="D32" s="242" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD15</f>
-        <v>344解释学</v>
+        <v>223超验主义</v>
       </c>
       <c r="E32" s="249" t="str">
         <f>'人物性格（1）善恶，哲学'!AB16</f>
@@ -31933,23 +31957,23 @@
       </c>
       <c r="F32" s="243" t="str">
         <f ca="1">'人物性格（1）善恶，哲学'!AD16</f>
-        <v>3444针对资本主义的精神分析</v>
-      </c>
-      <c r="G32" s="360"/>
-      <c r="H32" s="362"/>
-      <c r="I32" s="385"/>
-      <c r="J32" s="364"/>
-      <c r="K32" s="374"/>
-      <c r="L32" s="375"/>
-      <c r="M32" s="378"/>
-      <c r="N32" s="379"/>
-      <c r="O32" s="389" t="str">
+        <v>2231历史符号主义</v>
+      </c>
+      <c r="G32" s="349"/>
+      <c r="H32" s="351"/>
+      <c r="I32" s="313"/>
+      <c r="J32" s="356"/>
+      <c r="K32" s="301"/>
+      <c r="L32" s="302"/>
+      <c r="M32" s="305"/>
+      <c r="N32" s="306"/>
+      <c r="O32" s="317" t="str">
         <f ca="1">'人物性格 (3)MBTI，霍兰德'!AI9</f>
-        <v>主要职业：音乐、舞蹈、戏剧等方面的演员、艺术家编导、教师；文学、艺术方面的评论员；广播节目的主持人、编辑、作者；绘图、书法、摄影家；艺术、家具、珠宝、房屋装饰等行业的设计师等 其典型的职业包括艺术方面的(如演员、导演、艺术设计师、雕刻家等)、音乐方面的(如歌唱家、作曲家、乐队指挥等)与文学方面的(如诗人、小说家、剧作家等). </v>
-      </c>
-      <c r="P32" s="390"/>
-      <c r="Q32" s="390"/>
-      <c r="R32" s="390"/>
+        <v>主要职业：会计、出纳、统计人员；打字员；办公室人员；秘书和文书。图书管理员；旅游、外贸职员，保管员，邮递员，审计人员，人事职员等 </v>
+      </c>
+      <c r="P32" s="318"/>
+      <c r="Q32" s="318"/>
+      <c r="R32" s="318"/>
       <c r="S32" s="238"/>
       <c r="T32" s="230"/>
       <c r="U32" s="230"/>
@@ -32006,28 +32030,28 @@
     </row>
     <row r="34" spans="2:35" ht="86" customHeight="1" thickBot="1">
       <c r="B34" s="216"/>
-      <c r="C34" s="290" t="s">
+      <c r="C34" s="323" t="s">
         <v>5004</v>
       </c>
-      <c r="D34" s="291"/>
-      <c r="E34" s="291"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="290" t="s">
+      <c r="D34" s="324"/>
+      <c r="E34" s="324"/>
+      <c r="F34" s="325"/>
+      <c r="G34" s="323" t="s">
         <v>5005</v>
       </c>
-      <c r="H34" s="291"/>
-      <c r="I34" s="291"/>
-      <c r="J34" s="292"/>
-      <c r="K34" s="290" t="s">
+      <c r="H34" s="324"/>
+      <c r="I34" s="324"/>
+      <c r="J34" s="325"/>
+      <c r="K34" s="323" t="s">
         <v>5006</v>
       </c>
-      <c r="L34" s="291"/>
-      <c r="M34" s="291"/>
-      <c r="N34" s="291"/>
-      <c r="O34" s="291"/>
-      <c r="P34" s="291"/>
-      <c r="Q34" s="291"/>
-      <c r="R34" s="292"/>
+      <c r="L34" s="324"/>
+      <c r="M34" s="324"/>
+      <c r="N34" s="324"/>
+      <c r="O34" s="324"/>
+      <c r="P34" s="324"/>
+      <c r="Q34" s="324"/>
+      <c r="R34" s="325"/>
       <c r="S34" s="237"/>
       <c r="T34" s="216"/>
       <c r="U34" s="216"/>
@@ -32040,12 +32064,12 @@
       <c r="AB34" s="216"/>
       <c r="AC34" s="216"/>
       <c r="AD34" s="216"/>
-      <c r="AE34" s="318" t="s">
+      <c r="AE34" s="286" t="s">
         <v>6064</v>
       </c>
-      <c r="AF34" s="319"/>
-      <c r="AG34" s="319"/>
-      <c r="AH34" s="320"/>
+      <c r="AF34" s="287"/>
+      <c r="AG34" s="287"/>
+      <c r="AH34" s="288"/>
       <c r="AI34" s="216"/>
     </row>
     <row r="35" spans="2:35" ht="86" customHeight="1">
@@ -32056,7 +32080,7 @@
       </c>
       <c r="D35" s="244" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ11</f>
-        <v>摩蝎座</v>
+        <v>巨蟹座</v>
       </c>
       <c r="E35" s="220" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO12</f>
@@ -32064,7 +32088,7 @@
       </c>
       <c r="F35" s="245">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ12</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G35" s="250" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO16</f>
@@ -32072,7 +32096,7 @@
       </c>
       <c r="H35" s="220" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ16</f>
-        <v>恋人</v>
+        <v>女皇</v>
       </c>
       <c r="I35" s="252" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO18</f>
@@ -32080,7 +32104,7 @@
       </c>
       <c r="J35" s="225" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AP18</f>
-        <v>结合</v>
+        <v>丰收</v>
       </c>
       <c r="K35" s="250" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AS12</f>
@@ -32088,26 +32112,26 @@
       </c>
       <c r="L35" s="244" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU12</f>
-        <v>8-10</v>
-      </c>
-      <c r="M35" s="335" t="str">
+        <v>9-8</v>
+      </c>
+      <c r="M35" s="319" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS13</f>
-        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
-      </c>
-      <c r="N35" s="335"/>
+        <v>9.“基础”（或称“根基”，“基盘”，Yesod，Foundation） </v>
+      </c>
+      <c r="N35" s="319"/>
       <c r="O35" s="252" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AS17</f>
         <v>编号</v>
       </c>
       <c r="P35" s="244" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU17</f>
-        <v>10</v>
-      </c>
-      <c r="Q35" s="335" t="str">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="319" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS18</f>
-        <v>10.“王国”（Malkuth，Kingdom） </v>
-      </c>
-      <c r="R35" s="336"/>
+        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
+      </c>
+      <c r="R35" s="320"/>
       <c r="S35" s="237"/>
       <c r="T35" s="216"/>
       <c r="U35" s="216"/>
@@ -32120,12 +32144,12 @@
       <c r="AB35" s="216"/>
       <c r="AC35" s="216"/>
       <c r="AD35" s="216"/>
-      <c r="AE35" s="353" t="s">
+      <c r="AE35" s="280" t="s">
         <v>5007</v>
       </c>
-      <c r="AF35" s="354"/>
-      <c r="AG35" s="354"/>
-      <c r="AH35" s="355"/>
+      <c r="AF35" s="281"/>
+      <c r="AG35" s="281"/>
+      <c r="AH35" s="282"/>
       <c r="AI35" s="216"/>
     </row>
     <row r="36" spans="2:35" ht="86" customHeight="1">
@@ -32134,42 +32158,41 @@
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO13</f>
         <v>出生</v>
       </c>
-      <c r="D36" s="337" t="str">
+      <c r="D36" s="308" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ13</f>
-        <v>出生月份12月22日-1月20日 </v>
-      </c>
-      <c r="E36" s="337"/>
-      <c r="F36" s="338"/>
-      <c r="G36" s="329" t="str">
+        <v>出生月份6月22日-7月22日 </v>
+      </c>
+      <c r="E36" s="308"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="321" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ18</f>
-        <v>——结合（对应星象：双子座）
+        <v>——丰收（对应星象：金星）
+女皇
+女皇
 牌面解读：
-这是塔罗牌中解释爱情最好的牌，代表这人生的青春期。牌面中一对男女在天使的召唤下走到一起，成为恋人。尽管阳光普照，充满了幸福的感受，但恋人的后面却有着很多考验在等着他们——希望之树和毒蛇盘踞的禁果之树。
-恋爱中的情侣可以彼此协助、支持，浪漫成了这段美好时光的主题。但恋爱中的人必须面对感情上的抉择，就是在众多的异性中选择其中的一个作为伴侣，所以说爱情是既美丽又残酷的。在解牌时一定要注意“结合”背后的“选择”，也就是要有所取舍。
+美丽的女皇坐在优雅舒适的椅子上，四周一片茂密森林，令人有种无忧无虑，悠闲自在的感觉，椅子旁还放着一颗心，似乎是她有心赐给你这些丰沃的土地和果子，圆满的爱，应该好好的谢恩了。
 正位释义：
-撮合，爱情，流行，兴趣，充满希望的未来，魅力，增加朋友。感情和肉体对爱的渴望，它暗示恋情将向彼此关系更亲密的方向发展。事业上将面临重大的抉择，它将关系到你的未来前途。
+幸福，成功，收获，无忧无虑，圆满的家庭生活，良好的环境，美貌，艺术，与大自然接触，愉快的旅行，休闲。
 逆位释义：
-禁不起诱惑，纵欲过度，反覆无常，友情变淡，厌倦，争吵，华丽的打扮，优柔寡断。感情上表现幼稚，对成长虽有期待与希望，却希望永远躲避危险，逃避责任。事业上总保持着很高的戒心，让人感到很不舒服，不愿同你合作。</v>
-      </c>
-      <c r="H36" s="329"/>
-      <c r="I36" s="329"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="332" t="str">
+不活泼，缺乏上进心，散漫的生活习惯，无法解决的事情，不能看到成果，耽于享乐，环境险恶，与家人发生纠纷。</v>
+      </c>
+      <c r="H36" s="321"/>
+      <c r="I36" s="321"/>
+      <c r="J36" s="322"/>
+      <c r="K36" s="366" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU13</f>
+        <v>意味着“astral体”，也就是灵魂与肉体之中的灵气。卡巴拉以此表现“前存在物质”。数字是9，颜色是紫色，金属是银，象征行星为月亮（同太阳，神秘学中月亮也被视为行星）。代表人物形象为全裸的男性。神名是Shaddai El Chai。守护天使是加百列（Gabriel）。基础、万物的基础、神的创造力，亦代表着月球天。</v>
+      </c>
+      <c r="L36" s="321"/>
+      <c r="M36" s="321"/>
+      <c r="N36" s="321"/>
+      <c r="O36" s="321" t="str">
+        <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU18</f>
         <v xml:space="preserve">有物质型态的“铸型”之意。数字是8，颜色是橙色，金属是水银。象征行星为水星。神名是Elohim Tzabaoth，守护天使是拉斐尔（Raphael）。尊严、收缩、光荣，亦代表着水星天。 </v>
       </c>
-      <c r="L36" s="329"/>
-      <c r="M36" s="329"/>
-      <c r="N36" s="329"/>
-      <c r="O36" s="329" t="str">
-        <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU18</f>
-        <v xml:space="preserve">“物质的王国”之意。颜色是橙黄色、橄榄色、红褐色和黑色四色，宝石是水晶。象征行星为地球。代表人物形象为坐在王座上的年轻女性，神名是Adonai Melekh，守护天使是尚达奉（Sandalphon）。王国、物质、人，亦代表着四元素所合成，即是物质的存在。 
-依次连结1到10所构成的线条又称为“火剑之路”（Path of the Flaming Sword）。 
-另外，在16世纪的鲁利安体系的卡巴拉（英语：Lurianic Kabbalah）中，出现了质点“知识”（或称“智慧”，Da'at）。“知识”所在之处，生命之树的十个质点合为一体，所以通常不会被描绘。然而有时“知识”也会被视为质点并取代“王冠”（Kether），沿生命之树中轴线出现，位于“王冠”的正下方、“美丽”（Tiphareth）的正上方，这时它被视为非意识的“王冠”的意识表现。 </v>
-      </c>
-      <c r="P36" s="329"/>
-      <c r="Q36" s="329"/>
-      <c r="R36" s="330"/>
+      <c r="P36" s="321"/>
+      <c r="Q36" s="321"/>
+      <c r="R36" s="322"/>
       <c r="S36" s="237"/>
       <c r="T36" s="216"/>
       <c r="U36" s="216"/>
@@ -32182,10 +32205,10 @@
       <c r="AB36" s="216"/>
       <c r="AC36" s="216"/>
       <c r="AD36" s="216"/>
-      <c r="AE36" s="353"/>
-      <c r="AF36" s="354"/>
-      <c r="AG36" s="354"/>
-      <c r="AH36" s="355"/>
+      <c r="AE36" s="280"/>
+      <c r="AF36" s="281"/>
+      <c r="AG36" s="281"/>
+      <c r="AH36" s="282"/>
       <c r="AI36" s="216"/>
     </row>
     <row r="37" spans="2:35" ht="86" customHeight="1">
@@ -32194,25 +32217,25 @@
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO14</f>
         <v>总结</v>
       </c>
-      <c r="D37" s="337" t="str">
+      <c r="D37" s="308" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ14</f>
-        <v>创建，组织，成就，命令 </v>
-      </c>
-      <c r="E37" s="337"/>
-      <c r="F37" s="338"/>
+        <v>自我保护，敏悦，富有梦想，可靠。 </v>
+      </c>
+      <c r="E37" s="308"/>
+      <c r="F37" s="369"/>
       <c r="G37" s="250" t="str">
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO19</f>
         <v>小塔罗</v>
       </c>
       <c r="H37" s="220" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ19</f>
-        <v>权杖2</v>
-      </c>
-      <c r="I37" s="335" t="str">
+        <v>宝剑1</v>
+      </c>
+      <c r="I37" s="319" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AP20</f>
-        <v>权杖代表着火，象征激情，能量创造，</v>
-      </c>
-      <c r="J37" s="336"/>
+        <v>宝剑代表风，象征思想，智慧，交流和冲突</v>
+      </c>
+      <c r="J37" s="320"/>
       <c r="K37" s="239" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS14</f>
         <v>“形成界”（Yetzirah）</v>
@@ -32221,24 +32244,24 @@
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AT14</f>
         <v>“形成的世界”（The Formation World） </v>
       </c>
-      <c r="M37" s="335" t="str">
+      <c r="M37" s="319" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS15</f>
-        <v>严厉之柱（Pillar of Severity） </v>
-      </c>
-      <c r="N37" s="335"/>
+        <v>温和之柱（Pillar of Mildness）</v>
+      </c>
+      <c r="N37" s="319"/>
       <c r="O37" s="220" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS19</f>
-        <v>“物质界”（Assiah）</v>
+        <v>“形成界”（Yetzirah）</v>
       </c>
       <c r="P37" s="220" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AT19</f>
-        <v xml:space="preserve">“物质的世界”（The Material World） </v>
-      </c>
-      <c r="Q37" s="335" t="str">
+        <v>“形成的世界”（The Formation World） </v>
+      </c>
+      <c r="Q37" s="319" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AS20</f>
-        <v>温和之柱（Pillar of Mildness）</v>
-      </c>
-      <c r="R37" s="336"/>
+        <v>严厉之柱（Pillar of Severity） </v>
+      </c>
+      <c r="R37" s="320"/>
       <c r="S37" s="237"/>
       <c r="T37" s="216"/>
       <c r="U37" s="216"/>
@@ -32251,12 +32274,12 @@
       <c r="AB37" s="216"/>
       <c r="AC37" s="216"/>
       <c r="AD37" s="216"/>
-      <c r="AE37" s="353" t="s">
+      <c r="AE37" s="280" t="s">
         <v>5008</v>
       </c>
-      <c r="AF37" s="354"/>
-      <c r="AG37" s="354"/>
-      <c r="AH37" s="355"/>
+      <c r="AF37" s="281"/>
+      <c r="AG37" s="281"/>
+      <c r="AH37" s="282"/>
       <c r="AI37" s="216"/>
     </row>
     <row r="38" spans="2:35" ht="86" customHeight="1" thickBot="1">
@@ -32265,33 +32288,33 @@
         <f>'人物性格 (2)星座，塔罗，卡巴拉'!AO15</f>
         <v>详细</v>
       </c>
-      <c r="D38" s="327" t="str">
+      <c r="D38" s="363" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ15</f>
-        <v xml:space="preserve">摩蝎座的从不会重复同样的错误。他们非常小心，沉稳，务实和节俭。他们有所保留的个性可能导致人际关系出现问题。他们忠实于家庭及所爱的人。但他们善良和感情丰富的一面往往被他们的羞涩所掩盖。由于追求完美，不相信自己的能力，使他们经常与机遇擦肩而过。土星是摩蝎座的守护星。当受到很多人关注和遵敬的时候，摩蝎座的人很容易改变自 己。摩蝎座的人适合做经纪，政客，经济学家和银行家。 </v>
-      </c>
-      <c r="E38" s="327"/>
-      <c r="F38" s="328"/>
-      <c r="G38" s="331" t="str">
+        <v>巨蟹座的人自我保护能力很强，且具有传统及情绪化的特征。有时，巨蟹座的人会为了自己想要得到的东西而不惜一切代价的去争取。他们总是很极端化的，他们会在很短的时间内一时忧愁一时又是欢喜。他们是十分敏感的，做任何事情都是非常自我的，但他们非常重视家庭。巨蟹座的人不喜欢被别人批评或是侮辱。他们生性慷慨。巨蟹座的人将是很好的律师，建筑师，设计师和画家。 </v>
+      </c>
+      <c r="E38" s="363"/>
+      <c r="F38" s="364"/>
+      <c r="G38" s="365" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AQ20</f>
-        <v>失望，来自朋友和生意伙伴的反对。</v>
-      </c>
-      <c r="H38" s="327"/>
-      <c r="I38" s="327"/>
-      <c r="J38" s="328"/>
-      <c r="K38" s="331" t="str">
+        <v>不幸，坏消息，死亡的消息，充满妒忌的情感。</v>
+      </c>
+      <c r="H38" s="363"/>
+      <c r="I38" s="363"/>
+      <c r="J38" s="364"/>
+      <c r="K38" s="365" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU14</f>
         <v>原型为四大元素中的水。人类灵魂的领域，由此开始，有了男女的区别。被认为是元素的世界，来自“创造界”的组织开始形成物质，形态开始表现。这是小天使的世界，代表着神的心智（The Mind of Deity）</v>
       </c>
-      <c r="L38" s="327"/>
-      <c r="M38" s="327"/>
-      <c r="N38" s="327"/>
-      <c r="O38" s="333" t="str">
+      <c r="L38" s="363"/>
+      <c r="M38" s="363"/>
+      <c r="N38" s="363"/>
+      <c r="O38" s="367" t="str">
         <f ca="1">'人物性格 (2)星座，塔罗，卡巴拉'!AU19</f>
-        <v>原型为四大元素中的地。我们人类生存的世界，灵魂在此有了肉体。原始的光分崩离析，开始结晶形成物质、自然界，以及人的存在。抽象的观念变成具体的事物，这是人的世界。 </v>
-      </c>
-      <c r="P38" s="333"/>
-      <c r="Q38" s="333"/>
-      <c r="R38" s="334"/>
+        <v>原型为四大元素中的水。人类灵魂的领域，由此开始，有了男女的区别。被认为是元素的世界，来自“创造界”的组织开始形成物质，形态开始表现。这是小天使的世界，代表着神的心智（The Mind of Deity）</v>
+      </c>
+      <c r="P38" s="367"/>
+      <c r="Q38" s="367"/>
+      <c r="R38" s="368"/>
       <c r="S38" s="238"/>
       <c r="T38" s="230"/>
       <c r="U38" s="230"/>
@@ -32304,10 +32327,10 @@
       <c r="AB38" s="230"/>
       <c r="AC38" s="230"/>
       <c r="AD38" s="230"/>
-      <c r="AE38" s="369"/>
-      <c r="AF38" s="370"/>
-      <c r="AG38" s="370"/>
-      <c r="AH38" s="371"/>
+      <c r="AE38" s="283"/>
+      <c r="AF38" s="284"/>
+      <c r="AG38" s="284"/>
+      <c r="AH38" s="285"/>
       <c r="AI38" s="216"/>
     </row>
     <row r="39" spans="2:35" ht="86" customHeight="1">
@@ -32348,6 +32371,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="S15:AH15"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C2:AH2"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="W13:Z14"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="AE35:AH36"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AF5:AH5"/>
     <mergeCell ref="AE37:AH38"/>
     <mergeCell ref="AE34:AH34"/>
     <mergeCell ref="X5:Z5"/>
@@ -32372,113 +32502,6 @@
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="K34:R34"/>
     <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C2:AH2"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="W13:Z14"/>
-    <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="AE35:AH36"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="L7:N8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="S15:AH15"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32912,24 +32935,24 @@
       </c>
       <c r="AD5" s="76" t="str">
         <f t="array" aca="1" ref="AD5" ca="1">_xlfn.CONCAT(MID(AE5:AL5,1,1))</f>
-        <v>3444</v>
+        <v>2231</v>
       </c>
       <c r="AE5" s="1" t="str">
         <f t="array" aca="1" ref="AE5" ca="1">IFERROR(INDIRECT(MID($AC5,AE$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC5,AE$1,1)&amp;($A$2)))),"")</f>
-        <v>3-人-中心-主体</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="AG5" s="1" t="str">
         <f t="array" aca="1" ref="AG5" ca="1">IFERROR(INDIRECT(MID($AC5,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC5,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>4-地-虚无-原质</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="str">
         <f t="array" aca="1" ref="AI5" ca="1">IFERROR(INDIRECT(MID($AC5,AI$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC5,AI$1,1)&amp;($A$2)))),"")</f>
-        <v>4-地-虚无-原质</v>
+        <v>3-人-中心-主体</v>
       </c>
       <c r="AJ5" s="1" t="str">
         <f t="array" aca="1" ref="AJ5" ca="1">IFERROR(INDIRECT(MID($AC5,AJ$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC5,AJ$1,1)&amp;($A$2)))),"")</f>
-        <v>4-地-虚无-原质</v>
+        <v>1-天-秩序-大他者</v>
       </c>
       <c r="AK5" s="1" t="str">
         <f t="array" aca="1" ref="AK5" ca="1">IFERROR(INDIRECT(MID(#REF!,AK$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID(#REF!,AK$1,1)&amp;($A$2)))),"")</f>
@@ -32941,19 +32964,19 @@
       </c>
       <c r="AM5" s="73" t="str">
         <f ca="1">VLOOKUP(MID($AD5,1,1),INDIRECT("D"&amp;$A$2+1):INDIRECT("E"&amp;E$2),2,FALSE)</f>
-        <v>3观念论</v>
+        <v>2形而上学</v>
       </c>
       <c r="AN5" s="73" t="str">
         <f ca="1">VLOOKUP(MID($AD5,1,2),INDIRECT("F"&amp;$A$2+1):INDIRECT("G"&amp;G$2),2,FALSE)</f>
-        <v>34结构主义</v>
+        <v>22辨证形而上学</v>
       </c>
       <c r="AO5" s="73" t="str">
         <f ca="1">VLOOKUP(MID($AD5,1,3),INDIRECT("H"&amp;$A$2+1):INDIRECT("I"&amp;I$2),2,FALSE)</f>
-        <v>344解释学</v>
+        <v>223超验主义</v>
       </c>
       <c r="AP5" s="73" t="str">
         <f ca="1">VLOOKUP(MID($AD5,1,4),INDIRECT("J"&amp;$A$2+1):INDIRECT("K"&amp;K$2),2,FALSE)</f>
-        <v>3444针对资本主义的精神分析</v>
+        <v>2231历史符号主义</v>
       </c>
       <c r="AR5" s="30"/>
     </row>
@@ -33031,25 +33054,25 @@
       </c>
       <c r="AD6" s="76" t="str">
         <f ca="1">_xlfn.CONCAT(AE6:AL6)</f>
-        <v>1-4-9</v>
+        <v>2-7-5</v>
       </c>
       <c r="AE6" s="1">
         <f t="array" aca="1" ref="AE6" ca="1">IFERROR(INDIRECT(MID($AC6,AE$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC6,AE$1,1)&amp;($A$2)))),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="17" t="s">
         <v>4814</v>
       </c>
       <c r="AG6" s="1">
         <f t="array" aca="1" ref="AG6" ca="1">IFERROR(INDIRECT(MID($AC6,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC6,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH6" s="17" t="s">
         <v>4814</v>
       </c>
       <c r="AI6" s="1">
         <f t="array" aca="1" ref="AI6" ca="1">IFERROR(INDIRECT(MID($AC6,AI$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AC6,AI$1,1)&amp;($A$2)))),"")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1" t="str">
@@ -33062,27 +33085,27 @@
       </c>
       <c r="AM6" s="73" t="str">
         <f ca="1">VLOOKUP($AE6,INDIRECT("L"&amp;$A$2+1):INDIRECT("N"&amp;$N$2),2,FALSE)</f>
-        <v>希望</v>
+        <v>仁慈</v>
       </c>
       <c r="AN6" s="73" t="str">
         <f ca="1">VLOOKUP($AE6,INDIRECT("L"&amp;$A$2+1):INDIRECT("N"&amp;$N$2),3,FALSE)</f>
-        <v>乌利尔（Uriel）</v>
+        <v>拉斐尔 （Raphael）</v>
       </c>
       <c r="AO6" s="73" t="str">
         <f ca="1">VLOOKUP($AG6,INDIRECT("O"&amp;$A$2+1):INDIRECT("Q"&amp;$Q$2),2,FALSE)</f>
-        <v>暴怒</v>
+        <v>懒惰</v>
       </c>
       <c r="AP6" s="73" t="str">
         <f ca="1">VLOOKUP($AG6,INDIRECT("O"&amp;$A$2+1):INDIRECT("Q"&amp;$Q$2),3,FALSE)</f>
-        <v>萨麦尔（Samael）</v>
+        <v>贝尔芬格（Belphegor）</v>
       </c>
       <c r="AQ6" s="73" t="str">
         <f ca="1">VLOOKUP($AI6,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),2,FALSE)</f>
-        <v>失去天使</v>
+        <v>扭曲天使</v>
       </c>
       <c r="AR6" s="73" t="str">
         <f ca="1">VLOOKUP($AI6,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),3,FALSE)</f>
-        <v>贲薨【Python】</v>
+        <v>亚伯汗【Abraham】</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="32">
@@ -33208,7 +33231,7 @@
       </c>
       <c r="AD8" s="124" t="str">
         <f ca="1">AD5</f>
-        <v>3444</v>
+        <v>2231</v>
       </c>
       <c r="AF8" s="85" t="str">
         <f>$AB$6</f>
@@ -33220,7 +33243,7 @@
       </c>
       <c r="AH8" s="87" t="str">
         <f ca="1">AD6</f>
-        <v>1-4-9</v>
+        <v>2-7-5</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="32">
@@ -33287,7 +33310,7 @@
       </c>
       <c r="AD9" s="126" t="str">
         <f ca="1">AE5</f>
-        <v>3-人-中心-主体</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="AF9" s="88" t="s">
         <v>4992</v>
@@ -33298,7 +33321,7 @@
       </c>
       <c r="AH9" s="78" t="str">
         <f ca="1">AM6</f>
-        <v>希望</v>
+        <v>仁慈</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="32">
@@ -33352,7 +33375,7 @@
       </c>
       <c r="AD10" s="126" t="str">
         <f ca="1">AG5</f>
-        <v>4-地-虚无-原质</v>
+        <v>2-神-冲突-小他者</v>
       </c>
       <c r="AF10" s="88" t="s">
         <v>4993</v>
@@ -33363,7 +33386,7 @@
       </c>
       <c r="AH10" s="78" t="str">
         <f ca="1">AN6</f>
-        <v>乌利尔（Uriel）</v>
+        <v>拉斐尔 （Raphael）</v>
       </c>
       <c r="AK10" s="80"/>
     </row>
@@ -33418,7 +33441,7 @@
       </c>
       <c r="AD11" s="127" t="str">
         <f ca="1">AI5</f>
-        <v>4-地-虚无-原质</v>
+        <v>3-人-中心-主体</v>
       </c>
       <c r="AF11" s="88" t="s">
         <v>4994</v>
@@ -33429,7 +33452,7 @@
       </c>
       <c r="AH11" s="78" t="str">
         <f ca="1">AO6</f>
-        <v>暴怒</v>
+        <v>懒惰</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="32">
@@ -33477,7 +33500,7 @@
       </c>
       <c r="AD12" s="126" t="str">
         <f ca="1">AJ5</f>
-        <v>4-地-虚无-原质</v>
+        <v>1-天-秩序-大他者</v>
       </c>
       <c r="AF12" s="88" t="s">
         <v>4783</v>
@@ -33488,7 +33511,7 @@
       </c>
       <c r="AH12" s="78" t="str">
         <f ca="1">AP6</f>
-        <v>萨麦尔（Samael）</v>
+        <v>贝尔芬格（Belphegor）</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="32">
@@ -33535,7 +33558,7 @@
       </c>
       <c r="AD13" s="126" t="str">
         <f ca="1">AM5</f>
-        <v>3观念论</v>
+        <v>2形而上学</v>
       </c>
       <c r="AF13" s="88" t="s">
         <v>4995</v>
@@ -33546,7 +33569,7 @@
       </c>
       <c r="AH13" s="78" t="str">
         <f ca="1">AQ6</f>
-        <v>失去天使</v>
+        <v>扭曲天使</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="32">
@@ -33593,7 +33616,7 @@
       </c>
       <c r="AD14" s="126" t="str">
         <f ca="1">AN5</f>
-        <v>34结构主义</v>
+        <v>22辨证形而上学</v>
       </c>
       <c r="AF14" s="89" t="s">
         <v>4996</v>
@@ -33604,7 +33627,7 @@
       </c>
       <c r="AH14" s="86" t="str">
         <f ca="1">AR6</f>
-        <v>贲薨【Python】</v>
+        <v>亚伯汗【Abraham】</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="32">
@@ -33640,7 +33663,7 @@
       </c>
       <c r="AD15" s="126" t="str">
         <f ca="1">AO5</f>
-        <v>344解释学</v>
+        <v>223超验主义</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="32">
@@ -33676,7 +33699,7 @@
       </c>
       <c r="AD16" s="131" t="str">
         <f ca="1">AP5</f>
-        <v>3444针对资本主义的精神分析</v>
+        <v>2231历史符号主义</v>
       </c>
     </row>
     <row r="17" spans="4:20" ht="32">
@@ -36848,11 +36871,11 @@
       </c>
       <c r="AF6" s="161">
         <f ca="1">AG6</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AG6" s="153">
         <f t="array" aca="1" ref="AG6" ca="1">IFERROR(INDIRECT(MID($AE6,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AE6,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI6" s="153"/>
       <c r="AJ6" s="153"/>
@@ -36868,19 +36891,19 @@
       </c>
       <c r="AO6" s="162" t="str">
         <f ca="1">VLOOKUP($AF6,INDIRECT("B"&amp;$A$2+1):INDIRECT("F"&amp;$F$2),2,FALSE)</f>
-        <v>摩蝎座</v>
+        <v>巨蟹座</v>
       </c>
       <c r="AP6" s="162" t="str">
         <f ca="1">VLOOKUP($AF6,INDIRECT("B"&amp;$A$2+1):INDIRECT("F"&amp;$F$2),3,FALSE)</f>
-        <v>出生月份12月22日-1月20日 </v>
+        <v>出生月份6月22日-7月22日 </v>
       </c>
       <c r="AQ6" s="162" t="str">
         <f ca="1">VLOOKUP($AF6,INDIRECT("B"&amp;$A$2+1):INDIRECT("F"&amp;$F$2),4,FALSE)</f>
-        <v>创建，组织，成就，命令 </v>
+        <v>自我保护，敏悦，富有梦想，可靠。 </v>
       </c>
       <c r="AR6" s="162" t="str">
         <f ca="1">VLOOKUP($AF6,INDIRECT("B"&amp;$A$2+1):INDIRECT("F"&amp;$F$2),5,FALSE)</f>
-        <v xml:space="preserve">摩蝎座的从不会重复同样的错误。他们非常小心，沉稳，务实和节俭。他们有所保留的个性可能导致人际关系出现问题。他们忠实于家庭及所爱的人。但他们善良和感情丰富的一面往往被他们的羞涩所掩盖。由于追求完美，不相信自己的能力，使他们经常与机遇擦肩而过。土星是摩蝎座的守护星。当受到很多人关注和遵敬的时候，摩蝎座的人很容易改变自 己。摩蝎座的人适合做经纪，政客，经济学家和银行家。 </v>
+        <v>巨蟹座的人自我保护能力很强，且具有传统及情绪化的特征。有时，巨蟹座的人会为了自己想要得到的东西而不惜一切代价的去争取。他们总是很极端化的，他们会在很短的时间内一时忧愁一时又是欢喜。他们是十分敏感的，做任何事情都是非常自我的，但他们非常重视家庭。巨蟹座的人不喜欢被别人批评或是侮辱。他们生性慷慨。巨蟹座的人将是很好的律师，建筑师，设计师和画家。 </v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="70" customHeight="1">
@@ -36949,25 +36972,25 @@
       </c>
       <c r="AF7" s="161" t="str">
         <f ca="1">_xlfn.CONCAT(AG7:AN7)</f>
-        <v>7-1-2</v>
+        <v>4-4-1</v>
       </c>
       <c r="AG7" s="153">
         <f t="array" aca="1" ref="AG7" ca="1">IFERROR(INDIRECT(MID($AE7,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AE7,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="153" t="s">
         <v>4814</v>
       </c>
       <c r="AI7" s="153">
         <f t="array" aca="1" ref="AI7" ca="1">IFERROR(INDIRECT(MID($AE7,AI$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AE7,AI$1,1)&amp;($A$2)))),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="153" t="s">
         <v>4814</v>
       </c>
       <c r="AK7" s="153">
         <f t="array" aca="1" ref="AK7" ca="1">IFERROR(INDIRECT(MID($AE7,AK$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AE7,AK$1,1)&amp;($A$2)))),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="153"/>
       <c r="AM7" s="153" t="str">
@@ -36980,45 +37003,46 @@
       </c>
       <c r="AO7" s="162" t="str">
         <f ca="1">VLOOKUP($AG7,INDIRECT("G"&amp;$A$2+1):INDIRECT("I"&amp;$I$2),2,FALSE)</f>
-        <v>恋人</v>
+        <v>女皇</v>
       </c>
       <c r="AP7" s="163" t="s">
         <v>4985</v>
       </c>
       <c r="AQ7" s="162" t="str">
         <f ca="1">VLOOKUP($AG7,INDIRECT("G"&amp;$A$2+1):INDIRECT("I"&amp;$I$2),3,FALSE)</f>
-        <v>结合</v>
+        <v>丰收</v>
       </c>
       <c r="AR7" s="162" t="str">
         <f ca="1">VLOOKUP($AG7,INDIRECT("G"&amp;$A$2+1):INDIRECT("J"&amp;$J$2),4,FALSE)</f>
-        <v>——结合（对应星象：双子座）
+        <v>——丰收（对应星象：金星）
+女皇
+女皇
 牌面解读：
-这是塔罗牌中解释爱情最好的牌，代表这人生的青春期。牌面中一对男女在天使的召唤下走到一起，成为恋人。尽管阳光普照，充满了幸福的感受，但恋人的后面却有着很多考验在等着他们——希望之树和毒蛇盘踞的禁果之树。
-恋爱中的情侣可以彼此协助、支持，浪漫成了这段美好时光的主题。但恋爱中的人必须面对感情上的抉择，就是在众多的异性中选择其中的一个作为伴侣，所以说爱情是既美丽又残酷的。在解牌时一定要注意“结合”背后的“选择”，也就是要有所取舍。
+美丽的女皇坐在优雅舒适的椅子上，四周一片茂密森林，令人有种无忧无虑，悠闲自在的感觉，椅子旁还放着一颗心，似乎是她有心赐给你这些丰沃的土地和果子，圆满的爱，应该好好的谢恩了。
 正位释义：
-撮合，爱情，流行，兴趣，充满希望的未来，魅力，增加朋友。感情和肉体对爱的渴望，它暗示恋情将向彼此关系更亲密的方向发展。事业上将面临重大的抉择，它将关系到你的未来前途。
+幸福，成功，收获，无忧无虑，圆满的家庭生活，良好的环境，美貌，艺术，与大自然接触，愉快的旅行，休闲。
 逆位释义：
-禁不起诱惑，纵欲过度，反覆无常，友情变淡，厌倦，争吵，华丽的打扮，优柔寡断。感情上表现幼稚，对成长虽有期待与希望，却希望永远躲避危险，逃避责任。事业上总保持着很高的戒心，让人感到很不舒服，不愿同你合作。</v>
+不活泼，缺乏上进心，散漫的生活习惯，无法解决的事情，不能看到成果，耽于享乐，环境险恶，与家人发生纠纷。</v>
       </c>
       <c r="AS7" s="163" t="str">
         <f ca="1">_xlfn.CONCAT(AT7,AV7)</f>
-        <v>权杖2</v>
+        <v>宝剑1</v>
       </c>
       <c r="AT7" s="164" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("K"&amp;$A$2+1):INDIRECT("L"&amp;$L$2),2,FALSE)</f>
-        <v>权杖</v>
+        <v>宝剑</v>
       </c>
       <c r="AU7" s="162" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("K"&amp;$A$2+1):INDIRECT("M"&amp;$M$2),3,FALSE)</f>
-        <v>权杖代表着火，象征激情，能量创造，</v>
+        <v>宝剑代表风，象征思想，智慧，交流和冲突</v>
       </c>
       <c r="AV7" s="164">
         <f ca="1">VLOOKUP($AK7,INDIRECT("N"&amp;$A$2+1):INDIRECT("O"&amp;$O$2),2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="165" t="str">
         <f ca="1">VLOOKUP(AS7,INDIRECT("P"&amp;$A$2+1):INDIRECT("Q"&amp;$Q$2),2,FALSE)</f>
-        <v>失望，来自朋友和生意伙伴的反对。</v>
+        <v>不幸，坏消息，死亡的消息，充满妒忌的情感。</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="70" customHeight="1">
@@ -37087,18 +37111,18 @@
       </c>
       <c r="AF8" s="161" t="str">
         <f ca="1">_xlfn.CONCAT(AG8:AN8)</f>
-        <v>8-10</v>
+        <v>9-8</v>
       </c>
       <c r="AG8" s="153">
         <f t="array" aca="1" ref="AG8" ca="1">IFERROR(INDIRECT(MID($AE8,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AE8,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" s="153" t="s">
         <v>4814</v>
       </c>
       <c r="AI8" s="153">
         <f ca="1">AG9</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ8" s="153"/>
       <c r="AK8" s="153"/>
@@ -37113,11 +37137,11 @@
       </c>
       <c r="AO8" s="166" t="str">
         <f ca="1">VLOOKUP($AG8,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),2,FALSE)</f>
-        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
+        <v>9.“基础”（或称“根基”，“基盘”，Yesod，Foundation） </v>
       </c>
       <c r="AP8" s="167" t="str">
         <f ca="1">VLOOKUP($AG8,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),3,FALSE)</f>
-        <v xml:space="preserve">有物质型态的“铸型”之意。数字是8，颜色是橙色，金属是水银。象征行星为水星。神名是Elohim Tzabaoth，守护天使是拉斐尔（Raphael）。尊严、收缩、光荣，亦代表着水星天。 </v>
+        <v>意味着“astral体”，也就是灵魂与肉体之中的灵气。卡巴拉以此表现“前存在物质”。数字是9，颜色是紫色，金属是银，象征行星为月亮（同太阳，神秘学中月亮也被视为行星）。代表人物形象为全裸的男性。神名是Shaddai El Chai。守护天使是加百列（Gabriel）。基础、万物的基础、神的创造力，亦代表着月球天。</v>
       </c>
       <c r="AQ8" s="164">
         <f ca="1">VLOOKUP($AG8,INDIRECT("R"&amp;$A$2+1):INDIRECT("U"&amp;$U$2),4,FALSE)</f>
@@ -37125,7 +37149,7 @@
       </c>
       <c r="AR8" s="164">
         <f ca="1">VLOOKUP($AG8,INDIRECT("R"&amp;$A$2+1):INDIRECT("V"&amp;$V$2),5,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="162" t="str">
         <f ca="1">VLOOKUP($AQ8,INDIRECT("W"&amp;$A$2+1):INDIRECT("Z"&amp;$Z$2),2,FALSE)</f>
@@ -37141,7 +37165,7 @@
       </c>
       <c r="AV8" s="162" t="str">
         <f ca="1">VLOOKUP($AR8,INDIRECT("AA"&amp;$A$2+1):INDIRECT("AB"&amp;$AB$2),2,FALSE)</f>
-        <v>严厉之柱（Pillar of Severity） </v>
+        <v>温和之柱（Pillar of Mildness）</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="70" customHeight="1">
@@ -37207,15 +37231,15 @@
       </c>
       <c r="AE9" s="161" t="str">
         <f t="array" aca="1" ref="AE9" ca="1">SUBSTITUTE(ADDRESS(1,MATCH(AG8,B26:K26,0)+COLUMN(A:A),4),"1","")</f>
-        <v>I</v>
+        <v>J</v>
       </c>
       <c r="AF9" s="161" t="str">
         <f ca="1">_xlfn.CONCAT(AG9:AN9)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="153">
         <f t="array" aca="1" ref="AG9" ca="1">IFERROR(INDIRECT(AE9&amp;RANDBETWEEN($A$27+1,INDIRECT(AE9&amp;($A$27)))),"")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI9" s="153"/>
       <c r="AJ9" s="153"/>
@@ -37223,37 +37247,35 @@
       <c r="AL9" s="153"/>
       <c r="AO9" s="167" t="str">
         <f ca="1">VLOOKUP($AG9,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),2,FALSE)</f>
-        <v>10.“王国”（Malkuth，Kingdom） </v>
+        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
       </c>
       <c r="AP9" s="167" t="str">
         <f ca="1">VLOOKUP($AG9,INDIRECT("R"&amp;$A$2+1):INDIRECT("T"&amp;$T$2),3,FALSE)</f>
-        <v xml:space="preserve">“物质的王国”之意。颜色是橙黄色、橄榄色、红褐色和黑色四色，宝石是水晶。象征行星为地球。代表人物形象为坐在王座上的年轻女性，神名是Adonai Melekh，守护天使是尚达奉（Sandalphon）。王国、物质、人，亦代表着四元素所合成，即是物质的存在。 
-依次连结1到10所构成的线条又称为“火剑之路”（Path of the Flaming Sword）。 
-另外，在16世纪的鲁利安体系的卡巴拉（英语：Lurianic Kabbalah）中，出现了质点“知识”（或称“智慧”，Da'at）。“知识”所在之处，生命之树的十个质点合为一体，所以通常不会被描绘。然而有时“知识”也会被视为质点并取代“王冠”（Kether），沿生命之树中轴线出现，位于“王冠”的正下方、“美丽”（Tiphareth）的正上方，这时它被视为非意识的“王冠”的意识表现。 </v>
+        <v xml:space="preserve">有物质型态的“铸型”之意。数字是8，颜色是橙色，金属是水银。象征行星为水星。神名是Elohim Tzabaoth，守护天使是拉斐尔（Raphael）。尊严、收缩、光荣，亦代表着水星天。 </v>
       </c>
       <c r="AQ9" s="164">
         <f ca="1">VLOOKUP($AG9,INDIRECT("R"&amp;$A$2+1):INDIRECT("U"&amp;$U$2),4,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR9" s="164">
         <f ca="1">VLOOKUP($AG9,INDIRECT("R"&amp;$A$2+1):INDIRECT("V"&amp;$V$2),5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="162" t="str">
         <f ca="1">VLOOKUP($AQ9,INDIRECT("W"&amp;$A$2+1):INDIRECT("Z"&amp;$Z$2),2,FALSE)</f>
-        <v>“物质界”（Assiah）</v>
+        <v>“形成界”（Yetzirah）</v>
       </c>
       <c r="AT9" s="162" t="str">
         <f ca="1">VLOOKUP($AQ9,INDIRECT("W"&amp;$A$2+1):INDIRECT("Z"&amp;$Z$2),3,FALSE)</f>
-        <v xml:space="preserve">“物质的世界”（The Material World） </v>
+        <v>“形成的世界”（The Formation World） </v>
       </c>
       <c r="AU9" s="162" t="str">
         <f ca="1">VLOOKUP($AQ9,INDIRECT("W"&amp;$A$2+1):INDIRECT("Z"&amp;$Z$2),4,FALSE)</f>
-        <v>原型为四大元素中的地。我们人类生存的世界，灵魂在此有了肉体。原始的光分崩离析，开始结晶形成物质、自然界，以及人的存在。抽象的观念变成具体的事物，这是人的世界。 </v>
+        <v>原型为四大元素中的水。人类灵魂的领域，由此开始，有了男女的区别。被认为是元素的世界，来自“创造界”的组织开始形成物质，形态开始表现。这是小天使的世界，代表着神的心智（The Mind of Deity）</v>
       </c>
       <c r="AV9" s="162" t="str">
         <f ca="1">VLOOKUP($AR9,INDIRECT("AA"&amp;$A$2+1):INDIRECT("AB"&amp;$AB$2),2,FALSE)</f>
-        <v>温和之柱（Pillar of Mildness）</v>
+        <v>严厉之柱（Pillar of Severity） </v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="70" customHeight="1">
@@ -37387,7 +37409,7 @@
       </c>
       <c r="AQ11" s="170" t="str">
         <f ca="1">AO6</f>
-        <v>摩蝎座</v>
+        <v>巨蟹座</v>
       </c>
       <c r="AS11" s="168" t="str">
         <f>AD8</f>
@@ -37468,7 +37490,7 @@
       </c>
       <c r="AQ12" s="173">
         <f ca="1">AF6</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AS12" s="172" t="s">
         <v>4997</v>
@@ -37476,7 +37498,7 @@
       <c r="AT12" s="174"/>
       <c r="AU12" s="173" t="str">
         <f ca="1">AF8</f>
-        <v>8-10</v>
+        <v>9-8</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="70" customHeight="1">
@@ -37533,16 +37555,16 @@
       </c>
       <c r="AQ13" s="175" t="str">
         <f ca="1">AP6</f>
-        <v>出生月份12月22日-1月20日 </v>
+        <v>出生月份6月22日-7月22日 </v>
       </c>
       <c r="AS13" s="176" t="str">
         <f ca="1">AO8</f>
-        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
+        <v>9.“基础”（或称“根基”，“基盘”，Yesod，Foundation） </v>
       </c>
       <c r="AT13" s="177"/>
       <c r="AU13" s="175" t="str">
         <f ca="1">AP8</f>
-        <v xml:space="preserve">有物质型态的“铸型”之意。数字是8，颜色是橙色，金属是水银。象征行星为水星。神名是Elohim Tzabaoth，守护天使是拉斐尔（Raphael）。尊严、收缩、光荣，亦代表着水星天。 </v>
+        <v>意味着“astral体”，也就是灵魂与肉体之中的灵气。卡巴拉以此表现“前存在物质”。数字是9，颜色是紫色，金属是银，象征行星为月亮（同太阳，神秘学中月亮也被视为行星）。代表人物形象为全裸的男性。神名是Shaddai El Chai。守护天使是加百列（Gabriel）。基础、万物的基础、神的创造力，亦代表着月球天。</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="70" customHeight="1">
@@ -37599,7 +37621,7 @@
       </c>
       <c r="AQ14" s="175" t="str">
         <f ca="1">AQ6</f>
-        <v>创建，组织，成就，命令 </v>
+        <v>自我保护，敏悦，富有梦想，可靠。 </v>
       </c>
       <c r="AS14" s="176" t="str">
         <f ca="1">AS8</f>
@@ -37662,11 +37684,11 @@
       </c>
       <c r="AQ15" s="184" t="str">
         <f ca="1">AR6</f>
-        <v xml:space="preserve">摩蝎座的从不会重复同样的错误。他们非常小心，沉稳，务实和节俭。他们有所保留的个性可能导致人际关系出现问题。他们忠实于家庭及所爱的人。但他们善良和感情丰富的一面往往被他们的羞涩所掩盖。由于追求完美，不相信自己的能力，使他们经常与机遇擦肩而过。土星是摩蝎座的守护星。当受到很多人关注和遵敬的时候，摩蝎座的人很容易改变自 己。摩蝎座的人适合做经纪，政客，经济学家和银行家。 </v>
+        <v>巨蟹座的人自我保护能力很强，且具有传统及情绪化的特征。有时，巨蟹座的人会为了自己想要得到的东西而不惜一切代价的去争取。他们总是很极端化的，他们会在很短的时间内一时忧愁一时又是欢喜。他们是十分敏感的，做任何事情都是非常自我的，但他们非常重视家庭。巨蟹座的人不喜欢被别人批评或是侮辱。他们生性慷慨。巨蟹座的人将是很好的律师，建筑师，设计师和画家。 </v>
       </c>
       <c r="AS15" s="185" t="str">
         <f ca="1">AV8</f>
-        <v>严厉之柱（Pillar of Severity） </v>
+        <v>温和之柱（Pillar of Mildness）</v>
       </c>
       <c r="AT15" s="186"/>
       <c r="AU15" s="187"/>
@@ -37720,7 +37742,7 @@
       </c>
       <c r="AQ16" s="170" t="str">
         <f ca="1">AO7</f>
-        <v>恋人</v>
+        <v>女皇</v>
       </c>
       <c r="AS16" s="188" t="str">
         <f>AD9</f>
@@ -37728,7 +37750,7 @@
       </c>
       <c r="AT16" s="189" t="str">
         <f ca="1">AE9</f>
-        <v>I</v>
+        <v>J</v>
       </c>
       <c r="AU16" s="190"/>
     </row>
@@ -37771,7 +37793,7 @@
       <c r="AP17" s="192"/>
       <c r="AQ17" s="173" t="str">
         <f ca="1">AF7</f>
-        <v>7-1-2</v>
+        <v>4-4-1</v>
       </c>
       <c r="AS17" s="191" t="s">
         <v>4997</v>
@@ -37779,7 +37801,7 @@
       <c r="AT17" s="192"/>
       <c r="AU17" s="193" t="str">
         <f ca="1">AF9</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="70" customHeight="1">
@@ -37821,29 +37843,28 @@
       </c>
       <c r="AP18" s="175" t="str">
         <f ca="1">AQ7</f>
-        <v>结合</v>
+        <v>丰收</v>
       </c>
       <c r="AQ18" s="139" t="str">
         <f ca="1">AR7</f>
-        <v>——结合（对应星象：双子座）
+        <v>——丰收（对应星象：金星）
+女皇
+女皇
 牌面解读：
-这是塔罗牌中解释爱情最好的牌，代表这人生的青春期。牌面中一对男女在天使的召唤下走到一起，成为恋人。尽管阳光普照，充满了幸福的感受，但恋人的后面却有着很多考验在等着他们——希望之树和毒蛇盘踞的禁果之树。
-恋爱中的情侣可以彼此协助、支持，浪漫成了这段美好时光的主题。但恋爱中的人必须面对感情上的抉择，就是在众多的异性中选择其中的一个作为伴侣，所以说爱情是既美丽又残酷的。在解牌时一定要注意“结合”背后的“选择”，也就是要有所取舍。
+美丽的女皇坐在优雅舒适的椅子上，四周一片茂密森林，令人有种无忧无虑，悠闲自在的感觉，椅子旁还放着一颗心，似乎是她有心赐给你这些丰沃的土地和果子，圆满的爱，应该好好的谢恩了。
 正位释义：
-撮合，爱情，流行，兴趣，充满希望的未来，魅力，增加朋友。感情和肉体对爱的渴望，它暗示恋情将向彼此关系更亲密的方向发展。事业上将面临重大的抉择，它将关系到你的未来前途。
+幸福，成功，收获，无忧无虑，圆满的家庭生活，良好的环境，美貌，艺术，与大自然接触，愉快的旅行，休闲。
 逆位释义：
-禁不起诱惑，纵欲过度，反覆无常，友情变淡，厌倦，争吵，华丽的打扮，优柔寡断。感情上表现幼稚，对成长虽有期待与希望，却希望永远躲避危险，逃避责任。事业上总保持着很高的戒心，让人感到很不舒服，不愿同你合作。</v>
+不活泼，缺乏上进心，散漫的生活习惯，无法解决的事情，不能看到成果，耽于享乐，环境险恶，与家人发生纠纷。</v>
       </c>
       <c r="AS18" s="176" t="str">
         <f ca="1">AO9</f>
-        <v>10.“王国”（Malkuth，Kingdom） </v>
+        <v>8.荣耀（或称“名誉”，“光辉”，Hod，Splendor）</v>
       </c>
       <c r="AT18" s="177"/>
       <c r="AU18" s="175" t="str">
         <f ca="1">AP9</f>
-        <v xml:space="preserve">“物质的王国”之意。颜色是橙黄色、橄榄色、红褐色和黑色四色，宝石是水晶。象征行星为地球。代表人物形象为坐在王座上的年轻女性，神名是Adonai Melekh，守护天使是尚达奉（Sandalphon）。王国、物质、人，亦代表着四元素所合成，即是物质的存在。 
-依次连结1到10所构成的线条又称为“火剑之路”（Path of the Flaming Sword）。 
-另外，在16世纪的鲁利安体系的卡巴拉（英语：Lurianic Kabbalah）中，出现了质点“知识”（或称“智慧”，Da'at）。“知识”所在之处，生命之树的十个质点合为一体，所以通常不会被描绘。然而有时“知识”也会被视为质点并取代“王冠”（Kether），沿生命之树中轴线出现，位于“王冠”的正下方、“美丽”（Tiphareth）的正上方，这时它被视为非意识的“王冠”的意识表现。 </v>
+        <v xml:space="preserve">有物质型态的“铸型”之意。数字是8，颜色是橙色，金属是水银。象征行星为水星。神名是Elohim Tzabaoth，守护天使是拉斐尔（Raphael）。尊严、收缩、光荣，亦代表着水星天。 </v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="70" customHeight="1">
@@ -37879,19 +37900,19 @@
       <c r="AP19" s="177"/>
       <c r="AQ19" s="175" t="str">
         <f ca="1">AS7</f>
-        <v>权杖2</v>
+        <v>宝剑1</v>
       </c>
       <c r="AS19" s="176" t="str">
         <f ca="1">AS9</f>
-        <v>“物质界”（Assiah）</v>
+        <v>“形成界”（Yetzirah）</v>
       </c>
       <c r="AT19" s="179" t="str">
         <f ca="1">AT9</f>
-        <v xml:space="preserve">“物质的世界”（The Material World） </v>
+        <v>“形成的世界”（The Formation World） </v>
       </c>
       <c r="AU19" s="175" t="str">
         <f ca="1">AU9</f>
-        <v>原型为四大元素中的地。我们人类生存的世界，灵魂在此有了肉体。原始的光分崩离析，开始结晶形成物质、自然界，以及人的存在。抽象的观念变成具体的事物，这是人的世界。 </v>
+        <v>原型为四大元素中的水。人类灵魂的领域，由此开始，有了男女的区别。被认为是元素的世界，来自“创造界”的组织开始形成物质，形态开始表现。这是小天使的世界，代表着神的心智（The Mind of Deity）</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="70" customHeight="1">
@@ -37926,15 +37947,15 @@
       </c>
       <c r="AP20" s="184" t="str">
         <f ca="1">AU7</f>
-        <v>权杖代表着火，象征激情，能量创造，</v>
+        <v>宝剑代表风，象征思想，智慧，交流和冲突</v>
       </c>
       <c r="AQ20" s="196" t="str">
         <f ca="1">AW7</f>
-        <v>失望，来自朋友和生意伙伴的反对。</v>
+        <v>不幸，坏消息，死亡的消息，充满妒忌的情感。</v>
       </c>
       <c r="AS20" s="185" t="str">
         <f ca="1">AV9</f>
-        <v>温和之柱（Pillar of Mildness）</v>
+        <v>严厉之柱（Pillar of Severity） </v>
       </c>
       <c r="AT20" s="186"/>
       <c r="AU20" s="187"/>
@@ -38905,7 +38926,7 @@
       </c>
       <c r="AI5" s="92" t="str">
         <f t="array" aca="1" ref="AI5" ca="1">IFERROR(INDIRECT(MID($AH5,AA$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AH5,AA$1,1)&amp;($A$2)))),"")</f>
-        <v>ENTP</v>
+        <v>INTP</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -38965,9 +38986,9 @@
       </c>
       <c r="AI6" s="84" t="str">
         <f ca="1">VLOOKUP($AI5,INDIRECT("E"&amp;$A$2+1):INDIRECT("G"&amp;$G$2),2,FALSE)</f>
-        <v xml:space="preserve">ENTP：聪明好奇的发明者，不会放弃任何智力上的挑战 
-故意持相反意见的创新者，善于把观点和信条剪得支离破碎并撒在空中给所有人看 
-喜欢另辟蹊径，非常规的思维方式中训练思维，改善现有系统，打破成规发现新出路 </v>
+        <v xml:space="preserve">INTP：具有创造力的思想家，对知识有着止不住的渴望 
+哲学家、思考者，或是爱空想的教授，在历史的长河中，许多科学发现就是他们的智慧之花结出的丰硕果实 
+展现出积极主动的创造性，异于常人的视角以及永不枯竭的智慧系统 </v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="409.6">
@@ -39034,7 +39055,7 @@
       </c>
       <c r="AI7" s="92" t="str">
         <f t="array" aca="1" ref="AI7" ca="1">IFERROR(INDIRECT(MID($AH7,AA$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AH7,AA$1,1)&amp;($A$2)))),"")</f>
-        <v>艺术型：(A) </v>
+        <v xml:space="preserve">传统型：(C) </v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.6">
@@ -39080,11 +39101,11 @@
       <c r="AG8" s="93"/>
       <c r="AH8" s="90" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("H"&amp;$A$2+1):INDIRECT("L"&amp;$L$2),2,FALSE)</f>
-        <v>人格特点：喜欢以各种艺术形式的创作来表现自己的才能，实现自身价值；具有特殊艺术才能和个性；乐于创造新颖的、与众不同的艺术成果、渴望表现自己的个性。 </v>
+        <v>人格特点：喜欢按计划办事，*惯接受他人的智慧和领导，自己不谋求领导职位；不喜欢冒险和竞争；工作踏实、忠诚可靠，遵守纪律</v>
       </c>
       <c r="AI8" s="94" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("H"&amp;$A$2+1):INDIRECT("L"&amp;$L$2),5,FALSE)</f>
-        <v>艺术型(Artistic):其本的人格倾向是，具有想象、冲动、直觉、无秩序、情绪化、理想化、有创意、不重实际等人格特征。喜欢艺术性质的职业和环境，不善于事务工作。 </v>
+        <v>传统型(Conventional):具有顺从、谨慎、保守、实际、稳重、有效率等人格特征。喜欢有系统有条理的工作任务，其典型的职业包括秘书、办公室人员、计事员、会计、行政助理、图书馆员、出纳员、打字员、税务员、统计员、交通管理员等。 </v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="409.6">
@@ -39119,11 +39140,11 @@
       <c r="AG9" s="95"/>
       <c r="AH9" s="83" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("H"&amp;$A$2+1):INDIRECT("L"&amp;$L$2),3,FALSE)</f>
-        <v>职业类型：主要指各种艺术创造工作。 </v>
+        <v>职业类型：主要指各类文件档案、图书资料、统计报表之类相关的各类科室工作。</v>
       </c>
       <c r="AI9" s="84" t="str">
         <f ca="1">VLOOKUP($AI7,INDIRECT("H"&amp;$A$2+1):INDIRECT("L"&amp;$L$2),4,FALSE)</f>
-        <v>主要职业：音乐、舞蹈、戏剧等方面的演员、艺术家编导、教师；文学、艺术方面的评论员；广播节目的主持人、编辑、作者；绘图、书法、摄影家；艺术、家具、珠宝、房屋装饰等行业的设计师等 其典型的职业包括艺术方面的(如演员、导演、艺术设计师、雕刻家等)、音乐方面的(如歌唱家、作曲家、乐队指挥等)与文学方面的(如诗人、小说家、剧作家等). </v>
+        <v>主要职业：会计、出纳、统计人员；打字员；办公室人员；秘书和文书。图书管理员；旅游、外贸职员，保管员，邮递员，审计人员，人事职员等 </v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.6">
@@ -39619,15 +39640,15 @@
       </c>
       <c r="M5" s="7" t="str">
         <f ca="1">_xlfn.CONCAT(N5:S5)</f>
-        <v>宏世区</v>
+        <v>南千区</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IFERROR(INDIRECT(MID($L5,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,N$1,1)&amp;($A$2)))),"")</f>
-        <v>宏</v>
+        <v>南</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="array" aca="1" ref="O5" ca="1">IFERROR(INDIRECT(MID($L5,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,O$1,1)&amp;($A$2)))),"")</f>
-        <v>世</v>
+        <v>千</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="array" aca="1" ref="P5" ca="1">IFERROR(INDIRECT(MID($L5,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,P$1,1)&amp;($A$2)))),"")</f>
@@ -39673,15 +39694,15 @@
       </c>
       <c r="M6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT(N6:S6)</f>
-        <v>狂浪寺</v>
+        <v>玄冰庐</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IFERROR(INDIRECT(MID($L6,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,N$1,1)&amp;($A$2)))),"")</f>
-        <v>狂浪</v>
+        <v>玄冰</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="array" aca="1" ref="O6" ca="1">IFERROR(INDIRECT(MID($L6,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,O$1,1)&amp;($A$2)))),"")</f>
-        <v>寺</v>
+        <v>庐</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="array" aca="1" ref="P6" ca="1">IFERROR(INDIRECT(MID($L6,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,P$1,1)&amp;($A$2)))),"")</f>
@@ -39727,19 +39748,19 @@
       </c>
       <c r="M7" s="7" t="str">
         <f ca="1">_xlfn.CONCAT(N7:S7)</f>
-        <v>虚空黄砂寺</v>
+        <v>至尊光明殿</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IFERROR(INDIRECT(MID($L7,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,N$1,1)&amp;($A$2)))),"")</f>
-        <v>虚空</v>
+        <v>至尊</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="array" aca="1" ref="O7" ca="1">IFERROR(INDIRECT(MID($L7,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,O$1,1)&amp;($A$2)))),"")</f>
-        <v>黄砂</v>
+        <v>光明</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="array" aca="1" ref="P7" ca="1">IFERROR(INDIRECT(MID($L7,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,P$1,1)&amp;($A$2)))),"")</f>
-        <v>寺</v>
+        <v>殿</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="array" aca="1" ref="Q7" ca="1">IFERROR(INDIRECT(MID($L7,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,Q$1,1)&amp;($A$2)))),"")</f>
@@ -39781,15 +39802,15 @@
       </c>
       <c r="M8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT(N8:S8)</f>
-        <v>白骨沼泽</v>
+        <v>罪恶岛</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IFERROR(INDIRECT(MID($L8,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,N$1,1)&amp;($A$2)))),"")</f>
-        <v>白骨</v>
+        <v>罪恶</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="array" aca="1" ref="O8" ca="1">IFERROR(INDIRECT(MID($L8,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,O$1,1)&amp;($A$2)))),"")</f>
-        <v>沼泽</v>
+        <v>岛</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="array" aca="1" ref="P8" ca="1">IFERROR(INDIRECT(MID($L8,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,P$1,1)&amp;($A$2)))),"")</f>
@@ -40957,15 +40978,15 @@
       </c>
       <c r="M2" s="23" t="str">
         <f ca="1">_xlfn.CONCAT(N2:S2)</f>
-        <v>高奔</v>
+        <v>沃阿</v>
       </c>
       <c r="N2" s="17" t="str">
         <f t="array" aca="1" ref="N2" ca="1">IFERROR(INDIRECT(MID($L2,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,N$1,1)&amp;($A$2)))),"")</f>
-        <v>高</v>
+        <v>沃</v>
       </c>
       <c r="O2" s="17" t="str">
         <f t="array" aca="1" ref="O2" ca="1">IFERROR(INDIRECT(MID($L2,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,O$1,1)&amp;($A$2)))),"")</f>
-        <v>奔</v>
+        <v>阿</v>
       </c>
       <c r="P2" s="17" t="str">
         <f t="array" aca="1" ref="P2" ca="1">IFERROR(INDIRECT(MID($L2,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,P$1,1)&amp;($A$2)))),"")</f>
@@ -41030,19 +41051,19 @@
       </c>
       <c r="M3" s="23" t="str">
         <f t="shared" ref="M3:M17" ca="1" si="1">_xlfn.CONCAT(N3:S3)</f>
-        <v>代水丽</v>
+        <v>奇芬招</v>
       </c>
       <c r="N3" s="17" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IFERROR(INDIRECT(MID($L3,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,N$1,1)&amp;($A$2)))),"")</f>
-        <v>代</v>
+        <v>奇</v>
       </c>
       <c r="O3" s="17" t="str">
         <f t="array" aca="1" ref="O3" ca="1">IFERROR(INDIRECT(MID($L3,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,O$1,1)&amp;($A$2)))),"")</f>
-        <v>水</v>
+        <v>芬</v>
       </c>
       <c r="P3" s="17" t="str">
         <f t="array" aca="1" ref="P3" ca="1">IFERROR(INDIRECT(MID($L3,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,P$1,1)&amp;($A$2)))),"")</f>
-        <v>丽</v>
+        <v>招</v>
       </c>
       <c r="Q3" s="17" t="str">
         <f t="array" aca="1" ref="Q3" ca="1">IFERROR(INDIRECT(MID($L3,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41103,23 +41124,23 @@
       </c>
       <c r="M4" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>甘八本源写字楼</v>
+        <v>越藤万事机关</v>
       </c>
       <c r="N4" s="17" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IFERROR(INDIRECT(MID($L4,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,N$1,1)&amp;($A$2)))),"")</f>
-        <v>甘</v>
+        <v>越</v>
       </c>
       <c r="O4" s="17" t="str">
         <f t="array" aca="1" ref="O4" ca="1">IFERROR(INDIRECT(MID($L4,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,O$1,1)&amp;($A$2)))),"")</f>
-        <v>八</v>
+        <v>藤</v>
       </c>
       <c r="P4" s="17" t="str">
         <f t="array" aca="1" ref="P4" ca="1">IFERROR(INDIRECT(MID($L4,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,P$1,1)&amp;($A$2)))),"")</f>
-        <v>本源</v>
+        <v>万事</v>
       </c>
       <c r="Q4" s="17" t="str">
         <f t="array" aca="1" ref="Q4" ca="1">IFERROR(INDIRECT(MID($L4,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>写字楼</v>
+        <v>机关</v>
       </c>
       <c r="R4" s="17" t="str">
         <f t="array" aca="1" ref="R4" ca="1">IFERROR(INDIRECT(MID($L4,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,R$1,1)&amp;($A$2)))),"")</f>
@@ -41176,27 +41197,27 @@
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>商迈化工招商学院</v>
+        <v>芝大传媒维护工坊</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IFERROR(INDIRECT(MID($L5,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,N$1,1)&amp;($A$2)))),"")</f>
-        <v>商</v>
+        <v>芝</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="array" aca="1" ref="O5" ca="1">IFERROR(INDIRECT(MID($L5,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,O$1,1)&amp;($A$2)))),"")</f>
-        <v>迈</v>
+        <v>大</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="array" aca="1" ref="P5" ca="1">IFERROR(INDIRECT(MID($L5,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,P$1,1)&amp;($A$2)))),"")</f>
-        <v>化工</v>
+        <v>传媒</v>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="array" aca="1" ref="Q5" ca="1">IFERROR(INDIRECT(MID($L5,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>招商</v>
+        <v>维护</v>
       </c>
       <c r="R5" s="17" t="str">
         <f t="array" aca="1" ref="R5" ca="1">IFERROR(INDIRECT(MID($L5,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,R$1,1)&amp;($A$2)))),"")</f>
-        <v>学院</v>
+        <v>工坊</v>
       </c>
       <c r="S5" s="17" t="str">
         <f t="array" aca="1" ref="S5" ca="1">IFERROR(INDIRECT(MID($L5,S$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,S$1,1)&amp;($A$2)))),"")</f>
@@ -41249,23 +41270,23 @@
       </c>
       <c r="M6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>鲜产秩序博物馆</v>
+        <v>普光病毒0</v>
       </c>
       <c r="N6" s="17" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IFERROR(INDIRECT(MID($L6,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,N$1,1)&amp;($A$2)))),"")</f>
-        <v>鲜</v>
+        <v>普</v>
       </c>
       <c r="O6" s="17" t="str">
         <f t="array" aca="1" ref="O6" ca="1">IFERROR(INDIRECT(MID($L6,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,O$1,1)&amp;($A$2)))),"")</f>
-        <v>产</v>
+        <v>光</v>
       </c>
       <c r="P6" s="17" t="str">
         <f t="array" aca="1" ref="P6" ca="1">IFERROR(INDIRECT(MID($L6,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,P$1,1)&amp;($A$2)))),"")</f>
-        <v>秩序</v>
-      </c>
-      <c r="Q6" s="17" t="str">
+        <v>病毒</v>
+      </c>
+      <c r="Q6" s="17">
         <f t="array" aca="1" ref="Q6" ca="1">IFERROR(INDIRECT(MID($L6,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>博物馆</v>
+        <v>0</v>
       </c>
       <c r="R6" s="17" t="str">
         <f t="array" aca="1" ref="R6" ca="1">IFERROR(INDIRECT(MID($L6,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,R$1,1)&amp;($A$2)))),"")</f>
@@ -41322,23 +41343,23 @@
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>下凡创新学会</v>
+        <v>北芬动员联盟</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IFERROR(INDIRECT(MID($L7,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,N$1,1)&amp;($A$2)))),"")</f>
-        <v>下</v>
+        <v>北</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="array" aca="1" ref="O7" ca="1">IFERROR(INDIRECT(MID($L7,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,O$1,1)&amp;($A$2)))),"")</f>
-        <v>凡</v>
+        <v>芬</v>
       </c>
       <c r="P7" s="17" t="str">
         <f t="array" aca="1" ref="P7" ca="1">IFERROR(INDIRECT(MID($L7,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,P$1,1)&amp;($A$2)))),"")</f>
-        <v>创新</v>
+        <v>动员</v>
       </c>
       <c r="Q7" s="17" t="str">
         <f t="array" aca="1" ref="Q7" ca="1">IFERROR(INDIRECT(MID($L7,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>学会</v>
+        <v>联盟</v>
       </c>
       <c r="R7" s="17" t="str">
         <f t="array" aca="1" ref="R7" ca="1">IFERROR(INDIRECT(MID($L7,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,R$1,1)&amp;($A$2)))),"")</f>
@@ -41395,19 +41416,19 @@
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>高制域</v>
+        <v>浩荒州</v>
       </c>
       <c r="N8" s="17" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IFERROR(INDIRECT(MID($L8,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,N$1,1)&amp;($A$2)))),"")</f>
-        <v>高</v>
+        <v>浩</v>
       </c>
       <c r="O8" s="17" t="str">
         <f t="array" aca="1" ref="O8" ca="1">IFERROR(INDIRECT(MID($L8,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,O$1,1)&amp;($A$2)))),"")</f>
-        <v>制</v>
+        <v>荒</v>
       </c>
       <c r="P8" s="17" t="str">
         <f t="array" aca="1" ref="P8" ca="1">IFERROR(INDIRECT(MID($L8,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,P$1,1)&amp;($A$2)))),"")</f>
-        <v>域</v>
+        <v>州</v>
       </c>
       <c r="Q8" s="17" t="str">
         <f t="array" aca="1" ref="Q8" ca="1">IFERROR(INDIRECT(MID($L8,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41468,23 +41489,23 @@
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>赛博智慧边境工程院</v>
+        <v>极致物流细胞科院</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IFERROR(INDIRECT(MID($L9,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,N$1,1)&amp;($A$2)))),"")</f>
-        <v>赛博</v>
+        <v>极致</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="array" aca="1" ref="O9" ca="1">IFERROR(INDIRECT(MID($L9,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,O$1,1)&amp;($A$2)))),"")</f>
-        <v>智慧</v>
+        <v>物流</v>
       </c>
       <c r="P9" s="17" t="str">
         <f t="array" aca="1" ref="P9" ca="1">IFERROR(INDIRECT(MID($L9,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,P$1,1)&amp;($A$2)))),"")</f>
-        <v>边境</v>
+        <v>细胞</v>
       </c>
       <c r="Q9" s="17" t="str">
         <f t="array" aca="1" ref="Q9" ca="1">IFERROR(INDIRECT(MID($L9,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>工程院</v>
+        <v>科院</v>
       </c>
       <c r="R9" s="17" t="str">
         <f t="array" aca="1" ref="R9" ca="1">IFERROR(INDIRECT(MID($L9,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,R$1,1)&amp;($A$2)))),"")</f>
@@ -41541,23 +41562,23 @@
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>虚拟社会演化实验室</v>
+        <v>微型物种提倡小队</v>
       </c>
       <c r="N10" s="17" t="str">
         <f t="array" aca="1" ref="N10" ca="1">IFERROR(INDIRECT(MID($L10,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,N$1,1)&amp;($A$2)))),"")</f>
-        <v>虚拟</v>
+        <v>微型</v>
       </c>
       <c r="O10" s="17" t="str">
         <f t="array" aca="1" ref="O10" ca="1">IFERROR(INDIRECT(MID($L10,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,O$1,1)&amp;($A$2)))),"")</f>
-        <v>社会</v>
+        <v>物种</v>
       </c>
       <c r="P10" s="17" t="str">
         <f t="array" aca="1" ref="P10" ca="1">IFERROR(INDIRECT(MID($L10,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,P$1,1)&amp;($A$2)))),"")</f>
-        <v>演化</v>
+        <v>提倡</v>
       </c>
       <c r="Q10" s="17" t="str">
         <f t="array" aca="1" ref="Q10" ca="1">IFERROR(INDIRECT(MID($L10,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>实验室</v>
+        <v>小队</v>
       </c>
       <c r="R10" s="17" t="str">
         <f t="array" aca="1" ref="R10" ca="1">IFERROR(INDIRECT(MID($L10,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,R$1,1)&amp;($A$2)))),"")</f>
@@ -41614,19 +41635,19 @@
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>虚拟历史小组</v>
+        <v>无限硬件工坊</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="array" aca="1" ref="N11" ca="1">IFERROR(INDIRECT(MID($L11,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,N$1,1)&amp;($A$2)))),"")</f>
-        <v>虚拟</v>
+        <v>无限</v>
       </c>
       <c r="O11" s="17" t="str">
         <f t="array" aca="1" ref="O11" ca="1">IFERROR(INDIRECT(MID($L11,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,O$1,1)&amp;($A$2)))),"")</f>
-        <v>历史</v>
+        <v>硬件</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="array" aca="1" ref="P11" ca="1">IFERROR(INDIRECT(MID($L11,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,P$1,1)&amp;($A$2)))),"")</f>
-        <v>小组</v>
+        <v>工坊</v>
       </c>
       <c r="Q11" s="17" t="str">
         <f t="array" aca="1" ref="Q11" ca="1">IFERROR(INDIRECT(MID($L11,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41687,19 +41708,19 @@
       </c>
       <c r="M12" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>特别实施事务所</v>
+        <v>模拟应急司令部</v>
       </c>
       <c r="N12" s="17" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IFERROR(INDIRECT(MID($L12,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,N$1,1)&amp;($A$2)))),"")</f>
-        <v>特别</v>
+        <v>模拟</v>
       </c>
       <c r="O12" s="17" t="str">
         <f t="array" aca="1" ref="O12" ca="1">IFERROR(INDIRECT(MID($L12,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,O$1,1)&amp;($A$2)))),"")</f>
-        <v>实施</v>
+        <v>应急</v>
       </c>
       <c r="P12" s="17" t="str">
         <f t="array" aca="1" ref="P12" ca="1">IFERROR(INDIRECT(MID($L12,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,P$1,1)&amp;($A$2)))),"")</f>
-        <v>事务所</v>
+        <v>司令部</v>
       </c>
       <c r="Q12" s="17" t="str">
         <f t="array" aca="1" ref="Q12" ca="1">IFERROR(INDIRECT(MID($L12,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41760,23 +41781,23 @@
       </c>
       <c r="M13" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>商业机械塑造大学</v>
+        <v>效应构型支持电台</v>
       </c>
       <c r="N13" s="17" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IFERROR(INDIRECT(MID($L13,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,N$1,1)&amp;($A$2)))),"")</f>
-        <v>商业</v>
+        <v>效应</v>
       </c>
       <c r="O13" s="17" t="str">
         <f t="array" aca="1" ref="O13" ca="1">IFERROR(INDIRECT(MID($L13,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,O$1,1)&amp;($A$2)))),"")</f>
-        <v>机械</v>
+        <v>构型</v>
       </c>
       <c r="P13" s="17" t="str">
         <f t="array" aca="1" ref="P13" ca="1">IFERROR(INDIRECT(MID($L13,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,P$1,1)&amp;($A$2)))),"")</f>
-        <v>塑造</v>
+        <v>支持</v>
       </c>
       <c r="Q13" s="17" t="str">
         <f t="array" aca="1" ref="Q13" ca="1">IFERROR(INDIRECT(MID($L13,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>大学</v>
+        <v>电台</v>
       </c>
       <c r="R13" s="17" t="str">
         <f t="array" aca="1" ref="R13" ca="1">IFERROR(INDIRECT(MID($L13,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,R$1,1)&amp;($A$2)))),"")</f>
@@ -41833,19 +41854,19 @@
       </c>
       <c r="M14" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>生态生物国际</v>
+        <v>矿产物种小组</v>
       </c>
       <c r="N14" s="17" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IFERROR(INDIRECT(MID($L14,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,N$1,1)&amp;($A$2)))),"")</f>
-        <v>生态</v>
+        <v>矿产</v>
       </c>
       <c r="O14" s="17" t="str">
         <f t="array" aca="1" ref="O14" ca="1">IFERROR(INDIRECT(MID($L14,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,O$1,1)&amp;($A$2)))),"")</f>
-        <v>生物</v>
+        <v>物种</v>
       </c>
       <c r="P14" s="17" t="str">
         <f t="array" aca="1" ref="P14" ca="1">IFERROR(INDIRECT(MID($L14,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,P$1,1)&amp;($A$2)))),"")</f>
-        <v>国际</v>
+        <v>小组</v>
       </c>
       <c r="Q14" s="17" t="str">
         <f t="array" aca="1" ref="Q14" ca="1">IFERROR(INDIRECT(MID($L14,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41906,19 +41927,19 @@
       </c>
       <c r="M15" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>造车借鉴艺术馆</v>
+        <v>环境纠正集团</v>
       </c>
       <c r="N15" s="17" t="str">
         <f t="array" aca="1" ref="N15" ca="1">IFERROR(INDIRECT(MID($L15,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,N$1,1)&amp;($A$2)))),"")</f>
-        <v>造车</v>
+        <v>环境</v>
       </c>
       <c r="O15" s="17" t="str">
         <f t="array" aca="1" ref="O15" ca="1">IFERROR(INDIRECT(MID($L15,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,O$1,1)&amp;($A$2)))),"")</f>
-        <v>借鉴</v>
+        <v>纠正</v>
       </c>
       <c r="P15" s="17" t="str">
         <f t="array" aca="1" ref="P15" ca="1">IFERROR(INDIRECT(MID($L15,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,P$1,1)&amp;($A$2)))),"")</f>
-        <v>艺术馆</v>
+        <v>集团</v>
       </c>
       <c r="Q15" s="17" t="str">
         <f t="array" aca="1" ref="Q15" ca="1">IFERROR(INDIRECT(MID($L15,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,Q$1,1)&amp;($A$2)))),"")</f>
@@ -41979,15 +42000,15 @@
       </c>
       <c r="M16" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>医疗司令部</v>
+        <v>医药中心</v>
       </c>
       <c r="N16" s="17" t="str">
         <f t="array" aca="1" ref="N16" ca="1">IFERROR(INDIRECT(MID($L16,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,N$1,1)&amp;($A$2)))),"")</f>
-        <v>医疗</v>
+        <v>医药</v>
       </c>
       <c r="O16" s="17" t="str">
         <f t="array" aca="1" ref="O16" ca="1">IFERROR(INDIRECT(MID($L16,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,O$1,1)&amp;($A$2)))),"")</f>
-        <v>司令部</v>
+        <v>中心</v>
       </c>
       <c r="P16" s="17" t="str">
         <f t="array" aca="1" ref="P16" ca="1">IFERROR(INDIRECT(MID($L16,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,P$1,1)&amp;($A$2)))),"")</f>
@@ -42052,15 +42073,15 @@
       </c>
       <c r="M17" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>文化草原</v>
+        <v>政治林地</v>
       </c>
       <c r="N17" s="17" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IFERROR(INDIRECT(MID($L17,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,N$1,1)&amp;($A$2)))),"")</f>
-        <v>文化</v>
+        <v>政治</v>
       </c>
       <c r="O17" s="17" t="str">
         <f t="array" aca="1" ref="O17" ca="1">IFERROR(INDIRECT(MID($L17,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,O$1,1)&amp;($A$2)))),"")</f>
-        <v>草原</v>
+        <v>林地</v>
       </c>
       <c r="P17" s="17" t="str">
         <f t="array" aca="1" ref="P17" ca="1">IFERROR(INDIRECT(MID($L17,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,P$1,1)&amp;($A$2)))),"")</f>
@@ -46180,15 +46201,15 @@
       </c>
       <c r="AC3" s="23" t="str">
         <f ca="1">_xlfn.CONCAT(AD3:AI3)</f>
-        <v>爆能步枪</v>
+        <v>时空撕裂大口径机枪</v>
       </c>
       <c r="AD3" s="17" t="str">
         <f t="array" aca="1" ref="AD3" ca="1">IFERROR(INDIRECT(MID($AB3,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB3,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>爆能</v>
+        <v>时空撕裂</v>
       </c>
       <c r="AF3" s="17" t="str">
         <f t="array" aca="1" ref="AF3" ca="1">IFERROR(INDIRECT(MID($AB3,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB3,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>步枪</v>
+        <v>大口径机枪</v>
       </c>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17" t="str">
@@ -46278,15 +46299,15 @@
       </c>
       <c r="AC4" s="23" t="str">
         <f t="shared" ref="AC4:AC32" ca="1" si="1">_xlfn.CONCAT(AD4:AI4)</f>
-        <v>中子杀伤弹</v>
+        <v>等离子穿甲弹</v>
       </c>
       <c r="AD4" s="17" t="str">
         <f t="array" aca="1" ref="AD4" ca="1">IFERROR(INDIRECT(MID($AB4,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB4,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>中子</v>
+        <v>等离子</v>
       </c>
       <c r="AF4" s="17" t="str">
         <f t="array" aca="1" ref="AF4" ca="1">IFERROR(INDIRECT(MID($AB4,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB4,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>杀伤弹</v>
+        <v>穿甲弹</v>
       </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17" t="str">
@@ -46376,15 +46397,15 @@
       </c>
       <c r="AC5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>核融合战刃</v>
+        <v>中子刀</v>
       </c>
       <c r="AD5" s="17" t="str">
         <f t="array" aca="1" ref="AD5" ca="1">IFERROR(INDIRECT(MID($AB5,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB5,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>核融合</v>
+        <v>中子</v>
       </c>
       <c r="AF5" s="17" t="str">
         <f t="array" aca="1" ref="AF5" ca="1">IFERROR(INDIRECT(MID($AB5,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB5,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>战刃</v>
+        <v>刀</v>
       </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17" t="str">
@@ -46474,15 +46495,15 @@
       </c>
       <c r="AC6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>天箭座主力舰</v>
+        <v>船底座轻型货轮</v>
       </c>
       <c r="AD6" s="17" t="str">
         <f t="array" aca="1" ref="AD6" ca="1">IFERROR(INDIRECT(MID($AB6,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB6,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>天箭座</v>
+        <v>船底座</v>
       </c>
       <c r="AF6" s="17" t="str">
         <f t="array" aca="1" ref="AF6" ca="1">IFERROR(INDIRECT(MID($AB6,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB6,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>主力舰</v>
+        <v>轻型货轮</v>
       </c>
       <c r="AH6" s="17" t="str">
         <f t="array" aca="1" ref="AH6" ca="1">IFERROR(INDIRECT(MID($AB6,AH$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB6,AH$1,1)&amp;($A$2)))),"")</f>
@@ -46571,25 +46592,25 @@
       </c>
       <c r="AC7" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>房宿三号战列舰</v>
+        <v>奎宿四号支援舰</v>
       </c>
       <c r="AD7" s="17" t="str">
         <f t="array" aca="1" ref="AD7" ca="1">IFERROR(INDIRECT(MID($AB7,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB7,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>房</v>
+        <v>奎</v>
       </c>
       <c r="AE7" s="17" t="s">
         <v>4557</v>
       </c>
       <c r="AF7" s="17" t="str">
         <f t="array" aca="1" ref="AF7" ca="1">IFERROR(INDIRECT(MID($AB7,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB7,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>三</v>
+        <v>四</v>
       </c>
       <c r="AG7" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AH7" s="17" t="str">
         <f t="array" aca="1" ref="AH7" ca="1">IFERROR(INDIRECT(MID($AB7,AH$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB7,AH$1,1)&amp;($A$2)))),"")</f>
-        <v>战列舰</v>
+        <v>支援舰</v>
       </c>
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
@@ -46671,18 +46692,18 @@
       </c>
       <c r="AC8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>土星（Saturn）号主力舰</v>
+        <v>水星（Mercury）号集装箱船</v>
       </c>
       <c r="AD8" s="17" t="str">
         <f t="array" aca="1" ref="AD8" ca="1">IFERROR(INDIRECT(MID($AB8,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB8,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>土星（Saturn）</v>
+        <v>水星（Mercury）</v>
       </c>
       <c r="AE8" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF8" s="17" t="str">
         <f t="array" aca="1" ref="AF8" ca="1">IFERROR(INDIRECT(MID($AB8,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB8,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>主力舰</v>
+        <v>集装箱船</v>
       </c>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17" t="str">
@@ -46766,18 +46787,18 @@
       </c>
       <c r="AC9" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>玄冥号主力舰</v>
+        <v>大禹号航天飞船</v>
       </c>
       <c r="AD9" s="17" t="str">
         <f t="array" aca="1" ref="AD9" ca="1">IFERROR(INDIRECT(MID($AB9,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB9,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>玄冥</v>
+        <v>大禹</v>
       </c>
       <c r="AE9" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF9" s="17" t="str">
         <f t="array" aca="1" ref="AF9" ca="1">IFERROR(INDIRECT(MID($AB9,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB9,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>主力舰</v>
+        <v>航天飞船</v>
       </c>
       <c r="AG9" s="17"/>
       <c r="AH9" s="17" t="str">
@@ -46861,18 +46882,18 @@
       </c>
       <c r="AC10" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>阿布霍斯号主力舰</v>
+        <v>洛本号旗舰</v>
       </c>
       <c r="AD10" s="17" t="str">
         <f t="array" aca="1" ref="AD10" ca="1">IFERROR(INDIRECT(MID($AB10,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB10,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>阿布霍斯</v>
+        <v>洛本</v>
       </c>
       <c r="AE10" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF10" s="17" t="str">
         <f t="array" aca="1" ref="AF10" ca="1">IFERROR(INDIRECT(MID($AB10,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB10,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>主力舰</v>
+        <v>旗舰</v>
       </c>
       <c r="AG10" s="17"/>
       <c r="AH10" s="17" t="str">
@@ -46950,18 +46971,18 @@
       </c>
       <c r="AC11" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>勒托，阿斯特利亚（黑夜女神）号旗舰</v>
+        <v>喀耳刻(Circe)号客轮</v>
       </c>
       <c r="AD11" s="17" t="str">
         <f t="array" aca="1" ref="AD11" ca="1">IFERROR(INDIRECT(MID($AB11,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB11,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>勒托，阿斯特利亚（黑夜女神）</v>
+        <v>喀耳刻(Circe)</v>
       </c>
       <c r="AE11" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF11" s="17" t="str">
         <f t="array" aca="1" ref="AF11" ca="1">IFERROR(INDIRECT(MID($AB11,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB11,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>旗舰</v>
+        <v>客轮</v>
       </c>
       <c r="AG11" s="17"/>
       <c r="AH11" s="17" t="str">
@@ -47036,18 +47057,18 @@
       </c>
       <c r="AC12" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>　　玛尔斯 Mars 战神号客轮</v>
+        <v>　　伏尔肯 Vulcan 火神号航母</v>
       </c>
       <c r="AD12" s="17" t="str">
         <f t="array" aca="1" ref="AD12" ca="1">IFERROR(INDIRECT(MID($AB12,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB12,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>　　玛尔斯 Mars 战神</v>
+        <v>　　伏尔肯 Vulcan 火神</v>
       </c>
       <c r="AE12" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF12" s="17" t="str">
         <f t="array" aca="1" ref="AF12" ca="1">IFERROR(INDIRECT(MID($AB12,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB12,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>客轮</v>
+        <v>航母</v>
       </c>
       <c r="AG12" s="17"/>
       <c r="AH12" s="17" t="str">
@@ -47122,18 +47143,18 @@
       </c>
       <c r="AC13" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>哈奇森号运输船</v>
+        <v>希格斯号航天飞船</v>
       </c>
       <c r="AD13" s="17" t="str">
         <f t="array" aca="1" ref="AD13" ca="1">IFERROR(INDIRECT(MID($AB13,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB13,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>哈奇森</v>
+        <v>希格斯</v>
       </c>
       <c r="AE13" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF13" s="17" t="str">
         <f t="array" aca="1" ref="AF13" ca="1">IFERROR(INDIRECT(MID($AB13,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB13,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>运输船</v>
+        <v>航天飞船</v>
       </c>
       <c r="AG13" s="17"/>
       <c r="AH13" s="17" t="str">
@@ -47208,18 +47229,18 @@
       </c>
       <c r="AC14" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>鯥号驱逐舰</v>
+        <v>应龙号星舰</v>
       </c>
       <c r="AD14" s="17" t="str">
         <f t="array" aca="1" ref="AD14" ca="1">IFERROR(INDIRECT(MID($AB14,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB14,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>鯥</v>
+        <v>应龙</v>
       </c>
       <c r="AE14" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF14" s="17" t="str">
         <f t="array" aca="1" ref="AF14" ca="1">IFERROR(INDIRECT(MID($AB14,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB14,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>驱逐舰</v>
+        <v>星舰</v>
       </c>
       <c r="AG14" s="17"/>
       <c r="AH14" s="17" t="str">
@@ -47294,18 +47315,18 @@
       </c>
       <c r="AC15" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>海豹号旗舰</v>
+        <v>儒艮号巡洋舰</v>
       </c>
       <c r="AD15" s="17" t="str">
         <f t="array" aca="1" ref="AD15" ca="1">IFERROR(INDIRECT(MID($AB15,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB15,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>海豹</v>
+        <v>儒艮</v>
       </c>
       <c r="AE15" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF15" s="17" t="str">
         <f t="array" aca="1" ref="AF15" ca="1">IFERROR(INDIRECT(MID($AB15,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB15,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>旗舰</v>
+        <v>巡洋舰</v>
       </c>
       <c r="AH15" s="17" t="str">
         <f t="array" aca="1" ref="AH15" ca="1">IFERROR(INDIRECT(MID($AB15,AH$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB15,AH$1,1)&amp;($A$2)))),"")</f>
@@ -47376,15 +47397,15 @@
       </c>
       <c r="AC16" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>小犬座援护飞船</v>
+        <v>望远镜座飞行船</v>
       </c>
       <c r="AD16" s="17" t="str">
         <f t="array" aca="1" ref="AD16" ca="1">IFERROR(INDIRECT(MID($AB16,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB16,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>小犬座</v>
+        <v>望远镜座</v>
       </c>
       <c r="AF16" s="17" t="str">
         <f t="array" aca="1" ref="AF16" ca="1">IFERROR(INDIRECT(MID($AB16,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB16,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>援护飞船</v>
+        <v>飞行船</v>
       </c>
       <c r="AH16" s="17" t="str">
         <f t="array" aca="1" ref="AH16" ca="1">IFERROR(INDIRECT(MID($AB16,AH$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB16,AH$1,1)&amp;($A$2)))),"")</f>
@@ -47455,25 +47476,25 @@
       </c>
       <c r="AC17" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>井宿二号双吊舱云车</v>
+        <v>斗宿九号维修飞船</v>
       </c>
       <c r="AD17" s="17" t="str">
         <f t="array" aca="1" ref="AD17" ca="1">IFERROR(INDIRECT(MID($AB17,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB17,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>井</v>
+        <v>斗</v>
       </c>
       <c r="AE17" s="17" t="s">
         <v>4557</v>
       </c>
       <c r="AF17" s="17" t="str">
         <f t="array" aca="1" ref="AF17" ca="1">IFERROR(INDIRECT(MID($AB17,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB17,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>二</v>
+        <v>九</v>
       </c>
       <c r="AG17" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AH17" s="17" t="str">
         <f t="array" aca="1" ref="AH17" ca="1">IFERROR(INDIRECT(MID($AB17,AH$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB17,AH$1,1)&amp;($A$2)))),"")</f>
-        <v>双吊舱云车</v>
+        <v>维修飞船</v>
       </c>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
@@ -47540,18 +47561,18 @@
       </c>
       <c r="AC18" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>土星（Saturn）号飞船</v>
+        <v>海王星（Neptune）号飞梭赛车</v>
       </c>
       <c r="AD18" s="17" t="str">
         <f t="array" aca="1" ref="AD18" ca="1">IFERROR(INDIRECT(MID($AB18,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB18,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>土星（Saturn）</v>
+        <v>海王星（Neptune）</v>
       </c>
       <c r="AE18" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF18" s="17" t="str">
         <f t="array" aca="1" ref="AF18" ca="1">IFERROR(INDIRECT(MID($AB18,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB18,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>飞船</v>
+        <v>飞梭赛车</v>
       </c>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17" t="str">
@@ -47616,18 +47637,18 @@
       </c>
       <c r="AC19" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>郁垒  号磁悬浮飞艇</v>
+        <v>风后号AAT</v>
       </c>
       <c r="AD19" s="17" t="str">
         <f t="array" aca="1" ref="AD19" ca="1">IFERROR(INDIRECT(MID($AB19,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB19,AD$1,1)&amp;($A$2)))),"")</f>
-        <v xml:space="preserve">郁垒  </v>
+        <v>风后</v>
       </c>
       <c r="AE19" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF19" s="17" t="str">
         <f t="array" aca="1" ref="AF19" ca="1">IFERROR(INDIRECT(MID($AB19,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB19,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>磁悬浮飞艇</v>
+        <v>AAT</v>
       </c>
       <c r="AG19" s="17"/>
       <c r="AH19" s="17" t="str">
@@ -47686,18 +47707,18 @@
       </c>
       <c r="AC20" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>诺弗刻斯号飞船</v>
+        <v>号狙击飞船</v>
       </c>
       <c r="AD20" s="17" t="str">
         <f t="array" aca="1" ref="AD20" ca="1">IFERROR(INDIRECT(MID($AB20,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB20,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>诺弗刻斯</v>
+        <v/>
       </c>
       <c r="AE20" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF20" s="17" t="str">
         <f t="array" aca="1" ref="AF20" ca="1">IFERROR(INDIRECT(MID($AB20,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB20,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>飞船</v>
+        <v>狙击飞船</v>
       </c>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17" t="str">
@@ -47756,18 +47777,18 @@
       </c>
       <c r="AC21" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>泊萨福尼（冥后）号双吊舱云车</v>
+        <v>修普诺斯（睡神）号维修飞船</v>
       </c>
       <c r="AD21" s="17" t="str">
         <f t="array" aca="1" ref="AD21" ca="1">IFERROR(INDIRECT(MID($AB21,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB21,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>泊萨福尼（冥后）</v>
+        <v>修普诺斯（睡神）</v>
       </c>
       <c r="AE21" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF21" s="17" t="str">
         <f t="array" aca="1" ref="AF21" ca="1">IFERROR(INDIRECT(MID($AB21,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB21,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>双吊舱云车</v>
+        <v>维修飞船</v>
       </c>
       <c r="AG21" s="17"/>
       <c r="AH21" s="17" t="str">
@@ -47823,18 +47844,18 @@
       </c>
       <c r="AC22" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>　　普鲁托 Pluto 冥神号反重力飞船</v>
+        <v>　　维纳斯 Venus 美神、爱神号探测器</v>
       </c>
       <c r="AD22" s="17" t="str">
         <f t="array" aca="1" ref="AD22" ca="1">IFERROR(INDIRECT(MID($AB22,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB22,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>　　普鲁托 Pluto 冥神</v>
+        <v>　　维纳斯 Venus 美神、爱神</v>
       </c>
       <c r="AE22" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF22" s="17" t="str">
         <f t="array" aca="1" ref="AF22" ca="1">IFERROR(INDIRECT(MID($AB22,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB22,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>反重力飞船</v>
+        <v>探测器</v>
       </c>
       <c r="AG22" s="17"/>
       <c r="AH22" s="17" t="str">
@@ -47891,18 +47912,18 @@
       </c>
       <c r="AC23" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>伽利略号飞艇</v>
+        <v>波恩号维修飞船</v>
       </c>
       <c r="AD23" s="17" t="str">
         <f t="array" aca="1" ref="AD23" ca="1">IFERROR(INDIRECT(MID($AB23,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB23,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>伽利略</v>
+        <v>波恩</v>
       </c>
       <c r="AE23" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF23" s="17" t="str">
         <f t="array" aca="1" ref="AF23" ca="1">IFERROR(INDIRECT(MID($AB23,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB23,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>飞艇</v>
+        <v>维修飞船</v>
       </c>
       <c r="AG23" s="17"/>
       <c r="AH23" s="17" t="str">
@@ -47958,18 +47979,18 @@
       </c>
       <c r="AC24" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>蚣蝮号雪地飞车</v>
+        <v>鵸鵌号双吊舱云车</v>
       </c>
       <c r="AD24" s="17" t="str">
         <f t="array" aca="1" ref="AD24" ca="1">IFERROR(INDIRECT(MID($AB24,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB24,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>蚣蝮</v>
+        <v>鵸鵌</v>
       </c>
       <c r="AE24" s="17" t="s">
         <v>4558</v>
       </c>
       <c r="AF24" s="17" t="str">
         <f t="array" aca="1" ref="AF24" ca="1">IFERROR(INDIRECT(MID($AB24,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB24,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>雪地飞车</v>
+        <v>双吊舱云车</v>
       </c>
       <c r="AG24" s="17"/>
       <c r="AH24" s="17" t="str">
@@ -48025,11 +48046,11 @@
       </c>
       <c r="AC25" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>豚尾猴号星际飞船</v>
+        <v>玉带海雕号星际飞船</v>
       </c>
       <c r="AD25" s="17" t="str">
         <f t="array" aca="1" ref="AD25" ca="1">IFERROR(INDIRECT(MID($AB25,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB25,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>豚尾猴</v>
+        <v>玉带海雕</v>
       </c>
       <c r="AE25" s="17" t="s">
         <v>4558</v>
@@ -48091,18 +48112,18 @@
       </c>
       <c r="AC26" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>克图格亚型军用机甲</v>
+        <v>伊德海拉型民用机甲</v>
       </c>
       <c r="AD26" s="17" t="str">
         <f t="array" aca="1" ref="AD26" ca="1">IFERROR(INDIRECT(MID($AB26,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB26,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>克图格亚</v>
+        <v>伊德海拉</v>
       </c>
       <c r="AE26" s="17" t="s">
         <v>4572</v>
       </c>
       <c r="AF26" s="17" t="str">
         <f t="array" aca="1" ref="AF26" ca="1">IFERROR(INDIRECT(MID($AB26,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB26,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>军用</v>
+        <v>民用</v>
       </c>
       <c r="AG26" s="17" t="s">
         <v>4570</v>
@@ -48157,11 +48178,11 @@
       </c>
       <c r="AC27" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>帕特洛克洛斯(Patroclus)型援护机甲</v>
+        <v>刻托(Ceto)型援护机甲</v>
       </c>
       <c r="AD27" s="17" t="str">
         <f t="array" aca="1" ref="AD27" ca="1">IFERROR(INDIRECT(MID($AB27,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB27,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>帕特洛克洛斯(Patroclus)</v>
+        <v>刻托(Ceto)</v>
       </c>
       <c r="AE27" s="17" t="s">
         <v>4572</v>
@@ -48220,11 +48241,11 @@
       </c>
       <c r="AC28" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>　　维纳斯 Venus 美神、爱神型狙击机甲</v>
+        <v>　　朱诺 Juno 神后型狙击机甲</v>
       </c>
       <c r="AD28" s="17" t="str">
         <f t="array" aca="1" ref="AD28" ca="1">IFERROR(INDIRECT(MID($AB28,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB28,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>　　维纳斯 Venus 美神、爱神</v>
+        <v>　　朱诺 Juno 神后</v>
       </c>
       <c r="AE28" s="17" t="s">
         <v>4572</v>
@@ -48283,18 +48304,18 @@
       </c>
       <c r="AC29" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>波恩型军用机甲</v>
+        <v>狄拉克型突击机甲</v>
       </c>
       <c r="AD29" s="17" t="str">
         <f t="array" aca="1" ref="AD29" ca="1">IFERROR(INDIRECT(MID($AB29,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB29,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>波恩</v>
+        <v>狄拉克</v>
       </c>
       <c r="AE29" s="17" t="s">
         <v>4572</v>
       </c>
       <c r="AF29" s="17" t="str">
         <f t="array" aca="1" ref="AF29" ca="1">IFERROR(INDIRECT(MID($AB29,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB29,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>军用</v>
+        <v>突击</v>
       </c>
       <c r="AG29" s="17" t="s">
         <v>4570</v>
@@ -48346,18 +48367,18 @@
       </c>
       <c r="AC30" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>霸下型狙击机甲</v>
+        <v>赢鱼型援护机甲</v>
       </c>
       <c r="AD30" s="17" t="str">
         <f t="array" aca="1" ref="AD30" ca="1">IFERROR(INDIRECT(MID($AB30,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB30,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>霸下</v>
+        <v>赢鱼</v>
       </c>
       <c r="AE30" s="17" t="s">
         <v>4572</v>
       </c>
       <c r="AF30" s="17" t="str">
         <f t="array" aca="1" ref="AF30" ca="1">IFERROR(INDIRECT(MID($AB30,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB30,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>狙击</v>
+        <v>援护</v>
       </c>
       <c r="AG30" s="17" t="s">
         <v>4570</v>
@@ -48406,18 +48427,18 @@
       </c>
       <c r="AC31" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>柳雷鸟型狙击机甲</v>
+        <v>细瘰疣螈型援护机甲</v>
       </c>
       <c r="AD31" s="17" t="str">
         <f t="array" aca="1" ref="AD31" ca="1">IFERROR(INDIRECT(MID($AB31,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB31,AD$1,1)&amp;($A$2)))),"")</f>
-        <v>柳雷鸟</v>
+        <v>细瘰疣螈</v>
       </c>
       <c r="AE31" s="17" t="s">
         <v>4572</v>
       </c>
       <c r="AF31" s="17" t="str">
         <f t="array" aca="1" ref="AF31" ca="1">IFERROR(INDIRECT(MID($AB31,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB31,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>狙击</v>
+        <v>援护</v>
       </c>
       <c r="AG31" s="17" t="s">
         <v>4570</v>
@@ -48463,7 +48484,7 @@
       </c>
       <c r="AC32" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>小型型援护机甲</v>
+        <v>小型型工业机甲</v>
       </c>
       <c r="AD32" s="17" t="str">
         <f t="array" aca="1" ref="AD32" ca="1">IFERROR(INDIRECT(MID($AB32,AD$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB32,AD$1,1)&amp;($A$2)))),"")</f>
@@ -48474,7 +48495,7 @@
       </c>
       <c r="AF32" s="17" t="str">
         <f t="array" aca="1" ref="AF32" ca="1">IFERROR(INDIRECT(MID($AB32,AF$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($AB32,AF$1,1)&amp;($A$2)))),"")</f>
-        <v>援护</v>
+        <v>工业</v>
       </c>
       <c r="AG32" s="17" t="s">
         <v>4570</v>
@@ -52377,7 +52398,7 @@
       </c>
       <c r="M2" s="23" t="str">
         <f ca="1">_xlfn.CONCAT(N2:S2)</f>
-        <v>鬼索的卷轴</v>
+        <v>鬼索的魔杖</v>
       </c>
       <c r="N2" s="17" t="str">
         <f t="array" aca="1" ref="N2" ca="1">IFERROR(INDIRECT(MID($L2,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,N$1,1)&amp;($A$2)))),"")</f>
@@ -52385,7 +52406,7 @@
       </c>
       <c r="O2" s="17" t="str">
         <f t="array" aca="1" ref="O2" ca="1">IFERROR(INDIRECT(MID($L2,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,O$1,1)&amp;($A$2)))),"")</f>
-        <v>卷轴</v>
+        <v>魔杖</v>
       </c>
       <c r="P2" s="17" t="str">
         <f t="array" aca="1" ref="P2" ca="1">IFERROR(INDIRECT(MID($L2,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L2,P$1,1)&amp;($A$2)))),"")</f>
@@ -52450,15 +52471,15 @@
       </c>
       <c r="M3" s="23" t="str">
         <f t="shared" ref="M3:M8" ca="1" si="1">_xlfn.CONCAT(N3:S3)</f>
-        <v>灭世者的徽章</v>
+        <v>圆润词典</v>
       </c>
       <c r="N3" s="17" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IFERROR(INDIRECT(MID($L3,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,N$1,1)&amp;($A$2)))),"")</f>
-        <v>灭世者的</v>
+        <v>圆润</v>
       </c>
       <c r="O3" s="17" t="str">
         <f t="array" aca="1" ref="O3" ca="1">IFERROR(INDIRECT(MID($L3,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,O$1,1)&amp;($A$2)))),"")</f>
-        <v>徽章</v>
+        <v>词典</v>
       </c>
       <c r="P3" s="17" t="str">
         <f t="array" aca="1" ref="P3" ca="1">IFERROR(INDIRECT(MID($L3,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L3,P$1,1)&amp;($A$2)))),"")</f>
@@ -52523,15 +52544,15 @@
       </c>
       <c r="M4" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>饮魔鳞甲</v>
+        <v>切割铁剑</v>
       </c>
       <c r="N4" s="17" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IFERROR(INDIRECT(MID($L4,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,N$1,1)&amp;($A$2)))),"")</f>
-        <v>饮魔</v>
+        <v>切割</v>
       </c>
       <c r="O4" s="17" t="str">
         <f t="array" aca="1" ref="O4" ca="1">IFERROR(INDIRECT(MID($L4,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,O$1,1)&amp;($A$2)))),"")</f>
-        <v>鳞甲</v>
+        <v>铁剑</v>
       </c>
       <c r="P4" s="17" t="str">
         <f t="array" aca="1" ref="P4" ca="1">IFERROR(INDIRECT(MID($L4,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L4,P$1,1)&amp;($A$2)))),"")</f>
@@ -52596,15 +52617,15 @@
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>盘古护肩</v>
+        <v>符文哨兵</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IFERROR(INDIRECT(MID($L5,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,N$1,1)&amp;($A$2)))),"")</f>
-        <v>盘古</v>
+        <v>符文</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="array" aca="1" ref="O5" ca="1">IFERROR(INDIRECT(MID($L5,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,O$1,1)&amp;($A$2)))),"")</f>
-        <v>护肩</v>
+        <v>哨兵</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="array" aca="1" ref="P5" ca="1">IFERROR(INDIRECT(MID($L5,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L5,P$1,1)&amp;($A$2)))),"")</f>
@@ -52669,15 +52690,15 @@
       </c>
       <c r="M6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>圣者拳套</v>
+        <v>霸者装甲</v>
       </c>
       <c r="N6" s="17" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IFERROR(INDIRECT(MID($L6,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,N$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>霸者</v>
       </c>
       <c r="O6" s="17" t="str">
         <f t="array" aca="1" ref="O6" ca="1">IFERROR(INDIRECT(MID($L6,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,O$1,1)&amp;($A$2)))),"")</f>
-        <v>拳套</v>
+        <v>装甲</v>
       </c>
       <c r="P6" s="17" t="str">
         <f t="array" aca="1" ref="P6" ca="1">IFERROR(INDIRECT(MID($L6,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L6,P$1,1)&amp;($A$2)))),"")</f>
@@ -52742,19 +52763,19 @@
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>神秘降魔王冠</v>
+        <v>均衡攻击圣剑</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IFERROR(INDIRECT(MID($L7,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,N$1,1)&amp;($A$2)))),"")</f>
-        <v>神秘</v>
+        <v>均衡</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="array" aca="1" ref="O7" ca="1">IFERROR(INDIRECT(MID($L7,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,O$1,1)&amp;($A$2)))),"")</f>
-        <v>降魔</v>
+        <v>攻击</v>
       </c>
       <c r="P7" s="17" t="str">
         <f t="array" aca="1" ref="P7" ca="1">IFERROR(INDIRECT(MID($L7,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,P$1,1)&amp;($A$2)))),"")</f>
-        <v>王冠</v>
+        <v>圣剑</v>
       </c>
       <c r="Q7" s="17" t="str">
         <f t="array" aca="1" ref="Q7" ca="1">IFERROR(INDIRECT(MID($L7,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L7,Q$1,1)&amp;($A$2)))),"")</f>
@@ -52815,19 +52836,19 @@
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>治疗女妖手套</v>
+        <v>遗失潮汐长矛</v>
       </c>
       <c r="N8" s="17" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IFERROR(INDIRECT(MID($L8,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,N$1,1)&amp;($A$2)))),"")</f>
-        <v>治疗</v>
+        <v>遗失</v>
       </c>
       <c r="O8" s="17" t="str">
         <f t="array" aca="1" ref="O8" ca="1">IFERROR(INDIRECT(MID($L8,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,O$1,1)&amp;($A$2)))),"")</f>
-        <v>女妖</v>
+        <v>潮汐</v>
       </c>
       <c r="P8" s="17" t="str">
         <f t="array" aca="1" ref="P8" ca="1">IFERROR(INDIRECT(MID($L8,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,P$1,1)&amp;($A$2)))),"")</f>
-        <v>手套</v>
+        <v>长矛</v>
       </c>
       <c r="Q8" s="17" t="str">
         <f t="array" aca="1" ref="Q8" ca="1">IFERROR(INDIRECT(MID($L8,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L8,Q$1,1)&amp;($A$2)))),"")</f>
@@ -52888,19 +52909,19 @@
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" ref="M9:M28" ca="1" si="2">_xlfn.CONCAT(N9:S9)</f>
-        <v>金色时圣杯</v>
+        <v>海克斯近卫药水</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IFERROR(INDIRECT(MID($L9,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,N$1,1)&amp;($A$2)))),"")</f>
-        <v>金色</v>
+        <v>海克斯</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="array" aca="1" ref="O9" ca="1">IFERROR(INDIRECT(MID($L9,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,O$1,1)&amp;($A$2)))),"")</f>
-        <v>时</v>
+        <v>近卫</v>
       </c>
       <c r="P9" s="17" t="str">
         <f t="array" aca="1" ref="P9" ca="1">IFERROR(INDIRECT(MID($L9,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,P$1,1)&amp;($A$2)))),"")</f>
-        <v>圣杯</v>
+        <v>药水</v>
       </c>
       <c r="Q9" s="17" t="str">
         <f t="array" aca="1" ref="Q9" ca="1">IFERROR(INDIRECT(MID($L9,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L9,Q$1,1)&amp;($A$2)))),"")</f>
@@ -52961,23 +52982,23 @@
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>瑞莱的毁灭福利利刃</v>
+        <v>中娅的御魔极影盔甲</v>
       </c>
       <c r="N10" s="17" t="str">
         <f t="array" aca="1" ref="N10" ca="1">IFERROR(INDIRECT(MID($L10,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,N$1,1)&amp;($A$2)))),"")</f>
-        <v>瑞莱的</v>
+        <v>中娅的</v>
       </c>
       <c r="O10" s="17" t="str">
         <f t="array" aca="1" ref="O10" ca="1">IFERROR(INDIRECT(MID($L10,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,O$1,1)&amp;($A$2)))),"")</f>
-        <v>毁灭</v>
+        <v>御魔</v>
       </c>
       <c r="P10" s="17" t="str">
         <f t="array" aca="1" ref="P10" ca="1">IFERROR(INDIRECT(MID($L10,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,P$1,1)&amp;($A$2)))),"")</f>
-        <v>福利</v>
+        <v>极影</v>
       </c>
       <c r="Q10" s="17" t="str">
         <f t="array" aca="1" ref="Q10" ca="1">IFERROR(INDIRECT(MID($L10,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>利刃</v>
+        <v>盔甲</v>
       </c>
       <c r="R10" s="17" t="str">
         <f t="array" aca="1" ref="R10" ca="1">IFERROR(INDIRECT(MID($L10,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L10,R$1,1)&amp;($A$2)))),"")</f>
@@ -53034,19 +53055,19 @@
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>黑龙圣者盔甲</v>
+        <v>巫术狂暴者纹章</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="array" aca="1" ref="N11" ca="1">IFERROR(INDIRECT(MID($L11,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,N$1,1)&amp;($A$2)))),"")</f>
-        <v>黑龙</v>
+        <v>巫术</v>
       </c>
       <c r="O11" s="17" t="str">
         <f t="array" aca="1" ref="O11" ca="1">IFERROR(INDIRECT(MID($L11,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,O$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>狂暴者</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="array" aca="1" ref="P11" ca="1">IFERROR(INDIRECT(MID($L11,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,P$1,1)&amp;($A$2)))),"")</f>
-        <v>盔甲</v>
+        <v>纹章</v>
       </c>
       <c r="Q11" s="17" t="str">
         <f t="array" aca="1" ref="Q11" ca="1">IFERROR(INDIRECT(MID($L11,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L11,Q$1,1)&amp;($A$2)))),"")</f>
@@ -53107,11 +53128,11 @@
       </c>
       <c r="M12" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>鬼索的之源</v>
+        <v>阿蒙的之源</v>
       </c>
       <c r="N12" s="17" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IFERROR(INDIRECT(MID($L12,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,N$1,1)&amp;($A$2)))),"")</f>
-        <v>鬼索的</v>
+        <v>阿蒙的</v>
       </c>
       <c r="O12" s="17" t="str">
         <f t="array" aca="1" ref="O12" ca="1">IFERROR(INDIRECT(MID($L12,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L12,O$1,1)&amp;($A$2)))),"")</f>
@@ -53180,15 +53201,15 @@
       </c>
       <c r="M13" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>疾风之石</v>
+        <v>神秘之拳</v>
       </c>
       <c r="N13" s="17" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IFERROR(INDIRECT(MID($L13,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,N$1,1)&amp;($A$2)))),"")</f>
-        <v>疾风</v>
+        <v>神秘</v>
       </c>
       <c r="O13" s="17" t="str">
         <f t="array" aca="1" ref="O13" ca="1">IFERROR(INDIRECT(MID($L13,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,O$1,1)&amp;($A$2)))),"")</f>
-        <v>之石</v>
+        <v>之拳</v>
       </c>
       <c r="P13" s="17" t="str">
         <f t="array" aca="1" ref="P13" ca="1">IFERROR(INDIRECT(MID($L13,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L13,P$1,1)&amp;($A$2)))),"")</f>
@@ -53250,15 +53271,15 @@
       </c>
       <c r="M14" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>续魔之盾</v>
+        <v>血怒之帽</v>
       </c>
       <c r="N14" s="17" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IFERROR(INDIRECT(MID($L14,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,N$1,1)&amp;($A$2)))),"")</f>
-        <v>续魔</v>
+        <v>血怒</v>
       </c>
       <c r="O14" s="17" t="str">
         <f t="array" aca="1" ref="O14" ca="1">IFERROR(INDIRECT(MID($L14,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,O$1,1)&amp;($A$2)))),"")</f>
-        <v>之盾</v>
+        <v>之帽</v>
       </c>
       <c r="P14" s="17" t="str">
         <f t="array" aca="1" ref="P14" ca="1">IFERROR(INDIRECT(MID($L14,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L14,P$1,1)&amp;($A$2)))),"")</f>
@@ -53320,15 +53341,15 @@
       </c>
       <c r="M15" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>意志之器</v>
+        <v>深渊之眼</v>
       </c>
       <c r="N15" s="17" t="str">
         <f t="array" aca="1" ref="N15" ca="1">IFERROR(INDIRECT(MID($L15,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,N$1,1)&amp;($A$2)))),"")</f>
-        <v>意志</v>
+        <v>深渊</v>
       </c>
       <c r="O15" s="17" t="str">
         <f t="array" aca="1" ref="O15" ca="1">IFERROR(INDIRECT(MID($L15,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,O$1,1)&amp;($A$2)))),"")</f>
-        <v>之器</v>
+        <v>之眼</v>
       </c>
       <c r="P15" s="17" t="str">
         <f t="array" aca="1" ref="P15" ca="1">IFERROR(INDIRECT(MID($L15,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L15,P$1,1)&amp;($A$2)))),"")</f>
@@ -53390,15 +53411,15 @@
       </c>
       <c r="M16" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>支配者之舞</v>
+        <v>御法者之预言</v>
       </c>
       <c r="N16" s="17" t="str">
         <f t="array" aca="1" ref="N16" ca="1">IFERROR(INDIRECT(MID($L16,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,N$1,1)&amp;($A$2)))),"")</f>
-        <v>支配者</v>
+        <v>御法者</v>
       </c>
       <c r="O16" s="17" t="str">
         <f t="array" aca="1" ref="O16" ca="1">IFERROR(INDIRECT(MID($L16,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,O$1,1)&amp;($A$2)))),"")</f>
-        <v>之舞</v>
+        <v>之预言</v>
       </c>
       <c r="P16" s="17" t="str">
         <f t="array" aca="1" ref="P16" ca="1">IFERROR(INDIRECT(MID($L16,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L16,P$1,1)&amp;($A$2)))),"")</f>
@@ -53460,19 +53481,19 @@
       </c>
       <c r="M17" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>坚定破法之怒</v>
+        <v>幸运鼓舞之锤</v>
       </c>
       <c r="N17" s="17" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IFERROR(INDIRECT(MID($L17,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,N$1,1)&amp;($A$2)))),"")</f>
-        <v>坚定</v>
+        <v>幸运</v>
       </c>
       <c r="O17" s="17" t="str">
         <f t="array" aca="1" ref="O17" ca="1">IFERROR(INDIRECT(MID($L17,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,O$1,1)&amp;($A$2)))),"")</f>
-        <v>破法</v>
+        <v>鼓舞</v>
       </c>
       <c r="P17" s="17" t="str">
         <f t="array" aca="1" ref="P17" ca="1">IFERROR(INDIRECT(MID($L17,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,P$1,1)&amp;($A$2)))),"")</f>
-        <v>之怒</v>
+        <v>之锤</v>
       </c>
       <c r="Q17" s="17" t="str">
         <f t="array" aca="1" ref="Q17" ca="1">IFERROR(INDIRECT(MID($L17,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L17,Q$1,1)&amp;($A$2)))),"")</f>
@@ -53530,19 +53551,19 @@
       </c>
       <c r="M18" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>转义虚空之锯</v>
+        <v>救赎盘古之靴</v>
       </c>
       <c r="N18" s="17" t="str">
         <f t="array" aca="1" ref="N18" ca="1">IFERROR(INDIRECT(MID($L18,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L18,N$1,1)&amp;($A$2)))),"")</f>
-        <v>转义</v>
+        <v>救赎</v>
       </c>
       <c r="O18" s="17" t="str">
         <f t="array" aca="1" ref="O18" ca="1">IFERROR(INDIRECT(MID($L18,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L18,O$1,1)&amp;($A$2)))),"")</f>
-        <v>虚空</v>
+        <v>盘古</v>
       </c>
       <c r="P18" s="17" t="str">
         <f t="array" aca="1" ref="P18" ca="1">IFERROR(INDIRECT(MID($L18,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L18,P$1,1)&amp;($A$2)))),"")</f>
-        <v>之锯</v>
+        <v>之靴</v>
       </c>
       <c r="Q18" s="17" t="str">
         <f t="array" aca="1" ref="Q18" ca="1">IFERROR(INDIRECT(MID($L18,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L18,Q$1,1)&amp;($A$2)))),"")</f>
@@ -53584,19 +53605,19 @@
       </c>
       <c r="M19" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>金色螺湮城之弓</v>
+        <v>贪婪法师之铠</v>
       </c>
       <c r="N19" s="17" t="str">
         <f t="array" aca="1" ref="N19" ca="1">IFERROR(INDIRECT(MID($L19,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L19,N$1,1)&amp;($A$2)))),"")</f>
-        <v>金色</v>
+        <v>贪婪</v>
       </c>
       <c r="O19" s="17" t="str">
         <f t="array" aca="1" ref="O19" ca="1">IFERROR(INDIRECT(MID($L19,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L19,O$1,1)&amp;($A$2)))),"")</f>
-        <v>螺湮城</v>
+        <v>法师</v>
       </c>
       <c r="P19" s="17" t="str">
         <f t="array" aca="1" ref="P19" ca="1">IFERROR(INDIRECT(MID($L19,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L19,P$1,1)&amp;($A$2)))),"")</f>
-        <v>之弓</v>
+        <v>之铠</v>
       </c>
       <c r="Q19" s="17" t="str">
         <f t="array" aca="1" ref="Q19" ca="1">IFERROR(INDIRECT(MID($L19,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L19,Q$1,1)&amp;($A$2)))),"")</f>
@@ -53638,23 +53659,23 @@
       </c>
       <c r="M20" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>舒瑞亚的防爆富豪之力</v>
+        <v>提莫玛乌斯泣血冰川之轻语</v>
       </c>
       <c r="N20" s="17" t="str">
         <f t="array" aca="1" ref="N20" ca="1">IFERROR(INDIRECT(MID($L20,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L20,N$1,1)&amp;($A$2)))),"")</f>
-        <v>舒瑞亚的</v>
+        <v>提莫玛乌斯</v>
       </c>
       <c r="O20" s="17" t="str">
         <f t="array" aca="1" ref="O20" ca="1">IFERROR(INDIRECT(MID($L20,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L20,O$1,1)&amp;($A$2)))),"")</f>
-        <v>防爆</v>
+        <v>泣血</v>
       </c>
       <c r="P20" s="17" t="str">
         <f t="array" aca="1" ref="P20" ca="1">IFERROR(INDIRECT(MID($L20,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L20,P$1,1)&amp;($A$2)))),"")</f>
-        <v>富豪</v>
+        <v>冰川</v>
       </c>
       <c r="Q20" s="17" t="str">
         <f t="array" aca="1" ref="Q20" ca="1">IFERROR(INDIRECT(MID($L20,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L20,Q$1,1)&amp;($A$2)))),"")</f>
-        <v>之力</v>
+        <v>之轻语</v>
       </c>
       <c r="R20" s="17" t="str">
         <f t="array" aca="1" ref="R20" ca="1">IFERROR(INDIRECT(MID($L20,R$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L20,R$1,1)&amp;($A$2)))),"")</f>
@@ -53692,15 +53713,15 @@
       </c>
       <c r="M21" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>蛛网收割者之拥</v>
+        <v>光辉支配者之拥</v>
       </c>
       <c r="N21" s="17" t="str">
         <f t="array" aca="1" ref="N21" ca="1">IFERROR(INDIRECT(MID($L21,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L21,N$1,1)&amp;($A$2)))),"")</f>
-        <v>蛛网</v>
+        <v>光辉</v>
       </c>
       <c r="O21" s="17" t="str">
         <f t="array" aca="1" ref="O21" ca="1">IFERROR(INDIRECT(MID($L21,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L21,O$1,1)&amp;($A$2)))),"")</f>
-        <v>收割者</v>
+        <v>支配者</v>
       </c>
       <c r="P21" s="17" t="str">
         <f t="array" aca="1" ref="P21" ca="1">IFERROR(INDIRECT(MID($L21,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L21,P$1,1)&amp;($A$2)))),"")</f>
@@ -53746,15 +53767,15 @@
       </c>
       <c r="M22" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>提莫玛乌斯圣者</v>
+        <v>瑞莱的收割者</v>
       </c>
       <c r="N22" s="17" t="str">
         <f t="array" aca="1" ref="N22" ca="1">IFERROR(INDIRECT(MID($L22,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L22,N$1,1)&amp;($A$2)))),"")</f>
-        <v>提莫玛乌斯</v>
+        <v>瑞莱的</v>
       </c>
       <c r="O22" s="17" t="str">
         <f t="array" aca="1" ref="O22" ca="1">IFERROR(INDIRECT(MID($L22,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L22,O$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>收割者</v>
       </c>
       <c r="P22" s="17" t="str">
         <f t="array" aca="1" ref="P22" ca="1">IFERROR(INDIRECT(MID($L22,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L22,P$1,1)&amp;($A$2)))),"")</f>
@@ -53800,15 +53821,15 @@
       </c>
       <c r="M23" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>狂暴狂暴者</v>
+        <v>坚韧守护者</v>
       </c>
       <c r="N23" s="17" t="str">
         <f t="array" aca="1" ref="N23" ca="1">IFERROR(INDIRECT(MID($L23,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L23,N$1,1)&amp;($A$2)))),"")</f>
-        <v>狂暴</v>
+        <v>坚韧</v>
       </c>
       <c r="O23" s="17" t="str">
         <f t="array" aca="1" ref="O23" ca="1">IFERROR(INDIRECT(MID($L23,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L23,O$1,1)&amp;($A$2)))),"")</f>
-        <v>狂暴者</v>
+        <v>守护者</v>
       </c>
       <c r="P23" s="17" t="str">
         <f t="array" aca="1" ref="P23" ca="1">IFERROR(INDIRECT(MID($L23,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L23,P$1,1)&amp;($A$2)))),"")</f>
@@ -53854,15 +53875,15 @@
       </c>
       <c r="M24" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>暴击圣者</v>
+        <v>格斗支配者</v>
       </c>
       <c r="N24" s="17" t="str">
         <f t="array" aca="1" ref="N24" ca="1">IFERROR(INDIRECT(MID($L24,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L24,N$1,1)&amp;($A$2)))),"")</f>
-        <v>暴击</v>
+        <v>格斗</v>
       </c>
       <c r="O24" s="17" t="str">
         <f t="array" aca="1" ref="O24" ca="1">IFERROR(INDIRECT(MID($L24,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L24,O$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>支配者</v>
       </c>
       <c r="P24" s="17" t="str">
         <f t="array" aca="1" ref="P24" ca="1">IFERROR(INDIRECT(MID($L24,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L24,P$1,1)&amp;($A$2)))),"")</f>
@@ -53908,15 +53929,15 @@
       </c>
       <c r="M25" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>魔女圣者</v>
+        <v>风魔狂暴者</v>
       </c>
       <c r="N25" s="17" t="str">
         <f t="array" aca="1" ref="N25" ca="1">IFERROR(INDIRECT(MID($L25,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L25,N$1,1)&amp;($A$2)))),"")</f>
-        <v>魔女</v>
+        <v>风魔</v>
       </c>
       <c r="O25" s="17" t="str">
         <f t="array" aca="1" ref="O25" ca="1">IFERROR(INDIRECT(MID($L25,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L25,O$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>狂暴者</v>
       </c>
       <c r="P25" s="17" t="str">
         <f t="array" aca="1" ref="P25" ca="1">IFERROR(INDIRECT(MID($L25,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L25,P$1,1)&amp;($A$2)))),"")</f>
@@ -53962,19 +53983,19 @@
       </c>
       <c r="M26" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>三相速击御法者</v>
+        <v>圆润憾天殉难者</v>
       </c>
       <c r="N26" s="17" t="str">
         <f t="array" aca="1" ref="N26" ca="1">IFERROR(INDIRECT(MID($L26,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L26,N$1,1)&amp;($A$2)))),"")</f>
-        <v>三相</v>
+        <v>圆润</v>
       </c>
       <c r="O26" s="17" t="str">
         <f t="array" aca="1" ref="O26" ca="1">IFERROR(INDIRECT(MID($L26,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L26,O$1,1)&amp;($A$2)))),"")</f>
-        <v>速击</v>
+        <v>憾天</v>
       </c>
       <c r="P26" s="17" t="str">
         <f t="array" aca="1" ref="P26" ca="1">IFERROR(INDIRECT(MID($L26,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L26,P$1,1)&amp;($A$2)))),"")</f>
-        <v>御法者</v>
+        <v>殉难者</v>
       </c>
       <c r="Q26" s="17" t="str">
         <f t="array" aca="1" ref="Q26" ca="1">IFERROR(INDIRECT(MID($L26,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L26,Q$1,1)&amp;($A$2)))),"")</f>
@@ -54016,19 +54037,19 @@
       </c>
       <c r="M27" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>格斗冰痕御法者</v>
+        <v>抗魔冰川贤者</v>
       </c>
       <c r="N27" s="17" t="str">
         <f t="array" aca="1" ref="N27" ca="1">IFERROR(INDIRECT(MID($L27,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L27,N$1,1)&amp;($A$2)))),"")</f>
-        <v>格斗</v>
+        <v>抗魔</v>
       </c>
       <c r="O27" s="17" t="str">
         <f t="array" aca="1" ref="O27" ca="1">IFERROR(INDIRECT(MID($L27,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L27,O$1,1)&amp;($A$2)))),"")</f>
-        <v>冰痕</v>
+        <v>冰川</v>
       </c>
       <c r="P27" s="17" t="str">
         <f t="array" aca="1" ref="P27" ca="1">IFERROR(INDIRECT(MID($L27,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L27,P$1,1)&amp;($A$2)))),"")</f>
-        <v>御法者</v>
+        <v>贤者</v>
       </c>
       <c r="Q27" s="17" t="str">
         <f t="array" aca="1" ref="Q27" ca="1">IFERROR(INDIRECT(MID($L27,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L27,Q$1,1)&amp;($A$2)))),"")</f>
@@ -54067,19 +54088,19 @@
       </c>
       <c r="M28" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>暴烈潮汐圣者</v>
+        <v>神速日冕守护者</v>
       </c>
       <c r="N28" s="17" t="str">
         <f t="array" aca="1" ref="N28" ca="1">IFERROR(INDIRECT(MID($L28,N$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L28,N$1,1)&amp;($A$2)))),"")</f>
-        <v>暴烈</v>
+        <v>神速</v>
       </c>
       <c r="O28" s="17" t="str">
         <f t="array" aca="1" ref="O28" ca="1">IFERROR(INDIRECT(MID($L28,O$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L28,O$1,1)&amp;($A$2)))),"")</f>
-        <v>潮汐</v>
+        <v>日冕</v>
       </c>
       <c r="P28" s="17" t="str">
         <f t="array" aca="1" ref="P28" ca="1">IFERROR(INDIRECT(MID($L28,P$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L28,P$1,1)&amp;($A$2)))),"")</f>
-        <v>圣者</v>
+        <v>守护者</v>
       </c>
       <c r="Q28" s="17" t="str">
         <f t="array" aca="1" ref="Q28" ca="1">IFERROR(INDIRECT(MID($L28,Q$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($L28,Q$1,1)&amp;($A$2)))),"")</f>
@@ -56319,7 +56340,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f t="array" aca="1" ref="J5" ca="1">IFERROR(INDIRECT(MID($I5,J$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($I5,J$1,1)&amp;($A$2)))),"")</f>
-        <v>艮卦六五：艮其辅，言有序，悔亡。</v>
+        <v>归妹六五：帝乙归妹，其君之袂不如其娣之袂良，月几望，吉。</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="array" aca="1" ref="L5" ca="1">IFERROR(INDIRECT(MID($I5,K$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($I5,K$1,1)&amp;($A$2)))),"")</f>
@@ -56360,11 +56381,11 @@
       </c>
       <c r="J6" s="7" t="str">
         <f ca="1">MID(J5,J$1,2)</f>
-        <v>艮卦</v>
+        <v>归妹</v>
       </c>
       <c r="K6" s="1" t="str">
         <f ca="1">VLOOKUP(J6,INDIRECT("C"&amp;$A$2+1):INDIRECT("D"&amp;D$2),2,FALSE)</f>
-        <v>卦辞：艮其背，不获其身，行其庭，不见其人，无咎。</v>
+        <v>卦辞：归妹，征凶，无攸利。</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="str">
@@ -56467,11 +56488,11 @@
       </c>
       <c r="J9" s="132" t="str">
         <f ca="1">MID(J10,J$1,4)</f>
-        <v>艮卦六五</v>
+        <v>归妹六五</v>
       </c>
       <c r="K9" s="133" t="str">
         <f ca="1">J6</f>
-        <v>艮卦</v>
+        <v>归妹</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -56486,11 +56507,11 @@
       </c>
       <c r="J10" s="134" t="str">
         <f ca="1">J5</f>
-        <v>艮卦六五：艮其辅，言有序，悔亡。</v>
+        <v>归妹六五：帝乙归妹，其君之袂不如其娣之袂良，月几望，吉。</v>
       </c>
       <c r="K10" s="135" t="str">
         <f ca="1">_xlfn.CONCAT(J6:K6)</f>
-        <v>艮卦卦辞：艮其背，不获其身，行其庭，不见其人，无咎。</v>
+        <v>归妹卦辞：归妹，征凶，无攸利。</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -58806,30 +58827,30 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="N2" s="303" t="s">
+      <c r="N2" s="291" t="s">
         <v>6065</v>
       </c>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="303" t="s">
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="291" t="s">
         <v>6066</v>
       </c>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="305"/>
-      <c r="V2" s="303" t="s">
+      <c r="S2" s="292"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="293"/>
+      <c r="V2" s="291" t="s">
         <v>6289</v>
       </c>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="305"/>
-      <c r="Z2" s="303" t="s">
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="291" t="s">
         <v>6290</v>
       </c>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="305"/>
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="292"/>
+      <c r="AC2" s="293"/>
     </row>
     <row r="3" spans="1:29" ht="155" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -58869,41 +58890,41 @@
         <f ca="1">RANDBETWEEN($A$2+1,D$2)-2</f>
         <v>25</v>
       </c>
-      <c r="O3" s="293" t="str" cm="1">
+      <c r="O3" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT("D"&amp;(N3+2))</f>
         <v>25.通奸淫行:两名通奸者，受欺之原配。</v>
       </c>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="294"/>
+      <c r="P3" s="361"/>
+      <c r="Q3" s="362"/>
       <c r="R3" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="308" t="str" cm="1">
+      <c r="S3" s="289" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDIRECT("B"&amp;(RANDBETWEEN($A$2+1,B$2)))</f>
-        <v>扮猪吃虎</v>
-      </c>
-      <c r="T3" s="308"/>
-      <c r="U3" s="309"/>
+        <v>金钱：掌握海量财富、得宝等</v>
+      </c>
+      <c r="T3" s="289"/>
+      <c r="U3" s="290"/>
       <c r="V3" s="215">
         <f ca="1">RANDBETWEEN($A$2+1,G$2)-2</f>
-        <v>12</v>
-      </c>
-      <c r="W3" s="293" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="W3" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">INDIRECT("G"&amp;(V3+2))</f>
-        <v>3、装逼打脸 </v>
-      </c>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="294"/>
+        <v>5、绝境逃脱 </v>
+      </c>
+      <c r="X3" s="361"/>
+      <c r="Y3" s="362"/>
       <c r="Z3" s="215">
         <f ca="1">RANDBETWEEN($A$2+1,I$2)-2</f>
-        <v>8</v>
-      </c>
-      <c r="AA3" s="293" t="str" cm="1">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="AA3" ca="1">INDIRECT("I"&amp;(Z3+2))</f>
-        <v>4、惩戒坏人 </v>
-      </c>
-      <c r="AB3" s="293"/>
-      <c r="AC3" s="294"/>
+        <v>11、报仇 </v>
+      </c>
+      <c r="AB3" s="361"/>
+      <c r="AC3" s="362"/>
     </row>
     <row r="4" spans="1:29" ht="155" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -58943,45 +58964,42 @@
         <f>剧情框架!$E$1</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="O4" s="295" t="str" cm="1">
+      <c r="O4" s="370" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT("E"&amp;(N3+2))</f>
         <v>例：妻子是耳聋眼瞎以后，丈夫时常带小三回家来寻欢作乐。</v>
       </c>
-      <c r="P4" s="295"/>
-      <c r="Q4" s="296"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="371"/>
       <c r="R4" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="295" t="str" cm="1">
+      <c r="S4" s="370" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDIRECT("C"&amp;(RANDBETWEEN($A$2+1,C$2)))</f>
-        <v>被派到主角身边打探情报、不情不愿的小弟或者美女，主角得知真相以后让其离开，前者却不愿分离</v>
-      </c>
-      <c r="T4" s="295"/>
-      <c r="U4" s="296"/>
+        <v>做出惊天动地的事情后轻描淡写的跟围观群众谈笑风生</v>
+      </c>
+      <c r="T4" s="370"/>
+      <c r="U4" s="371"/>
       <c r="V4" s="215" t="str">
         <f>剧情框架!$E$1</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="W4" s="295" t="str" cm="1">
+      <c r="W4" s="370" t="str" cm="1">
         <f t="array" aca="1" ref="W4" ca="1">INDIRECT("H"&amp;(V3+2))</f>
-        <v>主角不透露身份，让人以为很普通的人，结果谁都瞧不起的时候，一鸣惊人，让人惊叹不已。 
-例1：被人欺辱的时候，突然被什么人认了出来，结果场面瞬间扭转。 
-例2：所有人都将主角的小弟当成强者了，怠慢主角，结果扭头主角在关键时刻揭开了身份。 </v>
-      </c>
-      <c r="X4" s="295"/>
-      <c r="Y4" s="296"/>
+        <v>面对无法匹敌，如影随形的敌人，让读者感觉主角必死无疑，但却拼尽全力最终逃脱了，让读者松了口气。 </v>
+      </c>
+      <c r="X4" s="370"/>
+      <c r="Y4" s="371"/>
       <c r="Z4" s="215" t="str">
         <f>剧情框架!$E$1</f>
         <v>36种故事原型例子</v>
       </c>
-      <c r="AA4" s="295" t="str" cm="1">
+      <c r="AA4" s="370" t="str" cm="1">
         <f t="array" aca="1" ref="AA4" ca="1">INDIRECT("J"&amp;(Z3+2))</f>
-        <v>让人无比痛恨，没有任何底线的恶人，读者只想让他死的那种。 
-而且还不能轻易让他死，要经过羞辱，折磨，最后永远奴役。 
-同时还能合理抢夺这些恶人的东西。 </v>
-      </c>
-      <c r="AB4" s="295"/>
-      <c r="AC4" s="296"/>
+        <v>复仇的快感，结合自己痛恨的同学、领导、仇人，就能够想象到有多爽了。 
+前提要让读者也燃起对反派的仇恨，可以借鉴一些社会上非常恶劣的犯罪事件，那些毫无人性的恶性事件。 </v>
+      </c>
+      <c r="AB4" s="370"/>
+      <c r="AC4" s="371"/>
     </row>
     <row r="5" spans="1:29" ht="155" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -59019,43 +59037,43 @@
       </c>
       <c r="N5" s="215">
         <f ca="1">RANDBETWEEN($A$2+1,D$2)-2</f>
-        <v>10</v>
-      </c>
-      <c r="O5" s="293" t="str" cm="1">
+        <v>21</v>
+      </c>
+      <c r="O5" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("D"&amp;(N5+2))</f>
-        <v>10.绑架人质:绑票者，人质，看守者。</v>
-      </c>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="294"/>
+        <v>21.为亲牺牲:英雄，亲族，被牺牲之事物。</v>
+      </c>
+      <c r="P5" s="361"/>
+      <c r="Q5" s="362"/>
       <c r="R5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="308" t="str" cm="1">
+      <c r="S5" s="289" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDIRECT("B"&amp;(RANDBETWEEN($A$2+1,B$2)))</f>
-        <v>损人利己：</v>
-      </c>
-      <c r="T5" s="308"/>
-      <c r="U5" s="309"/>
+        <v>国家强盛，民族崛起：百年以来，白人领先所致的民族自卑感</v>
+      </c>
+      <c r="T5" s="289"/>
+      <c r="U5" s="290"/>
       <c r="V5" s="215">
         <f ca="1">RANDBETWEEN($A$2+1,G$2)-2</f>
-        <v>11</v>
-      </c>
-      <c r="W5" s="293" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="W5" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="W5" ca="1">INDIRECT("G"&amp;(V5+2))</f>
-        <v>2、扮猪吃虎 </v>
-      </c>
-      <c r="X5" s="293"/>
-      <c r="Y5" s="294"/>
+        <v>5、绝境逃脱 </v>
+      </c>
+      <c r="X5" s="361"/>
+      <c r="Y5" s="362"/>
       <c r="Z5" s="215">
         <f ca="1">RANDBETWEEN($A$2+1,I$2)-2</f>
-        <v>10</v>
-      </c>
-      <c r="AA5" s="293" t="str" cm="1">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="361" t="str" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDIRECT("I"&amp;(Z5+2))</f>
-        <v>6、力挽狂澜 </v>
-      </c>
-      <c r="AB5" s="293"/>
-      <c r="AC5" s="294"/>
+        <v>2、装逼打脸 </v>
+      </c>
+      <c r="AB5" s="361"/>
+      <c r="AC5" s="362"/>
     </row>
     <row r="6" spans="1:29" ht="155" customHeight="1" thickBot="1">
       <c r="B6" s="3" t="s">
@@ -59097,7 +59115,7 @@
       </c>
       <c r="O6" s="446" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT("E"&amp;(N5+2))</f>
-        <v>例:女主家经商，女二勾结匪徒把女主迷晕绑了当人质要钱，霸气女主醒来用内力挣断绳子，又把两个匪徒吊起来拷问。</v>
+        <v>例：反派马上就要刺死男主时，男主的母亲用身体挡在了男主前面。</v>
       </c>
       <c r="P6" s="446"/>
       <c r="Q6" s="447"/>
@@ -59106,7 +59124,7 @@
       </c>
       <c r="S6" s="446" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT("C"&amp;(RANDBETWEEN($A$2+1,C$2)))</f>
-        <v>短时间内完成让别人绝望的事情</v>
+        <v>主角跟一群性格古怪但实力高强的人称兄道弟</v>
       </c>
       <c r="T6" s="446"/>
       <c r="U6" s="447"/>
@@ -59116,8 +59134,7 @@
       </c>
       <c r="W6" s="446" t="str" cm="1">
         <f t="array" aca="1" ref="W6" ca="1">INDIRECT("H"&amp;(V5+2))</f>
-        <v>假装成普通人或者很弱的样子，被敌人小瞧，所有人都不看好，结果扭头就以雷霆手段打败敌人。 
-然后以之前敌人的话语嘲讽回去。 </v>
+        <v>面对无法匹敌，如影随形的敌人，让读者感觉主角必死无疑，但却拼尽全力最终逃脱了，让读者松了口气。 </v>
       </c>
       <c r="X6" s="446"/>
       <c r="Y6" s="447"/>
@@ -59127,8 +59144,9 @@
       </c>
       <c r="AA6" s="446" t="str" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1">INDIRECT("J"&amp;(Z5+2))</f>
-        <v>关键时刻出现，主角成为了人们眼中希望，独自力挽狂澜，挽救了众人。 
-或者是带领身边的人，从弱小一步步走向强大，成为人们眼中的英雄。 </v>
+        <v>主角不透露身份，让人以为很普通的人，结果谁都瞧不起的时候，一鸣惊人，让人惊叹不已。 
+例1：被人欺辱的时候，突然被什么人认了出来，结果场面瞬间扭转。 
+例2：所有人都将主角的小弟当成强者了，怠慢主角，结果扭头主角在关键时刻揭开了身份。 </v>
       </c>
       <c r="AB6" s="446"/>
       <c r="AC6" s="447"/>
@@ -60460,6 +60478,11 @@
     <sortCondition ref="K2:K133"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="V2:Y2"/>
@@ -60475,11 +60498,6 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AC6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60619,70 +60637,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="421" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="393" t="s">
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
+      <c r="I1" s="421"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="422" t="s">
         <v>5991</v>
       </c>
-      <c r="M1" s="394"/>
-      <c r="N1" s="394"/>
-      <c r="O1" s="394"/>
-      <c r="P1" s="394"/>
-      <c r="Q1" s="394"/>
-      <c r="R1" s="394"/>
+      <c r="M1" s="423"/>
+      <c r="N1" s="423"/>
+      <c r="O1" s="423"/>
+      <c r="P1" s="423"/>
+      <c r="Q1" s="423"/>
+      <c r="R1" s="423"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="392"/>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="394"/>
-      <c r="P2" s="394"/>
-      <c r="Q2" s="394"/>
-      <c r="R2" s="394"/>
+      <c r="A2" s="421"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="423"/>
+      <c r="Q2" s="423"/>
+      <c r="R2" s="423"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394"/>
-      <c r="R3" s="394"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="423"/>
+      <c r="R3" s="423"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -60693,23 +60711,23 @@
       <c r="A4" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="F4" s="396"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="394"/>
-      <c r="N4" s="394"/>
-      <c r="O4" s="394"/>
-      <c r="P4" s="394"/>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="394"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="423"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
+      <c r="O4" s="423"/>
+      <c r="P4" s="423"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="423"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -60720,217 +60738,217 @@
       <c r="A5" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="395"/>
-      <c r="C5" s="395"/>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="395"/>
-      <c r="G5" s="395"/>
-      <c r="H5" s="395"/>
-      <c r="I5" s="395"/>
-      <c r="J5" s="395"/>
-      <c r="K5" s="395"/>
-      <c r="L5" s="394"/>
-      <c r="M5" s="394"/>
-      <c r="N5" s="394"/>
-      <c r="O5" s="394"/>
-      <c r="P5" s="394"/>
-      <c r="Q5" s="394"/>
-      <c r="R5" s="394"/>
+      <c r="B5" s="400"/>
+      <c r="C5" s="400"/>
+      <c r="D5" s="400"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="400"/>
+      <c r="I5" s="400"/>
+      <c r="J5" s="400"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="423"/>
+      <c r="M5" s="423"/>
+      <c r="N5" s="423"/>
+      <c r="O5" s="423"/>
+      <c r="P5" s="423"/>
+      <c r="Q5" s="423"/>
+      <c r="R5" s="423"/>
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="396"/>
-      <c r="C6" s="396"/>
-      <c r="D6" s="396"/>
-      <c r="E6" s="396"/>
-      <c r="F6" s="396"/>
-      <c r="G6" s="396"/>
-      <c r="H6" s="396"/>
-      <c r="I6" s="396"/>
-      <c r="J6" s="396"/>
-      <c r="K6" s="396"/>
-      <c r="L6" s="394"/>
-      <c r="M6" s="394"/>
-      <c r="N6" s="394"/>
-      <c r="O6" s="394"/>
-      <c r="P6" s="394"/>
-      <c r="Q6" s="394"/>
-      <c r="R6" s="394"/>
+      <c r="B6" s="398"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="423"/>
+      <c r="M6" s="423"/>
+      <c r="N6" s="423"/>
+      <c r="O6" s="423"/>
+      <c r="P6" s="423"/>
+      <c r="Q6" s="423"/>
+      <c r="R6" s="423"/>
     </row>
     <row r="7" spans="1:23" ht="18" customHeight="1">
-      <c r="A7" s="397" t="s">
+      <c r="A7" s="424" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="398"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
-      <c r="N7" s="394"/>
-      <c r="O7" s="394"/>
-      <c r="P7" s="394"/>
-      <c r="Q7" s="394"/>
-      <c r="R7" s="394"/>
+      <c r="B7" s="425"/>
+      <c r="C7" s="426"/>
+      <c r="D7" s="426"/>
+      <c r="E7" s="426"/>
+      <c r="F7" s="426"/>
+      <c r="G7" s="426"/>
+      <c r="H7" s="426"/>
+      <c r="I7" s="426"/>
+      <c r="J7" s="426"/>
+      <c r="K7" s="426"/>
+      <c r="L7" s="423"/>
+      <c r="M7" s="423"/>
+      <c r="N7" s="423"/>
+      <c r="O7" s="423"/>
+      <c r="P7" s="423"/>
+      <c r="Q7" s="423"/>
+      <c r="R7" s="423"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="397"/>
-      <c r="B8" s="399"/>
-      <c r="C8" s="399"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="399"/>
-      <c r="F8" s="399"/>
-      <c r="G8" s="399"/>
-      <c r="H8" s="399"/>
-      <c r="I8" s="399"/>
-      <c r="J8" s="399"/>
-      <c r="K8" s="399"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="394"/>
-      <c r="O8" s="394"/>
-      <c r="P8" s="394"/>
-      <c r="Q8" s="394"/>
-      <c r="R8" s="394"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="426"/>
+      <c r="D8" s="426"/>
+      <c r="E8" s="426"/>
+      <c r="F8" s="426"/>
+      <c r="G8" s="426"/>
+      <c r="H8" s="426"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="426"/>
+      <c r="K8" s="426"/>
+      <c r="L8" s="423"/>
+      <c r="M8" s="423"/>
+      <c r="N8" s="423"/>
+      <c r="O8" s="423"/>
+      <c r="P8" s="423"/>
+      <c r="Q8" s="423"/>
+      <c r="R8" s="423"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="397"/>
-      <c r="B9" s="399"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="399"/>
-      <c r="H9" s="399"/>
-      <c r="I9" s="399"/>
-      <c r="J9" s="399"/>
-      <c r="K9" s="399"/>
-      <c r="L9" s="394"/>
-      <c r="M9" s="394"/>
-      <c r="N9" s="394"/>
-      <c r="O9" s="394"/>
-      <c r="P9" s="394"/>
-      <c r="Q9" s="394"/>
-      <c r="R9" s="394"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="426"/>
+      <c r="C9" s="426"/>
+      <c r="D9" s="426"/>
+      <c r="E9" s="426"/>
+      <c r="F9" s="426"/>
+      <c r="G9" s="426"/>
+      <c r="H9" s="426"/>
+      <c r="I9" s="426"/>
+      <c r="J9" s="426"/>
+      <c r="K9" s="426"/>
+      <c r="L9" s="423"/>
+      <c r="M9" s="423"/>
+      <c r="N9" s="423"/>
+      <c r="O9" s="423"/>
+      <c r="P9" s="423"/>
+      <c r="Q9" s="423"/>
+      <c r="R9" s="423"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="397"/>
-      <c r="B10" s="399"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="399"/>
-      <c r="H10" s="399"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="399"/>
-      <c r="K10" s="399"/>
-      <c r="L10" s="391" t="s">
+      <c r="A10" s="424"/>
+      <c r="B10" s="426"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="426"/>
+      <c r="F10" s="426"/>
+      <c r="G10" s="426"/>
+      <c r="H10" s="426"/>
+      <c r="I10" s="426"/>
+      <c r="J10" s="426"/>
+      <c r="K10" s="426"/>
+      <c r="L10" s="420" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="391"/>
-      <c r="N10" s="391"/>
-      <c r="O10" s="391"/>
-      <c r="P10" s="391"/>
-      <c r="Q10" s="391"/>
-      <c r="R10" s="391"/>
+      <c r="M10" s="420"/>
+      <c r="N10" s="420"/>
+      <c r="O10" s="420"/>
+      <c r="P10" s="420"/>
+      <c r="Q10" s="420"/>
+      <c r="R10" s="420"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="397"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="399"/>
-      <c r="D11" s="399"/>
-      <c r="E11" s="399"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="399"/>
-      <c r="H11" s="399"/>
-      <c r="I11" s="399"/>
-      <c r="J11" s="399"/>
-      <c r="K11" s="399"/>
-      <c r="L11" s="391"/>
-      <c r="M11" s="391"/>
-      <c r="N11" s="391"/>
-      <c r="O11" s="391"/>
-      <c r="P11" s="391"/>
-      <c r="Q11" s="391"/>
-      <c r="R11" s="391"/>
+      <c r="A11" s="424"/>
+      <c r="B11" s="426"/>
+      <c r="C11" s="426"/>
+      <c r="D11" s="426"/>
+      <c r="E11" s="426"/>
+      <c r="F11" s="426"/>
+      <c r="G11" s="426"/>
+      <c r="H11" s="426"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="426"/>
+      <c r="K11" s="426"/>
+      <c r="L11" s="420"/>
+      <c r="M11" s="420"/>
+      <c r="N11" s="420"/>
+      <c r="O11" s="420"/>
+      <c r="P11" s="420"/>
+      <c r="Q11" s="420"/>
+      <c r="R11" s="420"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="400" t="s">
+      <c r="A12" s="407" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="401" t="s">
+      <c r="B12" s="427" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="402"/>
-      <c r="D12" s="402"/>
-      <c r="E12" s="402"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="402"/>
-      <c r="H12" s="402"/>
-      <c r="I12" s="402"/>
-      <c r="J12" s="402"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="391"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="391"/>
-      <c r="O12" s="391"/>
-      <c r="P12" s="391"/>
-      <c r="Q12" s="391"/>
-      <c r="R12" s="391"/>
+      <c r="C12" s="428"/>
+      <c r="D12" s="428"/>
+      <c r="E12" s="428"/>
+      <c r="F12" s="428"/>
+      <c r="G12" s="428"/>
+      <c r="H12" s="428"/>
+      <c r="I12" s="428"/>
+      <c r="J12" s="428"/>
+      <c r="K12" s="428"/>
+      <c r="L12" s="420"/>
+      <c r="M12" s="420"/>
+      <c r="N12" s="420"/>
+      <c r="O12" s="420"/>
+      <c r="P12" s="420"/>
+      <c r="Q12" s="420"/>
+      <c r="R12" s="420"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="400"/>
-      <c r="B13" s="401" t="s">
+      <c r="A13" s="407"/>
+      <c r="B13" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="402"/>
-      <c r="D13" s="402"/>
-      <c r="E13" s="402"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="402"/>
-      <c r="H13" s="402"/>
-      <c r="I13" s="402"/>
-      <c r="J13" s="402"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="391"/>
-      <c r="M13" s="391"/>
-      <c r="N13" s="391"/>
-      <c r="O13" s="391"/>
-      <c r="P13" s="391"/>
-      <c r="Q13" s="391"/>
-      <c r="R13" s="391"/>
+      <c r="C13" s="428"/>
+      <c r="D13" s="428"/>
+      <c r="E13" s="428"/>
+      <c r="F13" s="428"/>
+      <c r="G13" s="428"/>
+      <c r="H13" s="428"/>
+      <c r="I13" s="428"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="428"/>
+      <c r="L13" s="420"/>
+      <c r="M13" s="420"/>
+      <c r="N13" s="420"/>
+      <c r="O13" s="420"/>
+      <c r="P13" s="420"/>
+      <c r="Q13" s="420"/>
+      <c r="R13" s="420"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="400"/>
-      <c r="B14" s="401" t="s">
+      <c r="A14" s="407"/>
+      <c r="B14" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="402"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="402"/>
-      <c r="F14" s="402"/>
-      <c r="G14" s="402"/>
-      <c r="H14" s="402"/>
-      <c r="I14" s="402"/>
-      <c r="J14" s="402"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="391"/>
-      <c r="M14" s="391"/>
-      <c r="N14" s="391"/>
-      <c r="O14" s="391"/>
-      <c r="P14" s="391"/>
-      <c r="Q14" s="391"/>
-      <c r="R14" s="391"/>
+      <c r="C14" s="428"/>
+      <c r="D14" s="428"/>
+      <c r="E14" s="428"/>
+      <c r="F14" s="428"/>
+      <c r="G14" s="428"/>
+      <c r="H14" s="428"/>
+      <c r="I14" s="428"/>
+      <c r="J14" s="428"/>
+      <c r="K14" s="428"/>
+      <c r="L14" s="420"/>
+      <c r="M14" s="420"/>
+      <c r="N14" s="420"/>
+      <c r="O14" s="420"/>
+      <c r="P14" s="420"/>
+      <c r="Q14" s="420"/>
+      <c r="R14" s="420"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -60938,19 +60956,19 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1">
-      <c r="A15" s="410" t="s">
+      <c r="A15" s="399" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="403"/>
-      <c r="C15" s="404"/>
-      <c r="D15" s="404"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="404"/>
-      <c r="G15" s="404"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="404"/>
-      <c r="J15" s="404"/>
-      <c r="K15" s="405"/>
+      <c r="B15" s="391"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="392"/>
+      <c r="H15" s="392"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="392"/>
+      <c r="K15" s="393"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -60965,17 +60983,17 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1">
-      <c r="A16" s="410"/>
-      <c r="B16" s="406"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="406"/>
-      <c r="E16" s="406"/>
-      <c r="F16" s="406"/>
-      <c r="G16" s="406"/>
-      <c r="H16" s="406"/>
-      <c r="I16" s="406"/>
-      <c r="J16" s="406"/>
-      <c r="K16" s="407"/>
+      <c r="A16" s="399"/>
+      <c r="B16" s="394"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="394"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="394"/>
+      <c r="K16" s="395"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -60990,17 +61008,17 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" ht="21" customHeight="1">
-      <c r="A17" s="410"/>
-      <c r="B17" s="406"/>
-      <c r="C17" s="406"/>
-      <c r="D17" s="406"/>
-      <c r="E17" s="406"/>
-      <c r="F17" s="406"/>
-      <c r="G17" s="406"/>
-      <c r="H17" s="406"/>
-      <c r="I17" s="406"/>
-      <c r="J17" s="406"/>
-      <c r="K17" s="407"/>
+      <c r="A17" s="399"/>
+      <c r="B17" s="394"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="395"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -61015,17 +61033,17 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1">
-      <c r="A18" s="410"/>
-      <c r="B18" s="406"/>
-      <c r="C18" s="406"/>
-      <c r="D18" s="406"/>
-      <c r="E18" s="406"/>
-      <c r="F18" s="406"/>
-      <c r="G18" s="406"/>
-      <c r="H18" s="406"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="406"/>
-      <c r="K18" s="407"/>
+      <c r="A18" s="399"/>
+      <c r="B18" s="394"/>
+      <c r="C18" s="394"/>
+      <c r="D18" s="394"/>
+      <c r="E18" s="394"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="394"/>
+      <c r="I18" s="394"/>
+      <c r="J18" s="394"/>
+      <c r="K18" s="395"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -61040,17 +61058,17 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" ht="21" customHeight="1">
-      <c r="A19" s="410"/>
-      <c r="B19" s="408"/>
-      <c r="C19" s="408"/>
-      <c r="D19" s="408"/>
-      <c r="E19" s="408"/>
-      <c r="F19" s="408"/>
-      <c r="G19" s="408"/>
-      <c r="H19" s="408"/>
-      <c r="I19" s="408"/>
-      <c r="J19" s="408"/>
-      <c r="K19" s="409"/>
+      <c r="A19" s="399"/>
+      <c r="B19" s="396"/>
+      <c r="C19" s="396"/>
+      <c r="D19" s="396"/>
+      <c r="E19" s="396"/>
+      <c r="F19" s="396"/>
+      <c r="G19" s="396"/>
+      <c r="H19" s="396"/>
+      <c r="I19" s="396"/>
+      <c r="J19" s="396"/>
+      <c r="K19" s="397"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -61065,19 +61083,19 @@
       <c r="W19" s="13"/>
     </row>
     <row r="20" spans="1:23" ht="25" customHeight="1">
-      <c r="A20" s="419" t="s">
+      <c r="A20" s="410" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="420"/>
-      <c r="C20" s="421"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="421"/>
-      <c r="F20" s="421"/>
-      <c r="G20" s="421"/>
-      <c r="H20" s="421"/>
-      <c r="I20" s="421"/>
-      <c r="J20" s="421"/>
-      <c r="K20" s="422"/>
+      <c r="B20" s="411"/>
+      <c r="C20" s="412"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="412"/>
+      <c r="F20" s="412"/>
+      <c r="G20" s="412"/>
+      <c r="H20" s="412"/>
+      <c r="I20" s="412"/>
+      <c r="J20" s="412"/>
+      <c r="K20" s="413"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -61085,17 +61103,17 @@
       <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" ht="25" customHeight="1">
-      <c r="A21" s="419"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="424"/>
-      <c r="D21" s="424"/>
-      <c r="E21" s="424"/>
-      <c r="F21" s="424"/>
-      <c r="G21" s="424"/>
-      <c r="H21" s="424"/>
-      <c r="I21" s="424"/>
-      <c r="J21" s="424"/>
-      <c r="K21" s="425"/>
+      <c r="A21" s="410"/>
+      <c r="B21" s="414"/>
+      <c r="C21" s="415"/>
+      <c r="D21" s="415"/>
+      <c r="E21" s="415"/>
+      <c r="F21" s="415"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="415"/>
+      <c r="I21" s="415"/>
+      <c r="J21" s="415"/>
+      <c r="K21" s="416"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
@@ -61103,17 +61121,17 @@
       <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" ht="25" customHeight="1">
-      <c r="A22" s="419"/>
-      <c r="B22" s="423"/>
-      <c r="C22" s="424"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="424"/>
-      <c r="F22" s="424"/>
-      <c r="G22" s="424"/>
-      <c r="H22" s="424"/>
-      <c r="I22" s="424"/>
-      <c r="J22" s="424"/>
-      <c r="K22" s="425"/>
+      <c r="A22" s="410"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="415"/>
+      <c r="D22" s="415"/>
+      <c r="E22" s="415"/>
+      <c r="F22" s="415"/>
+      <c r="G22" s="415"/>
+      <c r="H22" s="415"/>
+      <c r="I22" s="415"/>
+      <c r="J22" s="415"/>
+      <c r="K22" s="416"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
@@ -61121,17 +61139,17 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" ht="25" customHeight="1">
-      <c r="A23" s="419"/>
-      <c r="B23" s="423"/>
-      <c r="C23" s="424"/>
-      <c r="D23" s="424"/>
-      <c r="E23" s="424"/>
-      <c r="F23" s="424"/>
-      <c r="G23" s="424"/>
-      <c r="H23" s="424"/>
-      <c r="I23" s="424"/>
-      <c r="J23" s="424"/>
-      <c r="K23" s="425"/>
+      <c r="A23" s="410"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="415"/>
+      <c r="D23" s="415"/>
+      <c r="E23" s="415"/>
+      <c r="F23" s="415"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="415"/>
+      <c r="I23" s="415"/>
+      <c r="J23" s="415"/>
+      <c r="K23" s="416"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
@@ -61139,400 +61157,413 @@
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="1:23" ht="25" customHeight="1">
-      <c r="A24" s="419"/>
-      <c r="B24" s="423"/>
-      <c r="C24" s="424"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="424"/>
-      <c r="F24" s="424"/>
-      <c r="G24" s="424"/>
-      <c r="H24" s="424"/>
-      <c r="I24" s="424"/>
-      <c r="J24" s="424"/>
-      <c r="K24" s="425"/>
+      <c r="A24" s="410"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="415"/>
+      <c r="E24" s="415"/>
+      <c r="F24" s="415"/>
+      <c r="G24" s="415"/>
+      <c r="H24" s="415"/>
+      <c r="I24" s="415"/>
+      <c r="J24" s="415"/>
+      <c r="K24" s="416"/>
     </row>
     <row r="25" spans="1:23" ht="25" customHeight="1">
-      <c r="A25" s="419"/>
-      <c r="B25" s="423"/>
-      <c r="C25" s="424"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="424"/>
-      <c r="F25" s="424"/>
-      <c r="G25" s="424"/>
-      <c r="H25" s="424"/>
-      <c r="I25" s="424"/>
-      <c r="J25" s="424"/>
-      <c r="K25" s="425"/>
+      <c r="A25" s="410"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="415"/>
+      <c r="D25" s="415"/>
+      <c r="E25" s="415"/>
+      <c r="F25" s="415"/>
+      <c r="G25" s="415"/>
+      <c r="H25" s="415"/>
+      <c r="I25" s="415"/>
+      <c r="J25" s="415"/>
+      <c r="K25" s="416"/>
     </row>
     <row r="26" spans="1:23" ht="25" customHeight="1">
-      <c r="A26" s="419"/>
-      <c r="B26" s="423"/>
-      <c r="C26" s="424"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="424"/>
-      <c r="F26" s="424"/>
-      <c r="G26" s="424"/>
-      <c r="H26" s="424"/>
-      <c r="I26" s="424"/>
-      <c r="J26" s="424"/>
-      <c r="K26" s="425"/>
+      <c r="A26" s="410"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="415"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="415"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="415"/>
+      <c r="H26" s="415"/>
+      <c r="I26" s="415"/>
+      <c r="J26" s="415"/>
+      <c r="K26" s="416"/>
     </row>
     <row r="27" spans="1:23" ht="25" customHeight="1">
-      <c r="A27" s="419"/>
-      <c r="B27" s="426"/>
-      <c r="C27" s="427"/>
-      <c r="D27" s="427"/>
-      <c r="E27" s="427"/>
-      <c r="F27" s="427"/>
-      <c r="G27" s="427"/>
-      <c r="H27" s="427"/>
-      <c r="I27" s="427"/>
-      <c r="J27" s="427"/>
-      <c r="K27" s="428"/>
+      <c r="A27" s="410"/>
+      <c r="B27" s="417"/>
+      <c r="C27" s="418"/>
+      <c r="D27" s="418"/>
+      <c r="E27" s="418"/>
+      <c r="F27" s="418"/>
+      <c r="G27" s="418"/>
+      <c r="H27" s="418"/>
+      <c r="I27" s="418"/>
+      <c r="J27" s="418"/>
+      <c r="K27" s="419"/>
     </row>
     <row r="28" spans="1:23" ht="29" customHeight="1">
       <c r="A28" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="411"/>
-      <c r="C28" s="412"/>
-      <c r="D28" s="412"/>
-      <c r="E28" s="412"/>
-      <c r="F28" s="412"/>
-      <c r="G28" s="412"/>
-      <c r="H28" s="412"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="412"/>
-      <c r="K28" s="413"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="402"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="402"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="402"/>
+      <c r="I28" s="402"/>
+      <c r="J28" s="402"/>
+      <c r="K28" s="403"/>
     </row>
     <row r="29" spans="1:23" ht="29" customHeight="1">
       <c r="A29" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="414"/>
-      <c r="C29" s="415"/>
-      <c r="D29" s="415"/>
-      <c r="E29" s="415"/>
-      <c r="F29" s="415"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="415"/>
-      <c r="I29" s="415"/>
-      <c r="J29" s="415"/>
-      <c r="K29" s="416"/>
+      <c r="B29" s="404"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="405"/>
+      <c r="E29" s="405"/>
+      <c r="F29" s="405"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
+      <c r="K29" s="406"/>
     </row>
     <row r="30" spans="1:23" ht="29" customHeight="1">
       <c r="A30" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="411"/>
-      <c r="C30" s="412"/>
-      <c r="D30" s="412"/>
-      <c r="E30" s="412"/>
-      <c r="F30" s="412"/>
-      <c r="G30" s="412"/>
-      <c r="H30" s="412"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-      <c r="K30" s="413"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="402"/>
+      <c r="H30" s="402"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
+      <c r="K30" s="403"/>
     </row>
     <row r="31" spans="1:23" ht="29" customHeight="1">
-      <c r="A31" s="400" t="s">
+      <c r="A31" s="407" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="417"/>
-      <c r="C31" s="417"/>
-      <c r="D31" s="417"/>
-      <c r="E31" s="417"/>
-      <c r="F31" s="417"/>
-      <c r="G31" s="417"/>
-      <c r="H31" s="417"/>
-      <c r="I31" s="417"/>
-      <c r="J31" s="417"/>
-      <c r="K31" s="417"/>
+      <c r="B31" s="408"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="408"/>
+      <c r="F31" s="408"/>
+      <c r="G31" s="408"/>
+      <c r="H31" s="408"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="408"/>
+      <c r="K31" s="408"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="400"/>
-      <c r="B32" s="417"/>
-      <c r="C32" s="417"/>
-      <c r="D32" s="417"/>
-      <c r="E32" s="417"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="417"/>
-      <c r="H32" s="417"/>
-      <c r="I32" s="417"/>
-      <c r="J32" s="417"/>
-      <c r="K32" s="417"/>
+      <c r="A32" s="407"/>
+      <c r="B32" s="408"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="408"/>
+      <c r="E32" s="408"/>
+      <c r="F32" s="408"/>
+      <c r="G32" s="408"/>
+      <c r="H32" s="408"/>
+      <c r="I32" s="408"/>
+      <c r="J32" s="408"/>
+      <c r="K32" s="408"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="400"/>
-      <c r="B33" s="417"/>
-      <c r="C33" s="417"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="417"/>
-      <c r="F33" s="417"/>
-      <c r="G33" s="417"/>
-      <c r="H33" s="417"/>
-      <c r="I33" s="417"/>
-      <c r="J33" s="417"/>
-      <c r="K33" s="417"/>
+      <c r="A33" s="407"/>
+      <c r="B33" s="408"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="408"/>
+      <c r="E33" s="408"/>
+      <c r="F33" s="408"/>
+      <c r="G33" s="408"/>
+      <c r="H33" s="408"/>
+      <c r="I33" s="408"/>
+      <c r="J33" s="408"/>
+      <c r="K33" s="408"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="410" t="s">
+      <c r="A34" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="418"/>
-      <c r="C34" s="418"/>
-      <c r="D34" s="418"/>
-      <c r="E34" s="418"/>
-      <c r="F34" s="418"/>
-      <c r="G34" s="418"/>
-      <c r="H34" s="418"/>
-      <c r="I34" s="418"/>
-      <c r="J34" s="418"/>
-      <c r="K34" s="418"/>
+      <c r="B34" s="409"/>
+      <c r="C34" s="409"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="409"/>
+      <c r="F34" s="409"/>
+      <c r="G34" s="409"/>
+      <c r="H34" s="409"/>
+      <c r="I34" s="409"/>
+      <c r="J34" s="409"/>
+      <c r="K34" s="409"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="410"/>
-      <c r="B35" s="418"/>
-      <c r="C35" s="418"/>
-      <c r="D35" s="418"/>
-      <c r="E35" s="418"/>
-      <c r="F35" s="418"/>
-      <c r="G35" s="418"/>
-      <c r="H35" s="418"/>
-      <c r="I35" s="418"/>
-      <c r="J35" s="418"/>
-      <c r="K35" s="418"/>
+      <c r="A35" s="399"/>
+      <c r="B35" s="409"/>
+      <c r="C35" s="409"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="409"/>
+      <c r="F35" s="409"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
+      <c r="I35" s="409"/>
+      <c r="J35" s="409"/>
+      <c r="K35" s="409"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="410"/>
-      <c r="B36" s="418"/>
-      <c r="C36" s="418"/>
-      <c r="D36" s="418"/>
-      <c r="E36" s="418"/>
-      <c r="F36" s="418"/>
-      <c r="G36" s="418"/>
-      <c r="H36" s="418"/>
-      <c r="I36" s="418"/>
-      <c r="J36" s="418"/>
-      <c r="K36" s="418"/>
+      <c r="A36" s="399"/>
+      <c r="B36" s="409"/>
+      <c r="C36" s="409"/>
+      <c r="D36" s="409"/>
+      <c r="E36" s="409"/>
+      <c r="F36" s="409"/>
+      <c r="G36" s="409"/>
+      <c r="H36" s="409"/>
+      <c r="I36" s="409"/>
+      <c r="J36" s="409"/>
+      <c r="K36" s="409"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="410"/>
-      <c r="B37" s="418"/>
-      <c r="C37" s="418"/>
-      <c r="D37" s="418"/>
-      <c r="E37" s="418"/>
-      <c r="F37" s="418"/>
-      <c r="G37" s="418"/>
-      <c r="H37" s="418"/>
-      <c r="I37" s="418"/>
-      <c r="J37" s="418"/>
-      <c r="K37" s="418"/>
+      <c r="A37" s="399"/>
+      <c r="B37" s="409"/>
+      <c r="C37" s="409"/>
+      <c r="D37" s="409"/>
+      <c r="E37" s="409"/>
+      <c r="F37" s="409"/>
+      <c r="G37" s="409"/>
+      <c r="H37" s="409"/>
+      <c r="I37" s="409"/>
+      <c r="J37" s="409"/>
+      <c r="K37" s="409"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="410"/>
-      <c r="B38" s="418"/>
-      <c r="C38" s="418"/>
-      <c r="D38" s="418"/>
-      <c r="E38" s="418"/>
-      <c r="F38" s="418"/>
-      <c r="G38" s="418"/>
-      <c r="H38" s="418"/>
-      <c r="I38" s="418"/>
-      <c r="J38" s="418"/>
-      <c r="K38" s="418"/>
+      <c r="A38" s="399"/>
+      <c r="B38" s="409"/>
+      <c r="C38" s="409"/>
+      <c r="D38" s="409"/>
+      <c r="E38" s="409"/>
+      <c r="F38" s="409"/>
+      <c r="G38" s="409"/>
+      <c r="H38" s="409"/>
+      <c r="I38" s="409"/>
+      <c r="J38" s="409"/>
+      <c r="K38" s="409"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="410"/>
-      <c r="B39" s="418"/>
-      <c r="C39" s="418"/>
-      <c r="D39" s="418"/>
-      <c r="E39" s="418"/>
-      <c r="F39" s="418"/>
-      <c r="G39" s="418"/>
-      <c r="H39" s="418"/>
-      <c r="I39" s="418"/>
-      <c r="J39" s="418"/>
-      <c r="K39" s="418"/>
+      <c r="A39" s="399"/>
+      <c r="B39" s="409"/>
+      <c r="C39" s="409"/>
+      <c r="D39" s="409"/>
+      <c r="E39" s="409"/>
+      <c r="F39" s="409"/>
+      <c r="G39" s="409"/>
+      <c r="H39" s="409"/>
+      <c r="I39" s="409"/>
+      <c r="J39" s="409"/>
+      <c r="K39" s="409"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="410"/>
-      <c r="B40" s="418"/>
-      <c r="C40" s="418"/>
-      <c r="D40" s="418"/>
-      <c r="E40" s="418"/>
-      <c r="F40" s="418"/>
-      <c r="G40" s="418"/>
-      <c r="H40" s="418"/>
-      <c r="I40" s="418"/>
-      <c r="J40" s="418"/>
-      <c r="K40" s="418"/>
+      <c r="A40" s="399"/>
+      <c r="B40" s="409"/>
+      <c r="C40" s="409"/>
+      <c r="D40" s="409"/>
+      <c r="E40" s="409"/>
+      <c r="F40" s="409"/>
+      <c r="G40" s="409"/>
+      <c r="H40" s="409"/>
+      <c r="I40" s="409"/>
+      <c r="J40" s="409"/>
+      <c r="K40" s="409"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="410"/>
-      <c r="B41" s="418"/>
-      <c r="C41" s="418"/>
-      <c r="D41" s="418"/>
-      <c r="E41" s="418"/>
-      <c r="F41" s="418"/>
-      <c r="G41" s="418"/>
-      <c r="H41" s="418"/>
-      <c r="I41" s="418"/>
-      <c r="J41" s="418"/>
-      <c r="K41" s="418"/>
+      <c r="A41" s="399"/>
+      <c r="B41" s="409"/>
+      <c r="C41" s="409"/>
+      <c r="D41" s="409"/>
+      <c r="E41" s="409"/>
+      <c r="F41" s="409"/>
+      <c r="G41" s="409"/>
+      <c r="H41" s="409"/>
+      <c r="I41" s="409"/>
+      <c r="J41" s="409"/>
+      <c r="K41" s="409"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="410"/>
-      <c r="B42" s="418"/>
-      <c r="C42" s="418"/>
-      <c r="D42" s="418"/>
-      <c r="E42" s="418"/>
-      <c r="F42" s="418"/>
-      <c r="G42" s="418"/>
-      <c r="H42" s="418"/>
-      <c r="I42" s="418"/>
-      <c r="J42" s="418"/>
-      <c r="K42" s="418"/>
+      <c r="A42" s="399"/>
+      <c r="B42" s="409"/>
+      <c r="C42" s="409"/>
+      <c r="D42" s="409"/>
+      <c r="E42" s="409"/>
+      <c r="F42" s="409"/>
+      <c r="G42" s="409"/>
+      <c r="H42" s="409"/>
+      <c r="I42" s="409"/>
+      <c r="J42" s="409"/>
+      <c r="K42" s="409"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="410"/>
-      <c r="B43" s="418"/>
-      <c r="C43" s="418"/>
-      <c r="D43" s="418"/>
-      <c r="E43" s="418"/>
-      <c r="F43" s="418"/>
-      <c r="G43" s="418"/>
-      <c r="H43" s="418"/>
-      <c r="I43" s="418"/>
-      <c r="J43" s="418"/>
-      <c r="K43" s="418"/>
+      <c r="A43" s="399"/>
+      <c r="B43" s="409"/>
+      <c r="C43" s="409"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="409"/>
+      <c r="F43" s="409"/>
+      <c r="G43" s="409"/>
+      <c r="H43" s="409"/>
+      <c r="I43" s="409"/>
+      <c r="J43" s="409"/>
+      <c r="K43" s="409"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="410"/>
-      <c r="B44" s="418"/>
-      <c r="C44" s="418"/>
-      <c r="D44" s="418"/>
-      <c r="E44" s="418"/>
-      <c r="F44" s="418"/>
-      <c r="G44" s="418"/>
-      <c r="H44" s="418"/>
-      <c r="I44" s="418"/>
-      <c r="J44" s="418"/>
-      <c r="K44" s="418"/>
+      <c r="A44" s="399"/>
+      <c r="B44" s="409"/>
+      <c r="C44" s="409"/>
+      <c r="D44" s="409"/>
+      <c r="E44" s="409"/>
+      <c r="F44" s="409"/>
+      <c r="G44" s="409"/>
+      <c r="H44" s="409"/>
+      <c r="I44" s="409"/>
+      <c r="J44" s="409"/>
+      <c r="K44" s="409"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="410"/>
-      <c r="B45" s="418"/>
-      <c r="C45" s="418"/>
-      <c r="D45" s="418"/>
-      <c r="E45" s="418"/>
-      <c r="F45" s="418"/>
-      <c r="G45" s="418"/>
-      <c r="H45" s="418"/>
-      <c r="I45" s="418"/>
-      <c r="J45" s="418"/>
-      <c r="K45" s="418"/>
+      <c r="A45" s="399"/>
+      <c r="B45" s="409"/>
+      <c r="C45" s="409"/>
+      <c r="D45" s="409"/>
+      <c r="E45" s="409"/>
+      <c r="F45" s="409"/>
+      <c r="G45" s="409"/>
+      <c r="H45" s="409"/>
+      <c r="I45" s="409"/>
+      <c r="J45" s="409"/>
+      <c r="K45" s="409"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="410"/>
-      <c r="B46" s="418"/>
-      <c r="C46" s="418"/>
-      <c r="D46" s="418"/>
-      <c r="E46" s="418"/>
-      <c r="F46" s="418"/>
-      <c r="G46" s="418"/>
-      <c r="H46" s="418"/>
-      <c r="I46" s="418"/>
-      <c r="J46" s="418"/>
-      <c r="K46" s="418"/>
+      <c r="A46" s="399"/>
+      <c r="B46" s="409"/>
+      <c r="C46" s="409"/>
+      <c r="D46" s="409"/>
+      <c r="E46" s="409"/>
+      <c r="F46" s="409"/>
+      <c r="G46" s="409"/>
+      <c r="H46" s="409"/>
+      <c r="I46" s="409"/>
+      <c r="J46" s="409"/>
+      <c r="K46" s="409"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="396"/>
-      <c r="C47" s="396"/>
-      <c r="D47" s="396"/>
-      <c r="E47" s="396"/>
-      <c r="F47" s="396"/>
-      <c r="G47" s="396"/>
-      <c r="H47" s="396"/>
-      <c r="I47" s="396"/>
-      <c r="J47" s="396"/>
-      <c r="K47" s="396"/>
+      <c r="B47" s="398"/>
+      <c r="C47" s="398"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="398"/>
+      <c r="F47" s="398"/>
+      <c r="G47" s="398"/>
+      <c r="H47" s="398"/>
+      <c r="I47" s="398"/>
+      <c r="J47" s="398"/>
+      <c r="K47" s="398"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="410" t="s">
+      <c r="A48" s="399" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="395"/>
-      <c r="C48" s="395"/>
-      <c r="D48" s="395"/>
-      <c r="E48" s="395"/>
-      <c r="F48" s="395"/>
-      <c r="G48" s="395"/>
-      <c r="H48" s="395"/>
-      <c r="I48" s="395"/>
-      <c r="J48" s="395"/>
-      <c r="K48" s="395"/>
+      <c r="B48" s="400"/>
+      <c r="C48" s="400"/>
+      <c r="D48" s="400"/>
+      <c r="E48" s="400"/>
+      <c r="F48" s="400"/>
+      <c r="G48" s="400"/>
+      <c r="H48" s="400"/>
+      <c r="I48" s="400"/>
+      <c r="J48" s="400"/>
+      <c r="K48" s="400"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="410"/>
-      <c r="B49" s="395"/>
-      <c r="C49" s="395"/>
-      <c r="D49" s="395"/>
-      <c r="E49" s="395"/>
-      <c r="F49" s="395"/>
-      <c r="G49" s="395"/>
-      <c r="H49" s="395"/>
-      <c r="I49" s="395"/>
-      <c r="J49" s="395"/>
-      <c r="K49" s="395"/>
+      <c r="A49" s="399"/>
+      <c r="B49" s="400"/>
+      <c r="C49" s="400"/>
+      <c r="D49" s="400"/>
+      <c r="E49" s="400"/>
+      <c r="F49" s="400"/>
+      <c r="G49" s="400"/>
+      <c r="H49" s="400"/>
+      <c r="I49" s="400"/>
+      <c r="J49" s="400"/>
+      <c r="K49" s="400"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="410"/>
-      <c r="B50" s="395"/>
-      <c r="C50" s="395"/>
-      <c r="D50" s="395"/>
-      <c r="E50" s="395"/>
-      <c r="F50" s="395"/>
-      <c r="G50" s="395"/>
-      <c r="H50" s="395"/>
-      <c r="I50" s="395"/>
-      <c r="J50" s="395"/>
-      <c r="K50" s="395"/>
+      <c r="A50" s="399"/>
+      <c r="B50" s="400"/>
+      <c r="C50" s="400"/>
+      <c r="D50" s="400"/>
+      <c r="E50" s="400"/>
+      <c r="F50" s="400"/>
+      <c r="G50" s="400"/>
+      <c r="H50" s="400"/>
+      <c r="I50" s="400"/>
+      <c r="J50" s="400"/>
+      <c r="K50" s="400"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="410"/>
-      <c r="B51" s="395"/>
-      <c r="C51" s="395"/>
-      <c r="D51" s="395"/>
-      <c r="E51" s="395"/>
-      <c r="F51" s="395"/>
-      <c r="G51" s="395"/>
-      <c r="H51" s="395"/>
-      <c r="I51" s="395"/>
-      <c r="J51" s="395"/>
-      <c r="K51" s="395"/>
+      <c r="A51" s="399"/>
+      <c r="B51" s="400"/>
+      <c r="C51" s="400"/>
+      <c r="D51" s="400"/>
+      <c r="E51" s="400"/>
+      <c r="F51" s="400"/>
+      <c r="G51" s="400"/>
+      <c r="H51" s="400"/>
+      <c r="I51" s="400"/>
+      <c r="J51" s="400"/>
+      <c r="K51" s="400"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="396"/>
-      <c r="C52" s="396"/>
-      <c r="D52" s="396"/>
-      <c r="E52" s="396"/>
-      <c r="F52" s="396"/>
-      <c r="G52" s="396"/>
-      <c r="H52" s="396"/>
-      <c r="I52" s="396"/>
-      <c r="J52" s="396"/>
-      <c r="K52" s="396"/>
+      <c r="B52" s="398"/>
+      <c r="C52" s="398"/>
+      <c r="D52" s="398"/>
+      <c r="E52" s="398"/>
+      <c r="F52" s="398"/>
+      <c r="G52" s="398"/>
+      <c r="H52" s="398"/>
+      <c r="I52" s="398"/>
+      <c r="J52" s="398"/>
+      <c r="K52" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L10:R14"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R9"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:K11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
     <mergeCell ref="B15:K19"/>
     <mergeCell ref="B47:K47"/>
     <mergeCell ref="A48:A51"/>
@@ -61548,19 +61579,6 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:K27"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="L10:R14"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R9"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:K11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -62088,19 +62106,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="421" t="s">
         <v>5988</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
+      <c r="I1" s="421"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -62110,17 +62128,17 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1">
-      <c r="A2" s="441"/>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
-      <c r="K2" s="441"/>
+      <c r="A2" s="435"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
+      <c r="K2" s="435"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -62167,7 +62185,7 @@
       <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23" ht="16">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="440" t="s">
         <v>5032</v>
       </c>
       <c r="B4" s="99" t="s">
@@ -62204,17 +62222,17 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="77" customHeight="1">
-      <c r="A5" s="436"/>
-      <c r="B5" s="439"/>
-      <c r="C5" s="440"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="439"/>
-      <c r="G5" s="440"/>
-      <c r="H5" s="439"/>
-      <c r="I5" s="440"/>
-      <c r="J5" s="439"/>
-      <c r="K5" s="440"/>
+      <c r="A5" s="441"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="439"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="438"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="439"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -62229,17 +62247,17 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="77" customHeight="1">
-      <c r="A6" s="436"/>
-      <c r="B6" s="439"/>
-      <c r="C6" s="440"/>
-      <c r="D6" s="439"/>
-      <c r="E6" s="440"/>
-      <c r="F6" s="439"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="439"/>
-      <c r="I6" s="440"/>
-      <c r="J6" s="439"/>
-      <c r="K6" s="440"/>
+      <c r="A6" s="441"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="439"/>
+      <c r="D6" s="438"/>
+      <c r="E6" s="439"/>
+      <c r="F6" s="438"/>
+      <c r="G6" s="439"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="439"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -62254,17 +62272,17 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="77" customHeight="1">
-      <c r="A7" s="437"/>
-      <c r="B7" s="439"/>
-      <c r="C7" s="440"/>
-      <c r="D7" s="439"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="439"/>
-      <c r="G7" s="440"/>
-      <c r="H7" s="439"/>
-      <c r="I7" s="440"/>
-      <c r="J7" s="439"/>
-      <c r="K7" s="440"/>
+      <c r="A7" s="442"/>
+      <c r="B7" s="438"/>
+      <c r="C7" s="439"/>
+      <c r="D7" s="438"/>
+      <c r="E7" s="439"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="439"/>
+      <c r="H7" s="438"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="438"/>
+      <c r="K7" s="439"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -62279,7 +62297,7 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="16">
-      <c r="A8" s="435" t="s">
+      <c r="A8" s="440" t="s">
         <v>5021</v>
       </c>
       <c r="B8" s="99" t="s">
@@ -62311,17 +62329,17 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="77" customHeight="1">
-      <c r="A9" s="437"/>
-      <c r="B9" s="439"/>
-      <c r="C9" s="440"/>
-      <c r="D9" s="439"/>
-      <c r="E9" s="440"/>
-      <c r="F9" s="439"/>
-      <c r="G9" s="440"/>
-      <c r="H9" s="439"/>
-      <c r="I9" s="440"/>
-      <c r="J9" s="439"/>
-      <c r="K9" s="440"/>
+      <c r="A9" s="442"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="439"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438"/>
+      <c r="G9" s="439"/>
+      <c r="H9" s="438"/>
+      <c r="I9" s="439"/>
+      <c r="J9" s="438"/>
+      <c r="K9" s="439"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -62395,7 +62413,7 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="16">
-      <c r="A12" s="438" t="s">
+      <c r="A12" s="443" t="s">
         <v>5025</v>
       </c>
       <c r="B12" s="99" t="s">
@@ -62427,17 +62445,17 @@
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="77" customHeight="1">
-      <c r="A13" s="438"/>
-      <c r="B13" s="442"/>
-      <c r="C13" s="443"/>
-      <c r="D13" s="442"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="442"/>
-      <c r="I13" s="443"/>
-      <c r="J13" s="442"/>
-      <c r="K13" s="443"/>
+      <c r="A13" s="443"/>
+      <c r="B13" s="436"/>
+      <c r="C13" s="437"/>
+      <c r="D13" s="436"/>
+      <c r="E13" s="437"/>
+      <c r="F13" s="436"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="436"/>
+      <c r="I13" s="437"/>
+      <c r="J13" s="436"/>
+      <c r="K13" s="437"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -62448,6 +62466,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -62464,19 +62495,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62542,7 +62560,7 @@
       </c>
       <c r="AG4" s="9" t="str">
         <f ca="1">INDIRECT("A"&amp;RANDBETWEEN(2,396))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,801))</f>
-        <v>昌革</v>
+        <v>赖宪</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -62561,7 +62579,7 @@
       </c>
       <c r="AG5" s="9" t="str">
         <f ca="1">INDIRECT("A"&amp;RANDBETWEEN(2,396))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,801))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,801))</f>
-        <v>洪汉容</v>
+        <v>惠屹昭</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -62582,7 +62600,7 @@
       </c>
       <c r="AG6" s="9" t="str">
         <f ca="1">INDIRECT("A"&amp;RANDBETWEEN(2,396))&amp;INDIRECT("B"&amp;RANDBETWEEN(2,801))</f>
-        <v>董绮</v>
+        <v>海单</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -62601,7 +62619,7 @@
       </c>
       <c r="AG7" s="9" t="str">
         <f ca="1">INDIRECT("A"&amp;RANDBETWEEN(2,396))&amp;INDIRECT("B"&amp;RANDBETWEEN(2,801))&amp;INDIRECT("B"&amp;RANDBETWEEN(2,801))</f>
-        <v>让锋仁</v>
+        <v>舒沁飞</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -75533,21 +75551,21 @@
       </c>
       <c r="U3" s="270" t="str">
         <f ca="1">_xlfn.CONCAT(V3:AQ3)</f>
-        <v>长着一张杏仁型脸，气质高冷，线条深刻,体型伟岸,有着皎月般曲线婀娜的眉毛,眼眸如一泓清水,留着碎平头（男）,皮肤牛奶般,穿着咖啡色的马夹与紫色的七分裤,脚上穿着一双拖鞋</v>
+        <v>长着一张鹅蛋脸，自然大方，美丽耐看,体型强壮,有着皎月般曲线婀娜的眉毛,眼眸冷淡,留着短圆寸（男）,皮肤油亮,穿着蓝白的衬衣与白色的热裤,脚上穿着一双运动鞋</v>
       </c>
       <c r="V3" s="269" t="s">
         <v>6081</v>
       </c>
       <c r="W3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="W3" ca="1">IFERROR(INDIRECT(MID($T3,W$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,W$1,1)&amp;($A$2)))),"")</f>
-        <v>杏仁型脸，气质高冷，线条深刻</v>
+        <v>鹅蛋脸，自然大方，美丽耐看</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>6070</v>
       </c>
       <c r="Y3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="Y3" ca="1">IFERROR(INDIRECT(MID($T3,Y$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,Y$1,1)&amp;($A$2)))),"")</f>
-        <v>伟岸</v>
+        <v>强壮</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>6071</v>
@@ -75561,56 +75579,56 @@
       </c>
       <c r="AC3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AC3" ca="1">IFERROR(INDIRECT(MID($T3,AC$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AC$1,1)&amp;($A$2)))),"")</f>
-        <v>如一泓清水</v>
+        <v>冷淡</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>6074</v>
       </c>
       <c r="AE3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AE3" ca="1">IFERROR(INDIRECT(MID($T3,AE$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AE$1,1)&amp;($A$2)))),"")</f>
-        <v>碎平头（男）</v>
+        <v>短圆寸（男）</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>6075</v>
       </c>
       <c r="AG3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AG3" ca="1">IFERROR(INDIRECT(MID($T3,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>牛奶般</v>
+        <v>油亮</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>6076</v>
       </c>
       <c r="AI3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AI3" ca="1">IFERROR(INDIRECT(MID($T3,AI$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AI$1,1)&amp;($A$2)))),"")</f>
-        <v>咖啡色</v>
+        <v>蓝白</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>6077</v>
       </c>
       <c r="AK3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AK3" ca="1">IFERROR(INDIRECT(MID($T3,AK$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AK$1,1)&amp;($A$2)))),"")</f>
-        <v>马夹</v>
+        <v>衬衣</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>6078</v>
       </c>
       <c r="AM3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AM3" ca="1">IFERROR(INDIRECT(MID($T3,AM$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AM$1,1)&amp;($A$2)))),"")</f>
-        <v>紫色</v>
+        <v>白色</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>6077</v>
       </c>
       <c r="AO3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AO3" ca="1">IFERROR(INDIRECT(MID($T3,AO$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AO$1,1)&amp;($A$2)))),"")</f>
-        <v>七分裤</v>
+        <v>热裤</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>6079</v>
       </c>
       <c r="AQ3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AQ3" ca="1">IFERROR(INDIRECT(MID($T3,AQ$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T3,AQ$1,1)&amp;($A$2)))),"")</f>
-        <v>拖鞋</v>
+        <v>运动鞋</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="80">
@@ -75661,70 +75679,70 @@
       </c>
       <c r="U4" s="270" t="str">
         <f ca="1">_xlfn.CONCAT(V4:AQ4)</f>
-        <v>长着一张倒瓜子脸，气质时尚，五官立体,体型丰满,有着柳叶似的眉毛,眼眸如一泓清水,留着齐刘海短发（女），学生最爱,皮肤晶莹如玉,穿着橙色的正装/西装与青色的背心裙,脚上穿着一双增高鞋</v>
+        <v>长着一张方脸，棱角分明，气质刚硬,体型单薄,有着淡淡的眉毛,眼眸明澈,留着双马尾（女），甜美可爱,皮肤凝脂般,穿着紫色的棉袄与黑白的背心裙,脚上穿着一双棉鞋</v>
       </c>
       <c r="V4" s="269" t="s">
         <v>6081</v>
       </c>
       <c r="W4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="W4" ca="1">IFERROR(INDIRECT(MID($T4,W$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,W$1,1)&amp;($A$2)))),"")</f>
-        <v>倒瓜子脸，气质时尚，五官立体</v>
+        <v>方脸，棱角分明，气质刚硬</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>6070</v>
       </c>
       <c r="Y4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1">IFERROR(INDIRECT(MID($T4,Y$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,Y$1,1)&amp;($A$2)))),"")</f>
-        <v>丰满</v>
+        <v>单薄</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>6071</v>
       </c>
       <c r="AA4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AA4" ca="1">IFERROR(INDIRECT(MID($T4,AA$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AA$1,1)&amp;($A$2)))),"")</f>
-        <v>柳叶似</v>
+        <v>淡淡</v>
       </c>
       <c r="AB4" s="269" t="s">
         <v>6072</v>
       </c>
       <c r="AC4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AC4" ca="1">IFERROR(INDIRECT(MID($T4,AC$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AC$1,1)&amp;($A$2)))),"")</f>
-        <v>如一泓清水</v>
+        <v>明澈</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>6074</v>
       </c>
       <c r="AE4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AE4" ca="1">IFERROR(INDIRECT(MID($T4,AE$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AE$1,1)&amp;($A$2)))),"")</f>
-        <v>齐刘海短发（女），学生最爱</v>
+        <v>双马尾（女），甜美可爱</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>6075</v>
       </c>
       <c r="AG4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AG4" ca="1">IFERROR(INDIRECT(MID($T4,AG$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AG$1,1)&amp;($A$2)))),"")</f>
-        <v>晶莹如玉</v>
+        <v>凝脂般</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>6076</v>
       </c>
       <c r="AI4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AI4" ca="1">IFERROR(INDIRECT(MID($T4,AI$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AI$1,1)&amp;($A$2)))),"")</f>
-        <v>橙色</v>
+        <v>紫色</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>6077</v>
       </c>
       <c r="AK4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AK4" ca="1">IFERROR(INDIRECT(MID($T4,AK$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AK$1,1)&amp;($A$2)))),"")</f>
-        <v>正装/西装</v>
+        <v>棉袄</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>6078</v>
       </c>
       <c r="AM4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AM4" ca="1">IFERROR(INDIRECT(MID($T4,AM$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AM$1,1)&amp;($A$2)))),"")</f>
-        <v>青色</v>
+        <v>黑白</v>
       </c>
       <c r="AN4" s="3" t="s">
         <v>6077</v>
@@ -75738,7 +75756,7 @@
       </c>
       <c r="AQ4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="AQ4" ca="1">IFERROR(INDIRECT(MID($T4,AQ$1,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($T4,AQ$1,1)&amp;($A$2)))),"")</f>
-        <v>增高鞋</v>
+        <v>棉鞋</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="48">
@@ -76480,44 +76498,44 @@
       </c>
       <c r="Q2" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,B2)-2</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="280" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="R2" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDIRECT("B"&amp;(Q2+2))</f>
-        <v>5、父亲的女儿（正面） </v>
-      </c>
-      <c r="S2" s="280"/>
-      <c r="T2" s="281"/>
+        <v>8、过度控制的母亲（反面） </v>
+      </c>
+      <c r="S2" s="378"/>
+      <c r="T2" s="379"/>
       <c r="U2" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,D$2)-2</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="280" t="str" cm="1">
+        <v>12</v>
+      </c>
+      <c r="V2" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="V2" ca="1">INDIRECT("D"&amp;(U2+2))</f>
-        <v>18、背叛者（反面） </v>
-      </c>
-      <c r="W2" s="280"/>
-      <c r="X2" s="281"/>
+        <v>28、惩罚者（反面） </v>
+      </c>
+      <c r="W2" s="378"/>
+      <c r="X2" s="379"/>
       <c r="Y2" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,H$2)-2</f>
-        <v>2</v>
-      </c>
-      <c r="Z2" s="280" t="str" cm="1">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="Z2" ca="1">INDIRECT("H"&amp;(Y2+2))</f>
-        <v>38、小丑 </v>
-      </c>
-      <c r="AA2" s="280"/>
-      <c r="AB2" s="281"/>
+        <v>41、悲观者 </v>
+      </c>
+      <c r="AA2" s="378"/>
+      <c r="AB2" s="379"/>
       <c r="AC2" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,L$2)-2</f>
         <v>4</v>
       </c>
-      <c r="AD2" s="280" t="str" cm="1">
+      <c r="AD2" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="AD2" ca="1">INDIRECT("L"&amp;(AC2+2))</f>
         <v>36、爱侣 </v>
       </c>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="281"/>
+      <c r="AE2" s="378"/>
+      <c r="AF2" s="379"/>
     </row>
     <row r="3" spans="1:32" ht="169" customHeight="1">
       <c r="B3" s="263" t="s">
@@ -76565,43 +76583,47 @@
       <c r="Q3" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="R3" s="282" t="str" cm="1">
+      <c r="R3" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDIRECT("C"&amp;(Q2+2))</f>
-        <v>这位只承认父亲的女儿不像亚马逊女子一样，为女子的处境而斗争。 
-她可能还会反对那些女权事业，她站在男子这一步，来获取他们的仰慕。 </v>
-      </c>
-      <c r="S3" s="282"/>
+        <v>她会以帮助为名，控制别人的人生。 </v>
+      </c>
+      <c r="S3" s="383"/>
       <c r="T3" s="444"/>
       <c r="U3" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="V3" s="282" t="str" cm="1">
+      <c r="V3" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="V3" ca="1">INDIRECT("E"&amp;(U2+2))</f>
-        <v>这个人事业第一，如果看到自己的公司面临危机，他会竭尽全力掩盖过失。 </v>
-      </c>
-      <c r="W3" s="282"/>
+        <v>不是只关心自己得失与欲望的反派。 
+说他是反派，是指他只考虑整体的最高利益。 
+作为惩罚者，他会诅咒那个堕落的人，给他一个教训。 
+他想要摧毁这个人的自我。 
+会毁灭一个人的灵魂来将他改造成自己希望的模样。 </v>
+      </c>
+      <c r="W3" s="383"/>
       <c r="X3" s="444"/>
       <c r="Y3" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="Z3" s="282" t="str" cm="1">
+      <c r="Z3" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="Z3" ca="1">INDIRECT("I"&amp;(Y2+2))</f>
-        <v>跟逗乐者很像，不过他大多数时候都是出于好意。 
-他会因为一些身体上的笨拙而破坏了主角的计划。 
-他是一个很不灵活的冒险者，小丑总是试图帮助主角，可是总把去事情搞砸。 </v>
-      </c>
-      <c r="AA3" s="282"/>
+        <v>总是不赞同主角的行动，抱着“灭什么能行得通”的态度，所以连问题都懒得问。 
+他觉得一切都不会顺利，所以他连尝试都省了。 
+他是按兵不动的行家，喜欢看到自己的疑虑影响到主角的思考。 
+“他做不到，我们做不到，这是不可能做到的。”是他的口头禅。 </v>
+      </c>
+      <c r="AA3" s="383"/>
       <c r="AB3" s="444"/>
       <c r="AC3" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="AD3" s="282" t="str" cm="1">
+      <c r="AD3" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="AD3" ca="1">INDIRECT("M"&amp;(AC2+2))</f>
         <v>爱侣是家的所在和安全感来源。 
 他通常是主角情绪感情的对象，她会对他诉说困惑和害怕。 
 爱侣是乌云中的那道白光，可能是唯一相信主角的那个人。 </v>
       </c>
-      <c r="AE3" s="282"/>
+      <c r="AE3" s="383"/>
       <c r="AF3" s="444"/>
     </row>
     <row r="4" spans="1:32" ht="169" customHeight="1">
@@ -76649,44 +76671,44 @@
       </c>
       <c r="Q4" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,B2)-2</f>
-        <v>12</v>
-      </c>
-      <c r="R4" s="280" t="str" cm="1">
+        <v>11</v>
+      </c>
+      <c r="R4" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDIRECT("B"&amp;(Q4+2))</f>
-        <v>12、背叛者（反面） </v>
-      </c>
-      <c r="S4" s="280"/>
-      <c r="T4" s="281"/>
+        <v>11、神秘主义者（正面） </v>
+      </c>
+      <c r="S4" s="378"/>
+      <c r="T4" s="379"/>
       <c r="U4" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,D$2)-2</f>
-        <v>16</v>
-      </c>
-      <c r="V4" s="280" t="str" cm="1">
+        <v>10</v>
+      </c>
+      <c r="V4" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="V4" ca="1">INDIRECT("D"&amp;(U4+2))</f>
-        <v>32、独裁者（反面） </v>
-      </c>
-      <c r="W4" s="280"/>
-      <c r="X4" s="281"/>
+        <v>26、引诱者（反面） </v>
+      </c>
+      <c r="W4" s="378"/>
+      <c r="X4" s="379"/>
       <c r="Y4" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,H$2)-2</f>
-        <v>2</v>
-      </c>
-      <c r="Z4" s="280" t="str" cm="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="Z4" ca="1">INDIRECT("H"&amp;(Y4+2))</f>
-        <v>38、小丑 </v>
-      </c>
-      <c r="AA4" s="280"/>
-      <c r="AB4" s="281"/>
+        <v>39、劲敌 </v>
+      </c>
+      <c r="AA4" s="378"/>
+      <c r="AB4" s="379"/>
       <c r="AC4" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,L$2)-2</f>
-        <v>2</v>
-      </c>
-      <c r="AD4" s="280" t="str" cm="1">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="AD4" ca="1">INDIRECT("L"&amp;(AC4+2))</f>
-        <v>34、指导者 </v>
-      </c>
-      <c r="AE4" s="280"/>
-      <c r="AF4" s="281"/>
+        <v>36、爱侣 </v>
+      </c>
+      <c r="AE4" s="378"/>
+      <c r="AF4" s="379"/>
     </row>
     <row r="5" spans="1:32" ht="169" customHeight="1">
       <c r="B5" s="263" t="s">
@@ -76729,45 +76751,42 @@
       <c r="Q5" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="R5" s="282" t="str" cm="1">
+      <c r="R5" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDIRECT("C"&amp;(Q4+2))</f>
-        <v>看上去那么安静善良，背地里却偷偷毒死丈夫。 </v>
-      </c>
-      <c r="S5" s="282"/>
+        <v>她喜欢独处，沉浸在自己的思绪里。 </v>
+      </c>
+      <c r="S5" s="383"/>
       <c r="T5" s="444"/>
       <c r="U5" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="V5" s="282" t="str" cm="1">
+      <c r="V5" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="V5" ca="1">INDIRECT("E"&amp;(U4+2))</f>
-        <v>国度沉迷于统治和控制他人，想要让臣民彻底服从。 
-他甚至会惩罚无辜的人，只为了让别人明白他的权利。 
-他想要做一个神灵，可以任意处置他人的命运和人生。 </v>
-      </c>
-      <c r="W5" s="282"/>
+        <v>被女人所伤害或者背叛后，可能会变成引诱者。 
+把女人们从一段好的或者坏的感情里勾引出来，打乱她们的生活，然后抛弃她们，让她们自己收拾残局。 </v>
+      </c>
+      <c r="W5" s="383"/>
       <c r="X5" s="444"/>
       <c r="Y5" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="Z5" s="282" t="str" cm="1">
+      <c r="Z5" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1">INDIRECT("I"&amp;(Y4+2))</f>
-        <v>跟逗乐者很像，不过他大多数时候都是出于好意。 
-他会因为一些身体上的笨拙而破坏了主角的计划。 
-他是一个很不灵活的冒险者，小丑总是试图帮助主角，可是总把去事情搞砸。 </v>
-      </c>
-      <c r="AA5" s="282"/>
+        <v>并不是恶人，而是一个还算友好的麻烦制造者。 
+他不太在意主角的目标实现与否，只等待一个机会把主角的事情搞砸。 </v>
+      </c>
+      <c r="AA5" s="383"/>
       <c r="AB5" s="444"/>
       <c r="AC5" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="AD5" s="282" t="str" cm="1">
+      <c r="AD5" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="AD5" ca="1">INDIRECT("M"&amp;(AC4+2))</f>
-        <v>比起智者，指导者更接近主角的水平，跟他更相似。 
-指导者爱提建议，喜欢参与主角的事物。 
-指导者就像一个高级帮手，不过也许很快自己就需要帮助了。 
-但有时也会变成竞争者。 </v>
-      </c>
-      <c r="AE5" s="282"/>
+        <v>爱侣是家的所在和安全感来源。 
+他通常是主角情绪感情的对象，她会对他诉说困惑和害怕。 
+爱侣是乌云中的那道白光，可能是唯一相信主角的那个人。 </v>
+      </c>
+      <c r="AE5" s="383"/>
       <c r="AF5" s="444"/>
     </row>
     <row r="6" spans="1:32" ht="169" customHeight="1">
@@ -76854,32 +76873,32 @@
         <f ca="1">RANDBETWEEN($A$2+1,F$2)-2</f>
         <v>2</v>
       </c>
-      <c r="R7" s="280" t="str" cm="1">
+      <c r="R7" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDIRECT("F"&amp;(Q7+2))</f>
         <v>10、伟大理想： </v>
       </c>
-      <c r="S7" s="280"/>
-      <c r="T7" s="281"/>
+      <c r="S7" s="378"/>
+      <c r="T7" s="379"/>
       <c r="U7" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,J$2)-2</f>
         <v>1</v>
       </c>
-      <c r="V7" s="280" t="str" cm="1">
+      <c r="V7" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="V7" ca="1">INDIRECT("J"&amp;(U7+2))</f>
         <v>43、影子 </v>
       </c>
-      <c r="W7" s="280"/>
-      <c r="X7" s="281"/>
+      <c r="W7" s="378"/>
+      <c r="X7" s="379"/>
       <c r="Y7" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,N$2)-2</f>
         <v>2</v>
       </c>
-      <c r="Z7" s="280" t="str" cm="1">
+      <c r="Z7" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="Z7" ca="1">INDIRECT("N"&amp;(Y7+2))</f>
         <v>47、操控者（反面） </v>
       </c>
-      <c r="AA7" s="280"/>
-      <c r="AB7" s="281"/>
+      <c r="AA7" s="378"/>
+      <c r="AB7" s="379"/>
     </row>
     <row r="8" spans="1:32" ht="169" customHeight="1">
       <c r="B8" s="263" t="s">
@@ -76912,29 +76931,29 @@
       <c r="Q8" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="R8" s="282" t="str" cm="1">
+      <c r="R8" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDIRECT("G"&amp;(Q7+2))</f>
         <v>这类反派并不是为了做坏事而做，而是为了一个心中崇高的理想而奋斗，阻碍他的人都必将被踢开，这件事甚至可能关乎到整个世界。 
 他们大多认为自己是正义的、正确的，甚至可能真是正义正确的，会让人在知道真相之后，有种肃然起敬的感觉。 
 比如漫威里的灭霸，再比如轩辕剑天之痕里面的宇文拓。 </v>
       </c>
-      <c r="S8" s="282"/>
+      <c r="S8" s="383"/>
       <c r="T8" s="444"/>
       <c r="U8" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="V8" s="282" t="str" cm="1">
+      <c r="V8" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="V8" ca="1">INDIRECT("K"&amp;(U7+2))</f>
         <v>影子会映射主角的性格缺陷或是阴暗面，这样他就可以正视并且克服自己的缺点。 
 主角会试图避开影子，因为看到他就意味着看到自己的缺点和恐惧。 
 影子身上最明显的要素就是他和主角的缺点。 </v>
       </c>
-      <c r="W8" s="282"/>
+      <c r="W8" s="383"/>
       <c r="X8" s="444"/>
       <c r="Y8" s="268" t="s">
         <v>6278</v>
       </c>
-      <c r="Z8" s="282" t="str" cm="1">
+      <c r="Z8" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="Z8" ca="1">INDIRECT("O"&amp;(Y7+2))</f>
         <v>喜欢操纵人们，不顾他们的利益，为了得到自己想要的东西，他会见人说人话、见鬼说鬼话。 
 他有些反社会特质，因为他对待周围的存在都只是为了他个人乐趣、满足他的需求。 
@@ -76946,7 +76965,7 @@
 他会因为遭受‘不公正’待遇而勃然大怒、永不原谅。 
 他不为任何事情承担责任，如果他的公司破产了，那肯定是其他人造成的。 </v>
       </c>
-      <c r="AA8" s="282"/>
+      <c r="AA8" s="383"/>
       <c r="AB8" s="444"/>
     </row>
     <row r="9" spans="1:32" ht="169" customHeight="1">
@@ -76980,32 +76999,32 @@
         <f ca="1">RANDBETWEEN($A$2+1,F$2)-2</f>
         <v>13</v>
       </c>
-      <c r="R9" s="280" t="str" cm="1">
+      <c r="R9" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT("F"&amp;(Q9+2))</f>
         <v>4、混乱者： </v>
       </c>
-      <c r="S9" s="280"/>
-      <c r="T9" s="281"/>
+      <c r="S9" s="378"/>
+      <c r="T9" s="379"/>
       <c r="U9" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,J$2)-2</f>
-        <v>2</v>
-      </c>
-      <c r="V9" s="280" t="str" cm="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="V9" ca="1">INDIRECT("J"&amp;(U9+2))</f>
-        <v>44、迷失的灵魂 </v>
-      </c>
-      <c r="W9" s="280"/>
-      <c r="X9" s="281"/>
+        <v>43、影子 </v>
+      </c>
+      <c r="W9" s="378"/>
+      <c r="X9" s="379"/>
       <c r="Y9" s="268">
         <f ca="1">RANDBETWEEN($A$2+1,N$2)-2</f>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="280" t="str" cm="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="378" t="str" cm="1">
         <f t="array" aca="1" ref="Z9" ca="1">INDIRECT("N"&amp;(Y9+2))</f>
-        <v>46、游戏改变者（正面） </v>
-      </c>
-      <c r="AA9" s="280"/>
-      <c r="AB9" s="281"/>
+        <v>47、操控者（反面） </v>
+      </c>
+      <c r="AA9" s="378"/>
+      <c r="AB9" s="379"/>
     </row>
     <row r="10" spans="1:32" ht="169" customHeight="1">
       <c r="B10" s="263" t="s">
@@ -77032,37 +77051,41 @@
       <c r="Q10" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="R10" s="282" t="str" cm="1">
+      <c r="R10" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT("G"&amp;(Q9+2))</f>
         <v>这类反派甚至没有什么价值观人生观，它们是混乱的化身，只为杀戮破坏而生，是纯粹的邪恶生物，根本无法沟通。 
 它们往往生活在弱肉强食的世界，遵循着丛林法则，遇到时不是你死就是我活。 
 它们追逐着杀戮、破坏、死亡，甚至是自我毁灭。 </v>
       </c>
-      <c r="S10" s="282"/>
+      <c r="S10" s="383"/>
       <c r="T10" s="444"/>
       <c r="U10" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="V10" s="282" t="str" cm="1">
+      <c r="V10" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="V10" ca="1">INDIRECT("K"&amp;(U9+2))</f>
-        <v>象征着主角的过去，提醒她从何而来，以及为何要改变。 
-主角如果不能达成目标，就会回到迷失的灵魂这样的状态。 
-迷失的灵魂是代表过去的形象——那个从未达成目标的人，因为她根本没有目标。 
-她总是在生活里随波逐流，被动适应，而非创造生活。 
-她不知道如何改变人生，不敢走出第一步。 
-直到她看到主角，才意识到自己有多少该走而没走的路。 </v>
-      </c>
-      <c r="W10" s="282"/>
+        <v>影子会映射主角的性格缺陷或是阴暗面，这样他就可以正视并且克服自己的缺点。 
+主角会试图避开影子，因为看到他就意味着看到自己的缺点和恐惧。 
+影子身上最明显的要素就是他和主角的缺点。 </v>
+      </c>
+      <c r="W10" s="383"/>
       <c r="X10" s="444"/>
       <c r="Y10" s="268" t="s">
         <v>6279</v>
       </c>
-      <c r="Z10" s="282" t="str" cm="1">
+      <c r="Z10" s="383" t="str" cm="1">
         <f t="array" aca="1" ref="Z10" ca="1">INDIRECT("O"&amp;(Y9+2))</f>
-        <v>他想要为社会做些贡献，想要影响社会、创造传奇。 
-但他不是救世主那样自我牺牲的类型，他的动力来源于想要给人留下深刻印象的欲望，不过他也确实一直以某种方式在帮助别人。 </v>
-      </c>
-      <c r="AA10" s="282"/>
+        <v>喜欢操纵人们，不顾他们的利益，为了得到自己想要的东西，他会见人说人话、见鬼说鬼话。 
+他有些反社会特质，因为他对待周围的存在都只是为了他个人乐趣、满足他的需求。 
+他没有同理心或同情心。 
+面临艰难决定的时候，他很少犹豫或后悔，如果他稍感良心不安，也会找出一个方式来为自己开脱，辩称自己这样做是为了大家好。 
+没有什么能够阻止他，他不管做什么都要声势浩大、轰轰烈烈，讨论他所作所为的人越多越好。 
+他很愿意替别人做那些生死攸关的决定，在他眼里，他就像是决定他人生死的神祇。 
+谁也别想让他为任何事承担自认。 
+他会因为遭受‘不公正’待遇而勃然大怒、永不原谅。 
+他不为任何事情承担责任，如果他的公司破产了，那肯定是其他人造成的。 </v>
+      </c>
+      <c r="AA10" s="383"/>
       <c r="AB10" s="444"/>
     </row>
     <row r="11" spans="1:32" ht="169" customHeight="1">
@@ -77597,20 +77620,11 @@
     <sortCondition ref="F3:F212"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="V7:X7"/>
@@ -77627,11 +77641,20 @@
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Q6:T6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
